--- a/Projects/VZ Consolidated IS,BS, & CF .xlsx
+++ b/Projects/VZ Consolidated IS,BS, & CF .xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\FineLit\FineLit Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\FineLit\FineLit Portfolio\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB030ABE-18FE-4C84-B4A2-4DDF732FC2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2BF464-37D3-426E-9B39-4091F7EA1D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A25086B5-4036-4D1C-9EF2-0F45196E0FB3}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Dashboard" sheetId="9" r:id="rId1"/>
     <sheet name="DCF" sheetId="6" r:id="rId2"/>
     <sheet name="Consolidated Financials" sheetId="4" r:id="rId3"/>
-    <sheet name="Statements of Income" sheetId="1" r:id="rId4"/>
-    <sheet name="Balance Sheets" sheetId="2" r:id="rId5"/>
-    <sheet name="Statements of Cash Flows" sheetId="3" r:id="rId6"/>
-    <sheet name="Scenario Summary" sheetId="12" r:id="rId7"/>
+    <sheet name="Scenario Summary" sheetId="14" r:id="rId4"/>
+    <sheet name="Statements of Income" sheetId="1" r:id="rId5"/>
+    <sheet name="Balance Sheets" sheetId="2" r:id="rId6"/>
+    <sheet name="Statements of Cash Flows" sheetId="3" r:id="rId7"/>
     <sheet name="Pivot Tables" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -46,8 +46,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="18" r:id="rId9"/>
+    <pivotCache cacheId="21" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="240">
   <si>
     <t>Consolidated Statements of Income - USD ($) shares in Millions, $ in Millions</t>
   </si>
@@ -759,14 +759,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>Created by Daniel Encarnacao on 12/8/2020
-Modified by Daniel Encarnacao on 12/12/2020</t>
-  </si>
-  <si>
     <t>Slightly Above Average</t>
-  </si>
-  <si>
-    <t>Created by Daniel Encarnacao on 12/8/2020</t>
   </si>
   <si>
     <t>Above Average</t>
@@ -809,7 +802,7 @@
     <numFmt numFmtId="167" formatCode="yyyy"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,14 +991,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,6 +1084,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
       </patternFill>
     </fill>
   </fills>
@@ -1639,7 +1647,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1937,7 +1945,6 @@
     <xf numFmtId="166" fontId="0" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="21" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2147,7 +2154,6 @@
     <xf numFmtId="44" fontId="17" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2155,24 +2161,72 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2188,63 +2242,25 @@
     <xf numFmtId="44" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="26" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="26" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2253,6 +2269,9 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="53">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
@@ -3603,9 +3622,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4958,892 +4974,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="544490744"/>
-        <c:axId val="544491728"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:sysClr val="window" lastClr="FFFFFF"/>
-                    </a:solidFill>
-                    <a:ln>
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000">
-                          <a:lumMod val="25000"/>
-                          <a:lumOff val="75000"/>
-                        </a:sysClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="dk1">
-                              <a:lumMod val="65000"/>
-                              <a:lumOff val="35000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="1"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                        <a:prstGeom prst="wedgeRectCallout">
-                          <a:avLst/>
-                        </a:prstGeom>
-                        <a:noFill/>
-                        <a:ln>
-                          <a:noFill/>
-                        </a:ln>
-                      </c15:spPr>
-                      <c15:showLeaderLines val="0"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Scenario Summary'!$B$3:$F$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Above Average</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Slightly Above Average</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Base</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Slightly Below Average</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Below Average</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Scenario Summary'!$B$5:$F$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-6B6E-4BE2-BD79-C92F1BF0C8DB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:sysClr val="window" lastClr="FFFFFF"/>
-                    </a:solidFill>
-                    <a:ln>
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000">
-                          <a:lumMod val="25000"/>
-                          <a:lumOff val="75000"/>
-                        </a:sysClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="dk1">
-                              <a:lumMod val="65000"/>
-                              <a:lumOff val="35000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="1"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                        <a:prstGeom prst="wedgeRectCallout">
-                          <a:avLst/>
-                        </a:prstGeom>
-                        <a:noFill/>
-                        <a:ln>
-                          <a:noFill/>
-                        </a:ln>
-                      </c15:spPr>
-                      <c15:showLeaderLines val="0"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Scenario Summary'!$B$3:$F$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Above Average</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Slightly Above Average</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Base</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Slightly Below Average</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Below Average</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Scenario Summary'!$B$6:$F$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-6B6E-4BE2-BD79-C92F1BF0C8DB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:sysClr val="window" lastClr="FFFFFF"/>
-                    </a:solidFill>
-                    <a:ln>
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000">
-                          <a:lumMod val="25000"/>
-                          <a:lumOff val="75000"/>
-                        </a:sysClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="dk1">
-                              <a:lumMod val="65000"/>
-                              <a:lumOff val="35000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="1"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                        <a:prstGeom prst="wedgeRectCallout">
-                          <a:avLst/>
-                        </a:prstGeom>
-                        <a:noFill/>
-                        <a:ln>
-                          <a:noFill/>
-                        </a:ln>
-                      </c15:spPr>
-                      <c15:showLeaderLines val="0"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Scenario Summary'!$B$3:$F$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Above Average</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Slightly Above Average</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Base</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Slightly Below Average</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Below Average</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Scenario Summary'!$B$7:$F$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-6B6E-4BE2-BD79-C92F1BF0C8DB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Expected Return</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.6111111111111124E-2"/>
-                  <c:y val="0.15277777777777779"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-6B6E-4BE2-BD79-C92F1BF0C8DB}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.7777777777777776E-2"/>
-                  <c:y val="-4.1666666666666706E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-6B6E-4BE2-BD79-C92F1BF0C8DB}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.1666666666666664E-2"/>
-                  <c:y val="-3.2407407407407447E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6B6E-4BE2-BD79-C92F1BF0C8DB}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.1830065359477121E-2"/>
-                  <c:y val="-4.444444444444526E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-6B6E-4BE2-BD79-C92F1BF0C8DB}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.26944449590859965"/>
-                  <c:y val="-1.3889063867016624E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F080A542-320C-42FD-AC41-4A5DBF7251F2}" type="CATEGORYNAME">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>,      </a:t>
-                    </a:r>
-                    <a:fld id="{19998052-A187-4AB9-86B6-EF8A064EA32E}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6B6E-4BE2-BD79-C92F1BF0C8DB}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scenario Summary'!$B$3:$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Above Average</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Slightly Above Average</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Base</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Slightly Below Average</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Below Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scenario Summary'!$B$8:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.445962470027571</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32040518499000198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20118917885187901</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.41917670016286E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.28534045356649101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6B6E-4BE2-BD79-C92F1BF0C8DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="544495992"/>
-        <c:axId val="544502552"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="544490744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544491728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="544491728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544490744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="544502552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="544495992"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="544495992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544502552"/>
-        <c:crosses val="max"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7441,7 +6571,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8107,6 +7237,456 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario Summary'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario Summary'!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Below Average</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Slightly Below Average</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Slightly Above Average</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Above Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario Summary'!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34DF-4DE9-9316-29D1CF512952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="440720576"/>
+        <c:axId val="440727792"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario Summary'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Performance:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario Summary'!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Below Average</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Slightly Below Average</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Slightly Above Average</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Above Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario Summary'!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.153576932607428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18014193044558499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20118917885187901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22526238828898501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.267789292610634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34DF-4DE9-9316-29D1CF512952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="440723200"/>
+        <c:axId val="440721560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440720576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440727792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440727792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440720576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="440721560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440723200"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="440723200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="440721560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -11380,8 +10960,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11486,44 +11066,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021D77C8-C836-4CBE-892C-0A77418635C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -11554,7 +11096,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11592,6 +11134,44 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FE80EF-7B8C-4B38-9D51-543C415FB327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
@@ -11602,7 +11182,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Encarnacao" refreshedDate="44177.464138657408" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24" xr:uid="{8BDAD1E6-2278-43C3-BBC4-E72195285292}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Encarnacao" refreshedDate="44183.644242361108" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24" xr:uid="{8BDAD1E6-2278-43C3-BBC4-E72195285292}">
   <cacheSource type="worksheet">
     <worksheetSource name="CommonSizedBS"/>
   </cacheSource>
@@ -11636,108 +11216,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="2016" numFmtId="10">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-0.30222203728362185" maxValue="1.0919191078561918" count="22">
-        <n v="1.1794577770497174E-2"/>
-        <n v="4.9225980833811122E-3"/>
-        <n v="7.1721680727332301E-2"/>
-        <n v="1.965762961749529E-2"/>
-        <n v="0.10809648619870588"/>
-        <n v="0.34708411827340485"/>
-        <n v="0.36201163076419035"/>
-        <n v="0.14784994676058646"/>
-        <n v="3.4957818003112456E-2"/>
-        <n v="1"/>
-        <n v="8.8999218707415007E-2"/>
-        <n v="4.881715936551774E-2"/>
-        <n v="0.13781637807293276"/>
-        <n v="0.47891872740156621"/>
-        <n v="0.38326489452550105"/>
-        <n v="0.86218362192706721"/>
-        <e v="#N/A"/>
-        <n v="1.7643142476697737E-2"/>
-        <n v="1.0919191078561918"/>
-        <n v="-0.30222203728362185"/>
-        <n v="0.12991011984021306"/>
-        <n v="6.2749667110519311E-2"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-0.30222203728362185" maxValue="1.0919191078561918"/>
     </cacheField>
     <cacheField name="2017" numFmtId="10">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-0.15975563362946718" maxValue="1.0458522612840424" count="22">
-        <n v="8.0849955083358294E-3"/>
-        <n v="4.0211088771617345E-3"/>
-        <n v="9.1361615910213384E-2"/>
-        <n v="1.2860548410806439E-2"/>
-        <n v="0.11632826870651738"/>
-        <n v="0.34443091976060014"/>
-        <n v="0.34788425117541599"/>
-        <n v="0.15329602594665226"/>
-        <n v="3.8060534410814216E-2"/>
-        <n v="1"/>
-        <n v="9.9935986745490826E-2"/>
-        <n v="5.5564446285348498E-2"/>
-        <n v="0.15550043303083932"/>
-        <n v="0.53489663742139548"/>
-        <n v="0.30960292954776519"/>
-        <n v="0.84449956696916062"/>
-        <e v="#N/A"/>
-        <n v="9.488218049992168E-3"/>
-        <n v="1.0458522612840424"/>
-        <n v="-0.15975563362946718"/>
-        <n v="6.8811958735202627E-2"/>
-        <n v="3.5603195560230047E-2"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-0.15975563362946718" maxValue="1.0458522612840424"/>
     </cacheField>
     <cacheField name="2018" numFmtId="10">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-0.12769146408334855" maxValue="1.0414732224456225" count="22">
-        <n v="1.0365179040059812E-2"/>
-        <n v="5.0447647349799304E-3"/>
-        <n v="9.4785691899301056E-2"/>
-        <n v="2.0590645284315541E-2"/>
-        <n v="0.13078628095865635"/>
-        <n v="0.33714585638279798"/>
-        <n v="0.35797061500062305"/>
-        <n v="0.12985360364612636"/>
-        <n v="4.4243644011796292E-2"/>
-        <n v="1"/>
-        <n v="0.10708693645029721"/>
-        <n v="7.3429818341035319E-2"/>
-        <n v="0.18051675479133253"/>
-        <n v="0.50387161560829818"/>
-        <n v="0.31561162960036931"/>
-        <n v="0.81948324520866744"/>
-        <e v="#N/A"/>
-        <n v="7.8413452750868209E-3"/>
-        <n v="1.0414732224456225"/>
-        <n v="-0.12769146408334855"/>
-        <n v="4.9771522573569732E-2"/>
-        <n v="2.8605373789069639E-2"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-0.12769146408334855" maxValue="1.0414732224456225"/>
     </cacheField>
     <cacheField name="2019" numFmtId="10">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-0.10853823506007798" maxValue="1.0593777353385851" count="22">
-        <n v="8.8918749378699945E-3"/>
-        <n v="4.874420262779928E-3"/>
-        <n v="8.7167111717461873E-2"/>
-        <n v="2.7518878951896808E-2"/>
-        <n v="0.12845228587000859"/>
-        <n v="0.31507196797005421"/>
-        <n v="0.40555382258070044"/>
-        <n v="0.11615997148018524"/>
-        <n v="3.4761952099051509E-2"/>
-        <n v="1"/>
-        <n v="9.5267637138912675E-2"/>
-        <n v="0.10075494119497405"/>
-        <n v="0.19602257833388673"/>
-        <n v="0.43999790294112506"/>
-        <n v="0.36397951872498818"/>
-        <n v="0.8039774216661133"/>
-        <e v="#N/A"/>
-        <n v="6.8274051086178083E-3"/>
-        <n v="1.0593777353385851"/>
-        <n v="-0.10853823506007798"/>
-        <n v="1.941593061192011E-2"/>
-        <n v="2.2917164000954882E-2"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-0.10853823506007798" maxValue="1.0593777353385851"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -11749,7 +11237,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Encarnacao" refreshedDate="44177.47951365741" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25" xr:uid="{E39688EE-DEEA-4136-AFFF-6708038E8905}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Encarnacao" refreshedDate="44183.644242361108" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25" xr:uid="{E39688EE-DEEA-4136-AFFF-6708038E8905}">
   <cacheSource type="worksheet">
     <worksheetSource name="TrendAnalysisBS"/>
   </cacheSource>
@@ -11784,94 +11272,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="2016" numFmtId="2">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="100" count="2">
-        <n v="100"/>
-        <e v="#N/A"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
     </cacheField>
     <cacheField name="2017" numFmtId="2">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="68.895833333333329" maxValue="185.94790279627165" count="24">
-        <n v="72.1875"/>
-        <n v="86.023294509151413"/>
-        <n v="134.14606292468451"/>
-        <n v="68.895833333333329"/>
-        <n v="113.32828187156659"/>
-        <n v="104.50378166629302"/>
-        <n v="101.19914928277298"/>
-        <n v="109.18785662844164"/>
-        <n v="114.6555763823805"/>
-        <n v="105.30878859857482"/>
-        <n v="108.36523248098811"/>
-        <n v="109.8446077975249"/>
-        <n v="108.8892551087673"/>
-        <n v="107.78598730947616"/>
-        <n v="77.957925925925935"/>
-        <n v="94.526574222372091"/>
-        <n v="96.505986881552403"/>
-        <e v="#N/A"/>
-        <n v="100"/>
-        <n v="178.10296863686597"/>
-        <n v="98.292716508329889"/>
-        <n v="98.494554772581679"/>
-        <n v="105.50397877984085"/>
-        <n v="185.94790279627165"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="68.895833333333329" maxValue="185.94790279627165"/>
     </cacheField>
     <cacheField name="2018" numFmtId="2">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="78.596740740740742" maxValue="227.654793608522" count="24">
-        <n v="95.3125"/>
-        <n v="111.14808652246255"/>
-        <n v="143.33352366813224"/>
-        <n v="113.60416666666666"/>
-        <n v="131.22182231483234"/>
-        <n v="105.35096931009664"/>
-        <n v="107.24580297751029"/>
-        <n v="95.255110520192787"/>
-        <n v="137.26569821930647"/>
-        <n v="108.45646654107625"/>
-        <n v="114.84203542081354"/>
-        <n v="143.56564622685403"/>
-        <n v="125.01647989452866"/>
-        <n v="100.41732664346077"/>
-        <n v="78.596740740740742"/>
-        <n v="90.71746185619152"/>
-        <n v="95.444428293693335"/>
-        <e v="#N/A"/>
-        <n v="101.17924528301887"/>
-        <n v="217.13730421858921"/>
-        <n v="96.186148974253058"/>
-        <n v="87.219730941704029"/>
-        <n v="103.77984084880636"/>
-        <n v="227.654793608522"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="78.596740740740742" maxValue="227.654793608522"/>
     </cacheField>
     <cacheField name="2019" numFmtId="2">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="39.077514413837285" maxValue="261.46388149134486" count="24">
-        <n v="90.069444444444443"/>
-        <n v="118.30282861896839"/>
-        <n v="145.20070804545196"/>
-        <n v="167.25"/>
-        <n v="141.97007008903202"/>
-        <n v="108.45299760474802"/>
-        <n v="133.84202905108828"/>
-        <n v="93.864605839011688"/>
-        <n v="118.80271790065603"/>
-        <n v="119.47211073798019"/>
-        <n v="111.29485020160261"/>
-        <n v="214.59011817251326"/>
-        <n v="147.88398154251811"/>
-        <n v="95.52227480959472"/>
-        <n v="98.740148148148137"/>
-        <n v="96.952710107055552"/>
-        <n v="103.97187346694041"/>
-        <e v="#N/A"/>
-        <n v="101.17924528301887"/>
-        <n v="253.67173507107199"/>
-        <n v="93.900592041855973"/>
-        <n v="39.077514413837285"/>
-        <n v="95.490716180371351"/>
-        <n v="261.46388149134486"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="39.077514413837285" maxValue="261.46388149134486"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -11886,171 +11296,171 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1.1794577770497174E-2"/>
+    <n v="8.0849955083358294E-3"/>
+    <n v="1.0365179040059812E-2"/>
+    <n v="8.8918749378699945E-3"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="4.9225980833811122E-3"/>
+    <n v="4.0211088771617345E-3"/>
+    <n v="5.0447647349799304E-3"/>
+    <n v="4.874420262779928E-3"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="7.1721680727332301E-2"/>
+    <n v="9.1361615910213384E-2"/>
+    <n v="9.4785691899301056E-2"/>
+    <n v="8.7167111717461873E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
+    <n v="1.965762961749529E-2"/>
+    <n v="1.2860548410806439E-2"/>
+    <n v="2.0590645284315541E-2"/>
+    <n v="2.7518878951896808E-2"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
+    <n v="0.10809648619870588"/>
+    <n v="0.11632826870651738"/>
+    <n v="0.13078628095865635"/>
+    <n v="0.12845228587000859"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
+    <n v="0.34708411827340485"/>
+    <n v="0.34443091976060014"/>
+    <n v="0.33714585638279798"/>
+    <n v="0.31507196797005421"/>
   </r>
   <r>
     <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
+    <n v="0.36201163076419035"/>
+    <n v="0.34788425117541599"/>
+    <n v="0.35797061500062305"/>
+    <n v="0.40555382258070044"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
+    <n v="0.14784994676058646"/>
+    <n v="0.15329602594665226"/>
+    <n v="0.12985360364612636"/>
+    <n v="0.11615997148018524"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
+    <n v="3.4957818003112456E-2"/>
+    <n v="3.8060534410814216E-2"/>
+    <n v="4.4243644011796292E-2"/>
+    <n v="3.4761952099051509E-2"/>
   </r>
   <r>
     <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
+    <n v="8.8999218707415007E-2"/>
+    <n v="9.9935986745490826E-2"/>
+    <n v="0.10708693645029721"/>
+    <n v="9.5267637138912675E-2"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
+    <n v="4.881715936551774E-2"/>
+    <n v="5.5564446285348498E-2"/>
+    <n v="7.3429818341035319E-2"/>
+    <n v="0.10075494119497405"/>
   </r>
   <r>
     <x v="12"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="12"/>
+    <n v="0.13781637807293276"/>
+    <n v="0.15550043303083932"/>
+    <n v="0.18051675479133253"/>
+    <n v="0.19602257833388673"/>
   </r>
   <r>
     <x v="13"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="13"/>
+    <n v="0.47891872740156621"/>
+    <n v="0.53489663742139548"/>
+    <n v="0.50387161560829818"/>
+    <n v="0.43999790294112506"/>
   </r>
   <r>
     <x v="14"/>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="14"/>
+    <n v="0.38326489452550105"/>
+    <n v="0.30960292954776519"/>
+    <n v="0.31561162960036931"/>
+    <n v="0.36397951872498818"/>
   </r>
   <r>
     <x v="15"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="15"/>
+    <n v="0.86218362192706721"/>
+    <n v="0.84449956696916062"/>
+    <n v="0.81948324520866744"/>
+    <n v="0.8039774216661133"/>
   </r>
   <r>
     <x v="16"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="17"/>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="16"/>
+    <e v="#N/A"/>
+    <e v="#N/A"/>
+    <e v="#N/A"/>
+    <e v="#N/A"/>
   </r>
   <r>
     <x v="18"/>
-    <x v="17"/>
-    <x v="17"/>
-    <x v="17"/>
-    <x v="17"/>
+    <n v="1.7643142476697737E-2"/>
+    <n v="9.488218049992168E-3"/>
+    <n v="7.8413452750868209E-3"/>
+    <n v="6.8274051086178083E-3"/>
   </r>
   <r>
     <x v="19"/>
-    <x v="18"/>
-    <x v="18"/>
-    <x v="18"/>
-    <x v="18"/>
+    <n v="1.0919191078561918"/>
+    <n v="1.0458522612840424"/>
+    <n v="1.0414732224456225"/>
+    <n v="1.0593777353385851"/>
   </r>
   <r>
     <x v="20"/>
-    <x v="19"/>
-    <x v="19"/>
-    <x v="19"/>
-    <x v="19"/>
+    <n v="-0.30222203728362185"/>
+    <n v="-0.15975563362946718"/>
+    <n v="-0.12769146408334855"/>
+    <n v="-0.10853823506007798"/>
   </r>
   <r>
     <x v="21"/>
-    <x v="20"/>
-    <x v="20"/>
-    <x v="20"/>
-    <x v="20"/>
+    <n v="0.12991011984021306"/>
+    <n v="6.8811958735202627E-2"/>
+    <n v="4.9771522573569732E-2"/>
+    <n v="1.941593061192011E-2"/>
   </r>
   <r>
     <x v="22"/>
-    <x v="21"/>
-    <x v="21"/>
-    <x v="21"/>
-    <x v="21"/>
+    <n v="6.2749667110519311E-2"/>
+    <n v="3.5603195560230047E-2"/>
+    <n v="2.8605373789069639E-2"/>
+    <n v="2.2917164000954882E-2"/>
   </r>
   <r>
     <x v="23"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -12059,397 +11469,184 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="100"/>
+    <n v="72.1875"/>
+    <n v="95.3125"/>
+    <n v="90.069444444444443"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="100"/>
+    <n v="86.023294509151413"/>
+    <n v="111.14808652246255"/>
+    <n v="118.30282861896839"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="100"/>
+    <n v="134.14606292468451"/>
+    <n v="143.33352366813224"/>
+    <n v="145.20070804545196"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
+    <n v="100"/>
+    <n v="68.895833333333329"/>
+    <n v="113.60416666666666"/>
+    <n v="167.25"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
+    <n v="100"/>
+    <n v="113.32828187156659"/>
+    <n v="131.22182231483234"/>
+    <n v="141.97007008903202"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
+    <n v="100"/>
+    <n v="104.50378166629302"/>
+    <n v="105.35096931009664"/>
+    <n v="108.45299760474802"/>
   </r>
   <r>
     <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
+    <n v="100"/>
+    <n v="101.19914928277298"/>
+    <n v="107.24580297751029"/>
+    <n v="133.84202905108828"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
+    <n v="100"/>
+    <n v="109.18785662844164"/>
+    <n v="95.255110520192787"/>
+    <n v="93.864605839011688"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
+    <n v="100"/>
+    <n v="114.6555763823805"/>
+    <n v="137.26569821930647"/>
+    <n v="118.80271790065603"/>
   </r>
   <r>
     <x v="9"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
+    <n v="100"/>
+    <n v="105.30878859857482"/>
+    <n v="108.45646654107625"/>
+    <n v="119.47211073798019"/>
   </r>
   <r>
     <x v="10"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
+    <n v="100"/>
+    <n v="108.36523248098811"/>
+    <n v="114.84203542081354"/>
+    <n v="111.29485020160261"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
+    <n v="100"/>
+    <n v="109.8446077975249"/>
+    <n v="143.56564622685403"/>
+    <n v="214.59011817251326"/>
   </r>
   <r>
     <x v="12"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="12"/>
+    <n v="100"/>
+    <n v="108.8892551087673"/>
+    <n v="125.01647989452866"/>
+    <n v="147.88398154251811"/>
   </r>
   <r>
     <x v="13"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="13"/>
+    <n v="100"/>
+    <n v="107.78598730947616"/>
+    <n v="100.41732664346077"/>
+    <n v="95.52227480959472"/>
   </r>
   <r>
     <x v="14"/>
-    <x v="0"/>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="14"/>
+    <n v="100"/>
+    <n v="77.957925925925935"/>
+    <n v="78.596740740740742"/>
+    <n v="98.740148148148137"/>
   </r>
   <r>
     <x v="15"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="15"/>
+    <n v="100"/>
+    <n v="94.526574222372091"/>
+    <n v="90.71746185619152"/>
+    <n v="96.952710107055552"/>
   </r>
   <r>
     <x v="16"/>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="16"/>
+    <n v="100"/>
+    <n v="96.505986881552403"/>
+    <n v="95.444428293693335"/>
+    <n v="103.97187346694041"/>
   </r>
   <r>
     <x v="17"/>
-    <x v="1"/>
-    <x v="17"/>
-    <x v="17"/>
-    <x v="17"/>
+    <e v="#N/A"/>
+    <e v="#N/A"/>
+    <e v="#N/A"/>
+    <e v="#N/A"/>
   </r>
   <r>
     <x v="18"/>
-    <x v="0"/>
-    <x v="18"/>
-    <x v="18"/>
-    <x v="18"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="101.17924528301887"/>
+    <n v="101.17924528301887"/>
   </r>
   <r>
     <x v="19"/>
-    <x v="0"/>
-    <x v="19"/>
-    <x v="19"/>
-    <x v="19"/>
+    <n v="100"/>
+    <n v="178.10296863686597"/>
+    <n v="217.13730421858921"/>
+    <n v="253.67173507107199"/>
   </r>
   <r>
     <x v="20"/>
-    <x v="0"/>
-    <x v="20"/>
-    <x v="20"/>
-    <x v="20"/>
+    <n v="100"/>
+    <n v="98.292716508329889"/>
+    <n v="96.186148974253058"/>
+    <n v="93.900592041855973"/>
   </r>
   <r>
     <x v="21"/>
-    <x v="0"/>
-    <x v="21"/>
-    <x v="21"/>
-    <x v="21"/>
+    <n v="100"/>
+    <n v="98.494554772581679"/>
+    <n v="87.219730941704029"/>
+    <n v="39.077514413837285"/>
   </r>
   <r>
     <x v="22"/>
-    <x v="0"/>
-    <x v="22"/>
-    <x v="22"/>
-    <x v="22"/>
+    <n v="100"/>
+    <n v="105.50397877984085"/>
+    <n v="103.77984084880636"/>
+    <n v="95.490716180371351"/>
   </r>
   <r>
     <x v="23"/>
-    <x v="0"/>
-    <x v="23"/>
-    <x v="23"/>
-    <x v="23"/>
+    <n v="100"/>
+    <n v="185.94790279627165"/>
+    <n v="227.654793608522"/>
+    <n v="261.46388149134486"/>
   </r>
   <r>
     <x v="24"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
+    <n v="100"/>
+    <n v="105.30878859857482"/>
+    <n v="108.45646654107625"/>
+    <n v="119.47211073798019"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98A09A1D-A604-4DDC-A3C5-5C0FA55D5081}" name="PivotTable9" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Trend Analysis Balance Sheet" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A12:C17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="26">
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="21"/>
-        <item x="0"/>
-        <item h="1" x="18"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item h="1" x="13"/>
-        <item h="1" x="22"/>
-        <item h="1" x="8"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="17"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="19"/>
-        <item h="1" x="9"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="23"/>
-        <item h="1" x="16"/>
-        <item h="1" x="24"/>
-        <item h="1" x="15"/>
-        <item h="1" x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="25">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="22"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="25">
-        <item x="14"/>
-        <item x="21"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="13"/>
-        <item x="18"/>
-        <item x="22"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="25">
-        <item x="21"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="20"/>
-        <item x="22"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="2016A" fld="1" baseField="2" baseItem="0"/>
-    <dataField name="2017A" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="2018A" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="2019A" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA439A93-8D5E-4CBB-BBB1-A39CE4B742BB}" name="PivotTable6" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Commonsized Balance Sheet" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA439A93-8D5E-4CBB-BBB1-A39CE4B742BB}" name="PivotTable6" cacheId="18" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Commonsized Balance Sheet" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -12481,114 +11678,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="23">
-        <item x="19"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="21"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="20"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="23">
-        <item x="19"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="21"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="23">
-        <item x="19"/>
-        <item x="1"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="21"/>
-        <item x="8"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="23">
-        <item x="19"/>
-        <item x="1"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item x="14"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="-2"/>
@@ -12634,7 +11727,7 @@
     <dataField name="2016A" fld="1" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="52">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12724,22 +11817,145 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98A09A1D-A604-4DDC-A3C5-5C0FA55D5081}" name="PivotTable9" cacheId="21" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Trend Analysis Balance Sheet" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A12:C17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="26">
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="21"/>
+        <item x="0"/>
+        <item h="1" x="18"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item h="1" x="13"/>
+        <item h="1" x="22"/>
+        <item h="1" x="8"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="17"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="19"/>
+        <item h="1" x="9"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="23"/>
+        <item h="1" x="16"/>
+        <item h="1" x="24"/>
+        <item h="1" x="15"/>
+        <item h="1" x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="2016A" fld="1" baseField="2" baseItem="0"/>
+    <dataField name="2017A" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="2018A" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="2019A" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA7E9B2E-50FD-41A1-8314-E76B0238AEBE}" name="BalanceSheet" displayName="BalanceSheet" ref="B4:F29" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA7E9B2E-50FD-41A1-8314-E76B0238AEBE}" name="BalanceSheet" displayName="BalanceSheet" ref="B4:F29" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" dataCellStyle="Currency">
   <autoFilter ref="B4:F29" xr:uid="{0FF0ECFF-090C-4267-A00D-CAB475C39DB9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{76DBCE9C-BE72-49B4-A80B-DB2733CDA75B}" name="$ in Millions" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{9CDE8BFB-8C6D-461A-A022-1534DD5FBF0F}" name="2016" dataDxfId="46" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{5526BE2B-9EB4-4269-A198-E6B12B1196CC}" name="2017" dataDxfId="45" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{225E8D95-A436-481B-88D1-1C2C9F91E9D8}" name="2018" dataDxfId="44" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{CC19083A-9489-4AF3-A3E5-118DC0CE2E01}" name="2019" dataDxfId="43" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{76DBCE9C-BE72-49B4-A80B-DB2733CDA75B}" name="$ in Millions" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{9CDE8BFB-8C6D-461A-A022-1534DD5FBF0F}" name="2016" dataDxfId="47" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{5526BE2B-9EB4-4269-A198-E6B12B1196CC}" name="2017" dataDxfId="46" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{225E8D95-A436-481B-88D1-1C2C9F91E9D8}" name="2018" dataDxfId="45" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{CC19083A-9489-4AF3-A3E5-118DC0CE2E01}" name="2019" dataDxfId="44" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2B24BD5A-A163-4D12-B8C0-C86DDAC2D068}" name="IncomeStatement" displayName="IncomeStatement" ref="H4:K19" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2B24BD5A-A163-4D12-B8C0-C86DDAC2D068}" name="IncomeStatement" displayName="IncomeStatement" ref="H4:K19" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="H4:K19" xr:uid="{79E2C455-8D61-4AD8-BD0A-BC6F1252C186}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A53753B2-A787-4D30-8FE5-3761A064AAD2}" name="$ in Millions"/>
@@ -12752,33 +11968,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4678F4F1-DB40-4498-8B6B-BCADDFE44B6A}" name="CashFlows" displayName="CashFlows" ref="M4:P10" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4678F4F1-DB40-4498-8B6B-BCADDFE44B6A}" name="CashFlows" displayName="CashFlows" ref="M4:P10" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="M4:P10" xr:uid="{699F3EE0-E79E-495A-BFB1-27F6C042F0B5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{084911F1-61D5-4584-86A8-75EA17BC516C}" name="$ in Millions" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{67F70E60-8AC4-4596-ACEA-2635357A5D97}" name="2017" dataDxfId="34" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{B800C273-0B62-4968-A64D-D67408D53C0B}" name="2018" dataDxfId="33" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{DB545EBC-48BC-45EA-B593-F75CFE3116AA}" name="2019" dataDxfId="32" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{084911F1-61D5-4584-86A8-75EA17BC516C}" name="$ in Millions" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{67F70E60-8AC4-4596-ACEA-2635357A5D97}" name="2017" dataDxfId="35" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{B800C273-0B62-4968-A64D-D67408D53C0B}" name="2018" dataDxfId="34" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{DB545EBC-48BC-45EA-B593-F75CFE3116AA}" name="2019" dataDxfId="33" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ACE6A386-4543-407E-A29D-DF7E9E8EB059}" name="CommonSizedBS" displayName="CommonSizedBS" ref="B34:F58" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ACE6A386-4543-407E-A29D-DF7E9E8EB059}" name="CommonSizedBS" displayName="CommonSizedBS" ref="B34:F58" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" dataCellStyle="Percent">
   <autoFilter ref="B34:F58" xr:uid="{6E8C7FA7-EF44-4F32-9FE9-525BF1807AA4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AACF0B8F-9E1E-4BAB-8400-C1A05F4BE20A}" name="$ in Millions" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{6559254D-1097-4DE5-9E8C-1DDFFDB4A913}" name="2016" dataDxfId="26" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{AACF0B8F-9E1E-4BAB-8400-C1A05F4BE20A}" name="$ in Millions" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{6559254D-1097-4DE5-9E8C-1DDFFDB4A913}" name="2016" dataDxfId="27" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(IF(ABS(C5/C$28) &gt;  0, C5/C$28, NA()), NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{57F6BDF5-478B-42FE-BA4C-7E4265520EFC}" name="2017" dataDxfId="25" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{57F6BDF5-478B-42FE-BA4C-7E4265520EFC}" name="2017" dataDxfId="26" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(IF(ABS(D5/D$28) &gt;  0, D5/D$28, NA()), NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{63FAD019-7163-4172-B2B2-A0EC1075F9A5}" name="2018" dataDxfId="24" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{63FAD019-7163-4172-B2B2-A0EC1075F9A5}" name="2018" dataDxfId="25" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(IF(ABS(E5/E$28) &gt;  0, E5/E$28, NA()), NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A1216156-7324-434C-8F48-B8FB5BEF7325}" name="2019" dataDxfId="23" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{A1216156-7324-434C-8F48-B8FB5BEF7325}" name="2019" dataDxfId="24" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(IF(ABS(F5/F$28) &gt;  0, F5/F$28, NA()), NA())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12787,20 +12003,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1B879201-6A88-48A5-A7AE-AEF721362EA6}" name="TrendAnalysisBS" displayName="TrendAnalysisBS" ref="B64:F89" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1B879201-6A88-48A5-A7AE-AEF721362EA6}" name="TrendAnalysisBS" displayName="TrendAnalysisBS" ref="B64:F89" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" dataCellStyle="Currency">
   <autoFilter ref="B64:F89" xr:uid="{DC0A3A45-E3F4-459A-8CAE-3E808A17B49F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7FC225F1-18F0-4475-9C95-A9DC1A134491}" name="$ in Millions" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{C9456BEE-F84D-4694-B53C-7E581D7AFC42}" name="2016" dataDxfId="17" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{7FC225F1-18F0-4475-9C95-A9DC1A134491}" name="$ in Millions" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{C9456BEE-F84D-4694-B53C-7E581D7AFC42}" name="2016" dataDxfId="18" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(IF(ABS((C5/$C5)*100) &gt;  0,(C5/$C5)*100, NA()), NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48984423-1131-4398-81EE-CF60D6BA4D6B}" name="2017" dataDxfId="16" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{48984423-1131-4398-81EE-CF60D6BA4D6B}" name="2017" dataDxfId="17" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(IF(ABS((D5/$C5)*100) &gt;  0,(D5/$C5)*100, NA()), NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{13705006-2C75-437D-99B2-66387D5363C4}" name="2018" dataDxfId="15" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{13705006-2C75-437D-99B2-66387D5363C4}" name="2018" dataDxfId="16" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(IF(ABS((E5/$C5)*100) &gt;  0,(E5/$C5)*100, NA()), NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2839225C-667C-44EF-9E0A-256B6E2429DA}" name="2019" dataDxfId="14" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{2839225C-667C-44EF-9E0A-256B6E2429DA}" name="2019" dataDxfId="15" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(IF(ABS((F5/$C5)*100) &gt;  0,(F5/$C5)*100, NA()), NA())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12809,7 +12025,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DE6F37EC-01DE-45D2-978F-D91E1CAB3BAF}" name="TrendAnalysisIS" displayName="TrendAnalysisIS" ref="H64:K79" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DE6F37EC-01DE-45D2-978F-D91E1CAB3BAF}" name="TrendAnalysisIS" displayName="TrendAnalysisIS" ref="H64:K79" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="H64:K79" xr:uid="{1583356A-807F-4425-82A5-2F595CA8AE45}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C12AF67-C704-45A4-9CF6-FC63C1C6089A}" name="$ in Millions"/>
@@ -12828,17 +12044,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6B0AB957-A6DA-44D5-A00F-AA6D422D6E77}" name="TrendAnalysisCF" displayName="TrendAnalysisCF" ref="M64:P70" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6B0AB957-A6DA-44D5-A00F-AA6D422D6E77}" name="TrendAnalysisCF" displayName="TrendAnalysisCF" ref="M64:P70" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="M64:P70" xr:uid="{CB6F492B-F0A5-4AA6-9E33-2F0237F1998C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{134C3817-5272-4431-8737-8977769F9502}" name="$ in Millions" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A2326057-F525-4C56-8795-649157734230}" name="2017" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{134C3817-5272-4431-8737-8977769F9502}" name="$ in Millions" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A2326057-F525-4C56-8795-649157734230}" name="2017" dataDxfId="6">
       <calculatedColumnFormula>IFERROR(IF(ABS((N5/$N5)*100) &gt;  0,ABS((N5/$N5)*100), NA()), NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{19F5047F-CEAF-481E-AFA3-2CF3D8EE01A9}" name="2018" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{19F5047F-CEAF-481E-AFA3-2CF3D8EE01A9}" name="2018" dataDxfId="5">
       <calculatedColumnFormula>IFERROR(IF(ABS((O5/$N5)*100) &gt;  0,ABS((O5/$N5)*100), NA()), NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6A110DE8-252C-4D22-9F76-2398792B1AC6}" name="2019" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{6A110DE8-252C-4D22-9F76-2398792B1AC6}" name="2019" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(IF(ABS((P5/$N5)*100) &gt;  0,ABS((P5/$N5)*100), NA()), NA())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12847,7 +12063,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{587549D6-67C3-4EA4-ABE1-706AF037709B}" name="CommonSizedIS" displayName="CommonSizedIS" ref="H34:K47" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{587549D6-67C3-4EA4-ABE1-706AF037709B}" name="CommonSizedIS" displayName="CommonSizedIS" ref="H34:K47" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="H34:K47" xr:uid="{C4A3F025-063D-4B67-AC8C-E6970A1E3F48}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F62B0EE8-D841-41DF-A5A7-6ACF2254B5EA}" name="$ in Millions"/>
@@ -13165,7 +12381,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13176,157 +12392,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="297" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="268"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="267"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="307"/>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="268"/>
+      <c r="A2" s="297"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="267"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="298" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="308"/>
-      <c r="C3" s="308"/>
-      <c r="D3" s="310" t="s">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="290" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="310"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="308" t="s">
+      <c r="A4" s="298" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="308"/>
-      <c r="C4" s="308"/>
-      <c r="D4" s="310" t="s">
+      <c r="B4" s="298"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="290" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="310"/>
+      <c r="E4" s="290"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A5" s="309" t="s">
+      <c r="A5" s="291" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="309"/>
-      <c r="C5" s="309"/>
-      <c r="D5" s="312">
+      <c r="B5" s="291"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="293">
         <v>61.5</v>
       </c>
-      <c r="E5" s="312"/>
+      <c r="E5" s="293"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A6" s="309" t="s">
+      <c r="A6" s="291" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="309"/>
-      <c r="C6" s="309"/>
-      <c r="D6" s="313">
+      <c r="B6" s="291"/>
+      <c r="C6" s="291"/>
+      <c r="D6" s="294">
         <f>DCF!H1</f>
         <v>73.873134499390574</v>
       </c>
-      <c r="E6" s="314"/>
+      <c r="E6" s="295"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A7" s="309" t="s">
+      <c r="A7" s="291" t="s">
         <v>225</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="309"/>
-      <c r="D7" s="315">
+      <c r="B7" s="291"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="296">
         <f>DCF!H2</f>
         <v>0.20118917885187926</v>
       </c>
-      <c r="E7" s="310"/>
+      <c r="E7" s="290"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A8" s="309" t="s">
+      <c r="A8" s="291" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="309"/>
-      <c r="C8" s="309"/>
-      <c r="D8" s="310">
+      <c r="B8" s="291"/>
+      <c r="C8" s="291"/>
+      <c r="D8" s="290">
         <v>3</v>
       </c>
-      <c r="E8" s="310"/>
+      <c r="E8" s="290"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="311" t="str">
+      <c r="A9" s="292" t="str">
         <f>DCF!B5</f>
         <v>(1-Above Avg., 2-Slightly Above Avg., 3-Base, 4-Slightly Below Avg., 5-Below Average)</v>
       </c>
-      <c r="B9" s="311"/>
-      <c r="C9" s="311"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="292"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="311"/>
-      <c r="B10" s="311"/>
-      <c r="C10" s="311"/>
+      <c r="A10" s="292"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="311"/>
-      <c r="B11" s="311"/>
-      <c r="C11" s="311"/>
+      <c r="A11" s="292"/>
+      <c r="B11" s="292"/>
+      <c r="C11" s="292"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="142" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="142"/>
       <c r="C12" s="142"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="153" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="142">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="141">
         <v>0.12</v>
       </c>
     </row>
   </sheetData>
-  <scenarios current="0" show="0" sqref="D7">
+  <scenarios current="1" show="0" sqref="D7">
     <scenario name="Base" locked="1" count="1" user="Daniel Encarnacao" comment="Created by Daniel Encarnacao on 12/8/2020_x000a_Modified by Daniel Encarnacao on 12/12/2020">
       <inputCells r="D8" val="3"/>
     </scenario>
-    <scenario name="Slightly Above Average" locked="1" count="1" user="Daniel Encarnacao" comment="Created by Daniel Encarnacao on 12/8/2020">
+    <scenario name="Slightly Below Average" locked="1" count="1" user="Daniel Encarnacao" comment="Created by Daniel Encarnacao on 12/8/2020_x000a_Modified by Daniel Encarnacao on 12/18/2020">
       <inputCells r="D8" val="4"/>
     </scenario>
-    <scenario name="Above Average" locked="1" count="1" user="Daniel Encarnacao" comment="Created by Daniel Encarnacao on 12/8/2020">
+    <scenario name="Below Average" locked="1" count="1" user="Daniel Encarnacao" comment="Created by Daniel Encarnacao on 12/8/2020_x000a_Modified by Daniel Encarnacao on 12/18/2020">
       <inputCells r="D8" val="5"/>
     </scenario>
-    <scenario name="Slightly Below Average" locked="1" count="1" user="Daniel Encarnacao" comment="Created by Daniel Encarnacao on 12/8/2020">
+    <scenario name="Slightly Above Average" locked="1" count="1" user="Daniel Encarnacao" comment="Created by Daniel Encarnacao on 12/8/2020_x000a_Modified by Daniel Encarnacao on 12/18/2020">
       <inputCells r="D8" val="2"/>
     </scenario>
-    <scenario name="Below Average" locked="1" count="1" user="Daniel Encarnacao" comment="Created by Daniel Encarnacao on 12/8/2020">
+    <scenario name="Above Average" locked="1" count="1" user="Daniel Encarnacao" comment="Created by Daniel Encarnacao on 12/8/2020_x000a_Modified by Daniel Encarnacao on 12/18/2020">
       <inputCells r="D8" val="1"/>
     </scenario>
   </scenarios>
   <mergeCells count="14">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -13336,11 +12557,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13372,20 +12588,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="301" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="157">
+      <c r="B1" s="301"/>
+      <c r="C1" s="156">
         <f>Dashboard!D5</f>
         <v>61.5</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="306" t="s">
+      <c r="F1" s="304" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="306"/>
+      <c r="G1" s="304"/>
       <c r="H1" s="120">
         <f>Target_Price</f>
         <v>73.873134499390574</v>
@@ -13403,20 +12619,20 @@
       <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="301" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="303"/>
-      <c r="C2" s="159">
+      <c r="B2" s="301"/>
+      <c r="C2" s="158">
         <f>'Consolidated Financials'!P18</f>
         <v>4140</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="306" t="s">
+      <c r="F2" s="304" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="306"/>
+      <c r="G2" s="304"/>
       <c r="H2" s="121">
         <f>(H1-C1)/C1</f>
         <v>0.20118917885187926</v>
@@ -13434,10 +12650,10 @@
       <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="301" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="303"/>
+      <c r="B3" s="301"/>
       <c r="C3" s="124">
         <f>N29</f>
         <v>8.2784699519411836E-2</v>
@@ -13460,10 +12676,10 @@
       <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="301" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="303"/>
+      <c r="B4" s="301"/>
       <c r="C4" s="125">
         <f>N20</f>
         <v>9.8672464583656166E-2</v>
@@ -13471,7 +12687,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="158">
+      <c r="G4" s="157">
         <f>Dashboard!$D$8</f>
         <v>3</v>
       </c>
@@ -13492,14 +12708,14 @@
       <c r="A5" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="156" t="s">
-        <v>241</v>
+      <c r="B5" s="155" t="s">
+        <v>239</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="160">
+      <c r="G5" s="159">
         <v>3</v>
       </c>
       <c r="H5" s="124"/>
@@ -13516,39 +12732,39 @@
       <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="222" t="s">
+      <c r="A6" s="221" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224" t="s">
+      <c r="B6" s="222"/>
+      <c r="C6" s="223" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="223" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="224" t="s">
+      <c r="E6" s="223" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="224" t="s">
+      <c r="F6" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="224" t="s">
+      <c r="G6" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="224" t="s">
+      <c r="H6" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="I6" s="224" t="s">
+      <c r="I6" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="J6" s="225" t="s">
+      <c r="J6" s="224" t="s">
         <v>161</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="304" t="s">
+      <c r="L6" s="302" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="305"/>
+      <c r="M6" s="303"/>
       <c r="N6" s="15" t="s">
         <v>154</v>
       </c>
@@ -13565,44 +12781,44 @@
       <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="226" t="s">
+      <c r="A7" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="227"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="229">
+      <c r="B7" s="226"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="228">
         <f>RevenueY1</f>
         <v>126034</v>
       </c>
-      <c r="E7" s="229">
+      <c r="E7" s="228">
         <f>RevenueY2</f>
         <v>130863</v>
       </c>
-      <c r="F7" s="229">
+      <c r="F7" s="228">
         <f>RevenueY3</f>
         <v>131868</v>
       </c>
-      <c r="G7" s="230">
+      <c r="G7" s="229">
         <f>IFERROR(F7*(1+G8), 0)</f>
         <v>134900.62411682113</v>
       </c>
-      <c r="H7" s="230">
+      <c r="H7" s="229">
         <f>IFERROR(G7*(1+H8), 0)</f>
         <v>136969.81149147992</v>
       </c>
-      <c r="I7" s="230">
+      <c r="I7" s="229">
         <f>IFERROR(H7*(1+I8), 0)</f>
         <v>139595.25071834619</v>
       </c>
-      <c r="J7" s="231">
+      <c r="J7" s="230">
         <f>IFERROR(I7*(1+J8), 0)</f>
         <v>142003.73075798561</v>
       </c>
       <c r="K7" s="13"/>
-      <c r="L7" s="304" t="s">
+      <c r="L7" s="302" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="305"/>
+      <c r="M7" s="303"/>
       <c r="N7" s="126">
         <f>C7</f>
         <v>0</v>
@@ -13623,41 +12839,41 @@
       <c r="S7" s="13"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="232"/>
-      <c r="B8" s="233" t="s">
+      <c r="A8" s="231"/>
+      <c r="B8" s="232" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235">
+      <c r="C8" s="233"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="234">
         <f>IFERROR((E7-D7)/D7,0)</f>
         <v>3.8315057841534821E-2</v>
       </c>
-      <c r="F8" s="235">
+      <c r="F8" s="234">
         <f>IFERROR((F7-E7)/E7,0)</f>
         <v>7.6797872584305725E-3</v>
       </c>
-      <c r="G8" s="236">
+      <c r="G8" s="235">
         <f>+CHOOSE($G$4,(IFERROR(SUM(E8:F8)/2, 0))*1.25,(IFERROR(SUM(E8:F8)/2, 0))*1.1,(IFERROR(SUM(E8:F8)/2, 0)),(IFERROR(SUM(E8:F8)/2, 0))*0.9, (IFERROR(SUM(E8:F8)/2, 0))*0.75)</f>
         <v>2.2997422549982695E-2</v>
       </c>
-      <c r="H8" s="236">
+      <c r="H8" s="235">
         <f>+CHOOSE($G$4,(IFERROR(SUM(F8:G8)/2, 0))*1.25,(IFERROR(SUM(F8:G8)/2, 0))*1.1,(IFERROR(SUM(F8:G8)/2, 0)),(IFERROR(SUM(F8:G8)/2, 0))*0.9, (IFERROR(SUM(F8:G8)/2, 0))*0.75)</f>
         <v>1.5338604904206634E-2</v>
       </c>
-      <c r="I8" s="236">
+      <c r="I8" s="235">
         <f>+CHOOSE($G$4,(IFERROR(SUM(G8:H8)/2, 0))*1.25,(IFERROR(SUM(G8:H8)/2, 0))*1.1,(IFERROR(SUM(G8:H8)/2, 0)),(IFERROR(SUM(G8:H8)/2, 0))*0.9, (IFERROR(SUM(G8:H8)/2, 0))*0.75)</f>
         <v>1.9168013727094663E-2</v>
       </c>
-      <c r="J8" s="237">
+      <c r="J8" s="236">
         <f>+CHOOSE($G$4,(IFERROR(SUM(H8:I8)/2, 0))*1.25,(IFERROR(SUM(H8:I8)/2, 0))*1.1,(IFERROR(SUM(H8:I8)/2, 0)),(IFERROR(SUM(H8:I8)/2, 0))*0.9, (IFERROR(SUM(H8:I8)/2, 0))*0.75)</f>
         <v>1.7253309315650649E-2</v>
       </c>
       <c r="K8" s="13"/>
-      <c r="L8" s="300" t="s">
+      <c r="L8" s="299" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="301"/>
+      <c r="M8" s="300"/>
       <c r="N8" s="126"/>
       <c r="O8" s="126">
         <f>'Consolidated Financials'!I17</f>
@@ -13675,44 +12891,44 @@
       <c r="S8" s="13"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="226" t="s">
+      <c r="A9" s="225" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="227"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="239">
+      <c r="B9" s="226"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="238">
         <f>SUM(O8:O11)</f>
         <v>32815</v>
       </c>
-      <c r="E9" s="239">
+      <c r="E9" s="238">
         <f>SUM(P8:P11)</f>
         <v>36784</v>
       </c>
-      <c r="F9" s="239">
+      <c r="F9" s="238">
         <f>SUM(Q8:Q11)</f>
         <v>34871</v>
       </c>
-      <c r="G9" s="240">
+      <c r="G9" s="239">
         <f>IFERROR(G$7*G10, 0)</f>
         <v>36238.479966597522</v>
       </c>
-      <c r="H9" s="240">
+      <c r="H9" s="239">
         <f>IFERROR(H7*H10, 0)</f>
         <v>37171.664846557207</v>
       </c>
-      <c r="I9" s="240">
+      <c r="I9" s="239">
         <f>IFERROR(I7*I10, 0)</f>
         <v>37432.719229520066</v>
       </c>
-      <c r="J9" s="241">
+      <c r="J9" s="240">
         <f>IFERROR(J7*J10, 0)</f>
         <v>38254.316925990293</v>
       </c>
       <c r="K9" s="13"/>
-      <c r="L9" s="300" t="s">
+      <c r="L9" s="299" t="s">
         <v>164</v>
       </c>
-      <c r="M9" s="301"/>
+      <c r="M9" s="300"/>
       <c r="N9" s="126"/>
       <c r="O9" s="126">
         <f>'Consolidated Financials'!I14*(-1)</f>
@@ -13730,44 +12946,44 @@
       <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="242"/>
-      <c r="B10" s="233" t="s">
+      <c r="A10" s="241"/>
+      <c r="B10" s="232" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235">
+      <c r="C10" s="234"/>
+      <c r="D10" s="234">
         <f>D9/D7</f>
         <v>0.26036625037688244</v>
       </c>
-      <c r="E10" s="235">
+      <c r="E10" s="234">
         <f>E9/E7</f>
         <v>0.28108785523792057</v>
       </c>
-      <c r="F10" s="235">
+      <c r="F10" s="234">
         <f>F9/F7</f>
         <v>0.26443868110534779</v>
       </c>
-      <c r="G10" s="243">
+      <c r="G10" s="242">
         <f>SUM(D10:F10)/3</f>
         <v>0.26863092890671697</v>
       </c>
-      <c r="H10" s="243">
+      <c r="H10" s="242">
         <f>SUM(E10:G10)/3</f>
         <v>0.27138582174999515</v>
       </c>
-      <c r="I10" s="243">
+      <c r="I10" s="242">
         <f>SUM(F10:H10)/3</f>
         <v>0.26815181058735332</v>
       </c>
-      <c r="J10" s="244">
+      <c r="J10" s="243">
         <f>SUM(G10:I10)/3</f>
         <v>0.2693895204146885</v>
       </c>
       <c r="K10" s="13"/>
-      <c r="L10" s="300" t="s">
+      <c r="L10" s="299" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="301"/>
+      <c r="M10" s="300"/>
       <c r="N10" s="126"/>
       <c r="O10" s="126">
         <f>'Consolidated Financials'!I12</f>
@@ -13785,44 +13001,44 @@
       <c r="S10" s="13"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="226" t="s">
+      <c r="A11" s="225" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="227"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="239">
+      <c r="B11" s="226"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="238">
         <f>SUM(O8:O10)</f>
         <v>15861</v>
       </c>
-      <c r="E11" s="239">
+      <c r="E11" s="238">
         <f>SUM(P8:P10)</f>
         <v>14790</v>
       </c>
-      <c r="F11" s="239">
+      <c r="F11" s="238">
         <f>SUM(Q8:Q10)</f>
         <v>18003</v>
       </c>
-      <c r="G11" s="240">
+      <c r="G11" s="239">
         <f>IFERROR(G$7*G12, 0)</f>
         <v>16880.06288693257</v>
       </c>
-      <c r="H11" s="240">
+      <c r="H11" s="239">
         <f>IFERROR(H$7*H12, 0)</f>
         <v>17106.226336575575</v>
       </c>
-      <c r="I11" s="240">
+      <c r="I11" s="239">
         <f>IFERROR(I$7*I12, 0)</f>
         <v>17986.521662483545</v>
       </c>
-      <c r="J11" s="241">
+      <c r="J11" s="240">
         <f>IFERROR(J$7*J12, 0)</f>
         <v>17933.545172285703</v>
       </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="300" t="s">
+      <c r="L11" s="299" t="s">
         <v>168</v>
       </c>
-      <c r="M11" s="301"/>
+      <c r="M11" s="300"/>
       <c r="N11" s="126"/>
       <c r="O11" s="126">
         <f>'Consolidated Financials'!I9</f>
@@ -13840,36 +13056,36 @@
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="232"/>
-      <c r="B12" s="233" t="s">
+      <c r="A12" s="231"/>
+      <c r="B12" s="232" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235">
+      <c r="C12" s="234"/>
+      <c r="D12" s="234">
         <f>D11/D7</f>
         <v>0.12584699366837521</v>
       </c>
-      <c r="E12" s="235">
+      <c r="E12" s="234">
         <f>E11/E7</f>
         <v>0.11301895875839618</v>
       </c>
-      <c r="F12" s="235">
+      <c r="F12" s="234">
         <f>F11/F7</f>
         <v>0.13652288652288652</v>
       </c>
-      <c r="G12" s="243">
+      <c r="G12" s="242">
         <f>SUM(D12:F12)/3</f>
         <v>0.12512961298321931</v>
       </c>
-      <c r="H12" s="243">
+      <c r="H12" s="242">
         <f>SUM(E12:G12)/3</f>
         <v>0.12489048608816733</v>
       </c>
-      <c r="I12" s="243">
+      <c r="I12" s="242">
         <f>SUM(F12:H12)/3</f>
         <v>0.12884766186475771</v>
       </c>
-      <c r="J12" s="244">
+      <c r="J12" s="243">
         <f>SUM(G12:I12)/3</f>
         <v>0.12628925364538146</v>
       </c>
@@ -13896,44 +13112,44 @@
       <c r="S12" s="13"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="226" t="s">
+      <c r="A13" s="225" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="227"/>
-      <c r="C13" s="238"/>
-      <c r="D13" s="239">
+      <c r="B13" s="226"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="238">
         <f>O11</f>
         <v>16954</v>
       </c>
-      <c r="E13" s="239">
+      <c r="E13" s="238">
         <f>P11</f>
         <v>21994</v>
       </c>
-      <c r="F13" s="239">
+      <c r="F13" s="238">
         <f>Q11</f>
         <v>16868</v>
       </c>
-      <c r="G13" s="240">
+      <c r="G13" s="239">
         <f>IFERROR(G$7*G14, 0)</f>
         <v>19358.417079664949</v>
       </c>
-      <c r="H13" s="240">
+      <c r="H13" s="239">
         <f>IFERROR(H$7*H14, 0)</f>
         <v>20065.438509981621</v>
       </c>
-      <c r="I13" s="240">
+      <c r="I13" s="239">
         <f>IFERROR(I$7*I14, 0)</f>
         <v>19446.197567036506</v>
       </c>
-      <c r="J13" s="241">
+      <c r="J13" s="240">
         <f>IFERROR(J$7*J14, 0)</f>
         <v>20320.771753704579</v>
       </c>
       <c r="K13" s="13"/>
-      <c r="L13" s="300" t="s">
+      <c r="L13" s="299" t="s">
         <v>170</v>
       </c>
-      <c r="M13" s="301"/>
+      <c r="M13" s="300"/>
       <c r="N13" s="127">
         <f>'Consolidated Financials'!C10</f>
         <v>84751</v>
@@ -13954,44 +13170,44 @@
       <c r="S13" s="13"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="232"/>
-      <c r="B14" s="233" t="s">
+      <c r="A14" s="231"/>
+      <c r="B14" s="232" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235">
+      <c r="C14" s="234"/>
+      <c r="D14" s="234">
         <f>D13/D7</f>
         <v>0.13451925670850723</v>
       </c>
-      <c r="E14" s="235">
+      <c r="E14" s="234">
         <f>E13/E7</f>
         <v>0.16806889647952439</v>
       </c>
-      <c r="F14" s="235">
+      <c r="F14" s="234">
         <f>F13/F7</f>
         <v>0.12791579458246125</v>
       </c>
-      <c r="G14" s="243">
+      <c r="G14" s="242">
         <f>SUM(D14:F14)/3</f>
         <v>0.1435013159234976</v>
       </c>
-      <c r="H14" s="243">
+      <c r="H14" s="242">
         <f>SUM(E14:G14)/3</f>
         <v>0.14649533566182774</v>
       </c>
-      <c r="I14" s="243">
+      <c r="I14" s="242">
         <f>SUM(F14:H14)/3</f>
         <v>0.13930414872259553</v>
       </c>
-      <c r="J14" s="244">
+      <c r="J14" s="243">
         <f>SUM(G14:I14)/3</f>
         <v>0.14310026676930696</v>
       </c>
       <c r="K14" s="13"/>
-      <c r="L14" s="300" t="s">
+      <c r="L14" s="299" t="s">
         <v>185</v>
       </c>
-      <c r="M14" s="301"/>
+      <c r="M14" s="300"/>
       <c r="N14" s="127"/>
       <c r="O14" s="152">
         <f>ABS(O10/D37)</f>
@@ -14009,16 +13225,16 @@
       <c r="S14" s="13"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="245"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="246"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
-      <c r="F15" s="246"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="248"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="246"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="247"/>
       <c r="K15" s="13"/>
       <c r="L15" s="129"/>
       <c r="M15" s="130"/>
@@ -14030,32 +13246,32 @@
       <c r="S15" s="13"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="226" t="s">
+      <c r="A16" s="225" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="227"/>
-      <c r="C16" s="246" t="s">
+      <c r="B16" s="226"/>
+      <c r="C16" s="245" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="246" t="s">
+      <c r="D16" s="245" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="246" t="s">
+      <c r="E16" s="245" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="246" t="s">
+      <c r="F16" s="245" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="246" t="s">
+      <c r="G16" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="246" t="s">
+      <c r="H16" s="245" t="s">
         <v>159</v>
       </c>
-      <c r="I16" s="246" t="s">
+      <c r="I16" s="245" t="s">
         <v>160</v>
       </c>
-      <c r="J16" s="249" t="s">
+      <c r="J16" s="248" t="s">
         <v>161</v>
       </c>
       <c r="K16" s="13"/>
@@ -14069,39 +13285,39 @@
       <c r="S16" s="13"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="226" t="s">
+      <c r="A17" s="225" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="227"/>
-      <c r="C17" s="250">
+      <c r="B17" s="226"/>
+      <c r="C17" s="249">
         <f>CashY1</f>
         <v>2880</v>
       </c>
-      <c r="D17" s="250">
+      <c r="D17" s="249">
         <f>CashY2</f>
         <v>2079</v>
       </c>
-      <c r="E17" s="250">
+      <c r="E17" s="249">
         <f>CashY3</f>
         <v>2745</v>
       </c>
-      <c r="F17" s="250">
+      <c r="F17" s="249">
         <f>CashY4</f>
         <v>2594</v>
       </c>
-      <c r="G17" s="251">
+      <c r="G17" s="250">
         <f>+CHOOSE($G$5,(IFERROR(F17*(1+G18), 0))*1.15,(IFERROR(F17*(1+G18), 0))*1.05,(IFERROR(F17*(1+G18), 0)),(IFERROR(F17*(1+G18), 0))*0.95, (IFERROR(F17*(1+G18), 0))*0.85)</f>
         <v>2582.9428267353474</v>
       </c>
-      <c r="H17" s="251">
+      <c r="H17" s="250">
         <f t="shared" ref="H17:J17" si="2">+CHOOSE($G$5,(IFERROR(G17*(1+H18), 0))*1.15,(IFERROR(G17*(1+H18), 0))*1.05,(IFERROR(G17*(1+H18), 0)),(IFERROR(G17*(1+H18), 0))*0.95, (IFERROR(G17*(1+H18), 0))*0.85)</f>
         <v>2807.7230966234565</v>
       </c>
-      <c r="I17" s="251">
+      <c r="I17" s="250">
         <f t="shared" si="2"/>
         <v>2833.6975013598644</v>
       </c>
-      <c r="J17" s="270">
+      <c r="J17" s="269">
         <f t="shared" si="2"/>
         <v>2920.6101520476304</v>
       </c>
@@ -14118,36 +13334,36 @@
       <c r="S17" s="13"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="252"/>
-      <c r="B18" s="253" t="s">
+      <c r="A18" s="251"/>
+      <c r="B18" s="252" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="234"/>
-      <c r="D18" s="235">
+      <c r="C18" s="233"/>
+      <c r="D18" s="234">
         <f t="shared" ref="D18" si="3">IFERROR((D17-C17)/C17,0)</f>
         <v>-0.27812500000000001</v>
       </c>
-      <c r="E18" s="235">
+      <c r="E18" s="234">
         <f t="shared" ref="E18" si="4">IFERROR((E17-D17)/D17,0)</f>
         <v>0.32034632034632032</v>
       </c>
-      <c r="F18" s="235">
+      <c r="F18" s="234">
         <f t="shared" ref="F18" si="5">IFERROR((F17-E17)/E17,0)</f>
         <v>-5.5009107468123861E-2</v>
       </c>
-      <c r="G18" s="236">
+      <c r="G18" s="235">
         <f>IFERROR(SUM(D18:F18)/3,0)</f>
         <v>-4.2625957072678494E-3</v>
       </c>
-      <c r="H18" s="236">
+      <c r="H18" s="235">
         <f t="shared" ref="H18:J18" si="6">IFERROR(SUM(E18:G18)/3,0)</f>
         <v>8.7024872390309538E-2</v>
       </c>
-      <c r="I18" s="236">
+      <c r="I18" s="235">
         <f t="shared" si="6"/>
         <v>9.2510564049726098E-3</v>
       </c>
-      <c r="J18" s="271">
+      <c r="J18" s="270">
         <f t="shared" si="6"/>
         <v>3.0671111029338099E-2</v>
       </c>
@@ -14164,39 +13380,39 @@
       <c r="S18" s="13"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="254" t="s">
+      <c r="A19" s="253" t="s">
         <v>177</v>
       </c>
-      <c r="B19" s="255"/>
-      <c r="C19" s="250">
+      <c r="B19" s="254"/>
+      <c r="C19" s="249">
         <f>'Consolidated Financials'!C7</f>
         <v>17513</v>
       </c>
-      <c r="D19" s="250">
+      <c r="D19" s="249">
         <f>'Consolidated Financials'!D7</f>
         <v>23493</v>
       </c>
-      <c r="E19" s="250">
+      <c r="E19" s="249">
         <f>'Consolidated Financials'!E7</f>
         <v>25102</v>
       </c>
-      <c r="F19" s="250">
+      <c r="F19" s="249">
         <f>'Consolidated Financials'!F7</f>
         <v>25429</v>
       </c>
-      <c r="G19" s="251">
+      <c r="G19" s="250">
         <f>+CHOOSE($G$5,(IFERROR(F19*(1+G20), 0))*1.15,(IFERROR(F19*(1+G20), 0))*1.05,(IFERROR(F19*(1+G20), 0)),(IFERROR(F19*(1+G20), 0))*0.95, (IFERROR(F19*(1+G20), 0))*0.85)</f>
         <v>29014.285276659844</v>
       </c>
-      <c r="H19" s="251">
+      <c r="H19" s="250">
         <f t="shared" ref="H19:J19" si="7">+CHOOSE($G$5,(IFERROR(G19*(1+H20), 0))*1.15,(IFERROR(G19*(1+H20), 0))*1.05,(IFERROR(G19*(1+H20), 0)),(IFERROR(G19*(1+H20), 0))*0.95, (IFERROR(G19*(1+H20), 0))*0.85)</f>
         <v>31166.248943834657</v>
       </c>
-      <c r="I19" s="251">
+      <c r="I19" s="250">
         <f t="shared" si="7"/>
         <v>33536.836401028784</v>
       </c>
-      <c r="J19" s="270">
+      <c r="J19" s="269">
         <f t="shared" si="7"/>
         <v>36792.410775723205</v>
       </c>
@@ -14205,7 +13421,7 @@
         <v>178</v>
       </c>
       <c r="M19" s="130"/>
-      <c r="N19" s="285">
+      <c r="N19" s="281">
         <f>Dashboard!C13</f>
         <v>1.7500000000000002E-2</v>
       </c>
@@ -14216,36 +13432,36 @@
       <c r="S19" s="13"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="232"/>
-      <c r="B20" s="233" t="s">
+      <c r="A20" s="231"/>
+      <c r="B20" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="234"/>
-      <c r="D20" s="235">
+      <c r="C20" s="233"/>
+      <c r="D20" s="234">
         <f t="shared" ref="D20" si="8">IFERROR((D19-C19)/C19,0)</f>
         <v>0.34146062924684523</v>
       </c>
-      <c r="E20" s="235">
+      <c r="E20" s="234">
         <f t="shared" ref="E20" si="9">IFERROR((E19-D19)/D19,0)</f>
         <v>6.8488485931979745E-2</v>
       </c>
-      <c r="F20" s="235">
+      <c r="F20" s="234">
         <f t="shared" ref="F20" si="10">IFERROR((F19-E19)/E19,0)</f>
         <v>1.3026850450163333E-2</v>
       </c>
-      <c r="G20" s="236">
+      <c r="G20" s="235">
         <f>IFERROR(SUM(D20:F20)/3, 0)</f>
         <v>0.14099198854299611</v>
       </c>
-      <c r="H20" s="236">
+      <c r="H20" s="235">
         <f t="shared" ref="H20:J20" si="11">IFERROR(SUM(E20:G20)/3, 0)</f>
         <v>7.4169108308379736E-2</v>
       </c>
-      <c r="I20" s="236">
+      <c r="I20" s="235">
         <f t="shared" si="11"/>
         <v>7.6062649100513066E-2</v>
       </c>
-      <c r="J20" s="271">
+      <c r="J20" s="270">
         <f t="shared" si="11"/>
         <v>9.7074581983962974E-2</v>
       </c>
@@ -14265,39 +13481,39 @@
       <c r="S20" s="13"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="254" t="s">
+      <c r="A21" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="255"/>
-      <c r="C21" s="250">
+      <c r="B21" s="254"/>
+      <c r="C21" s="249">
         <f>'Consolidated Financials'!C6</f>
         <v>1202</v>
       </c>
-      <c r="D21" s="250">
+      <c r="D21" s="249">
         <f>'Consolidated Financials'!D6</f>
         <v>1034</v>
       </c>
-      <c r="E21" s="250">
+      <c r="E21" s="249">
         <f>'Consolidated Financials'!E6</f>
         <v>1336</v>
       </c>
-      <c r="F21" s="250">
+      <c r="F21" s="249">
         <f>'Consolidated Financials'!F6</f>
         <v>1422</v>
       </c>
-      <c r="G21" s="240">
+      <c r="G21" s="239">
         <f>+CHOOSE($G$5,(IFERROR(F21*(1+G22), 0))*1.15,(IFERROR(F21*(1+G22), 0))*1.05,(IFERROR(F21*(1+G22), 0)),(IFERROR(F21*(1+G22), 0))*0.95, (IFERROR(F21*(1+G22), 0))*0.85)</f>
         <v>1524.7033978239899</v>
       </c>
-      <c r="H21" s="240">
+      <c r="H21" s="239">
         <f t="shared" ref="H21:J21" si="12">+CHOOSE($G$5,(IFERROR(G21*(1+H22), 0))*1.15,(IFERROR(G21*(1+H22), 0))*1.05,(IFERROR(G21*(1+H22), 0)),(IFERROR(G21*(1+H22), 0))*0.95, (IFERROR(G21*(1+H22), 0))*0.85)</f>
         <v>1742.565980133103</v>
       </c>
-      <c r="I21" s="240">
+      <c r="I21" s="239">
         <f t="shared" si="12"/>
         <v>1904.9059650247141</v>
       </c>
-      <c r="J21" s="272">
+      <c r="J21" s="271">
         <f t="shared" si="12"/>
         <v>2100.6506533647671</v>
       </c>
@@ -14317,36 +13533,36 @@
       <c r="S21" s="13"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="232"/>
-      <c r="B22" s="233" t="s">
+      <c r="A22" s="231"/>
+      <c r="B22" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="234"/>
-      <c r="D22" s="235">
+      <c r="C22" s="233"/>
+      <c r="D22" s="234">
         <f t="shared" ref="D22" si="13">IFERROR((D21-C21)/C21,0)</f>
         <v>-0.13976705490848584</v>
       </c>
-      <c r="E22" s="235">
+      <c r="E22" s="234">
         <f t="shared" ref="E22" si="14">IFERROR((E21-D21)/D21,0)</f>
         <v>0.29206963249516443</v>
       </c>
-      <c r="F22" s="235">
+      <c r="F22" s="234">
         <f t="shared" ref="F22" si="15">IFERROR((F21-E21)/E21,0)</f>
         <v>6.4371257485029934E-2</v>
       </c>
-      <c r="G22" s="236">
+      <c r="G22" s="235">
         <f>IFERROR(SUM(D22:F22)/3, 0)</f>
         <v>7.2224611690569498E-2</v>
       </c>
-      <c r="H22" s="236">
+      <c r="H22" s="235">
         <f t="shared" ref="H22:J22" si="16">IFERROR(SUM(E22:G22)/3, 0)</f>
         <v>0.14288850055692129</v>
       </c>
-      <c r="I22" s="236">
+      <c r="I22" s="235">
         <f t="shared" si="16"/>
         <v>9.3161456577506907E-2</v>
       </c>
-      <c r="J22" s="271">
+      <c r="J22" s="270">
         <f t="shared" si="16"/>
         <v>0.10275818960833256</v>
       </c>
@@ -14366,39 +13582,39 @@
       <c r="S22" s="13"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="254" t="s">
+      <c r="A23" s="253" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="255"/>
-      <c r="C23" s="250">
+      <c r="B23" s="254"/>
+      <c r="C23" s="249">
         <f>'Consolidated Financials'!C8</f>
         <v>4800</v>
       </c>
-      <c r="D23" s="250">
+      <c r="D23" s="249">
         <f>'Consolidated Financials'!D8</f>
         <v>3307</v>
       </c>
-      <c r="E23" s="250">
+      <c r="E23" s="249">
         <f>'Consolidated Financials'!E8</f>
         <v>5453</v>
       </c>
-      <c r="F23" s="250">
+      <c r="F23" s="249">
         <f>'Consolidated Financials'!F8</f>
         <v>8028</v>
       </c>
-      <c r="G23" s="240">
+      <c r="G23" s="239">
         <f>+CHOOSE($G$5,(IFERROR(F23*(1+G24), 0))*1.15,(IFERROR(F23*(1+G24), 0))*1.05,(IFERROR(F23*(1+G24), 0)),(IFERROR(F23*(1+G24), 0))*0.95, (IFERROR(F23*(1+G24), 0))*0.85)</f>
         <v>10195.832901219515</v>
       </c>
-      <c r="H23" s="240">
+      <c r="H23" s="239">
         <f t="shared" ref="H23:J23" si="17">+CHOOSE($G$5,(IFERROR(G23*(1+H24), 0))*1.15,(IFERROR(G23*(1+H24), 0))*1.05,(IFERROR(G23*(1+H24), 0)),(IFERROR(G23*(1+H24), 0))*0.95, (IFERROR(G23*(1+H24), 0))*0.85)</f>
         <v>14923.904490309524</v>
       </c>
-      <c r="I23" s="240">
+      <c r="I23" s="239">
         <f t="shared" si="17"/>
         <v>20923.199690333575</v>
       </c>
-      <c r="J23" s="272">
+      <c r="J23" s="271">
         <f t="shared" si="17"/>
         <v>28844.389774212068</v>
       </c>
@@ -14418,36 +13634,36 @@
       <c r="S23" s="13"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="232"/>
-      <c r="B24" s="233" t="s">
+      <c r="A24" s="231"/>
+      <c r="B24" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="234"/>
-      <c r="D24" s="235">
+      <c r="C24" s="233"/>
+      <c r="D24" s="234">
         <f t="shared" ref="D24" si="18">IFERROR((D23-C23)/C23,0)</f>
         <v>-0.31104166666666666</v>
       </c>
-      <c r="E24" s="235">
+      <c r="E24" s="234">
         <f t="shared" ref="E24" si="19">IFERROR((E23-D23)/D23,0)</f>
         <v>0.6489265195040822</v>
       </c>
-      <c r="F24" s="235">
+      <c r="F24" s="234">
         <f t="shared" ref="F24" si="20">IFERROR((F23-E23)/E23,0)</f>
         <v>0.47221712818631945</v>
       </c>
-      <c r="G24" s="236">
+      <c r="G24" s="235">
         <f>IFERROR(SUM(D24:F24)/3, 0)</f>
         <v>0.27003399367457831</v>
       </c>
-      <c r="H24" s="236">
+      <c r="H24" s="235">
         <f t="shared" ref="H24:J24" si="21">IFERROR(SUM(E24:G24)/3, 0)</f>
         <v>0.46372588045499336</v>
       </c>
-      <c r="I24" s="236">
+      <c r="I24" s="235">
         <f t="shared" si="21"/>
         <v>0.40199233410529706</v>
       </c>
-      <c r="J24" s="271">
+      <c r="J24" s="270">
         <f t="shared" si="21"/>
         <v>0.37858406941162293</v>
       </c>
@@ -14462,18 +13678,18 @@
       <c r="S24" s="13"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="254" t="s">
+      <c r="A25" s="253" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="255"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="257"/>
-      <c r="H25" s="258"/>
-      <c r="I25" s="258"/>
-      <c r="J25" s="316"/>
+      <c r="B25" s="254"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="255"/>
+      <c r="F25" s="255"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="257"/>
+      <c r="I25" s="257"/>
+      <c r="J25" s="283"/>
       <c r="K25" s="13"/>
       <c r="L25" s="131" t="s">
         <v>152</v>
@@ -14487,18 +13703,18 @@
       <c r="S25" s="13"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="232"/>
-      <c r="B26" s="233" t="s">
+      <c r="A26" s="231"/>
+      <c r="B26" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="234"/>
-      <c r="D26" s="235"/>
-      <c r="E26" s="235"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="260"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="261"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="259"/>
+      <c r="J26" s="260"/>
       <c r="K26" s="13"/>
       <c r="L26" s="129" t="s">
         <v>149</v>
@@ -14515,18 +13731,18 @@
       <c r="S26" s="13"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="254" t="s">
+      <c r="A27" s="253" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="255"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="258"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="259"/>
+      <c r="B27" s="254"/>
+      <c r="C27" s="255"/>
+      <c r="D27" s="255"/>
+      <c r="E27" s="255"/>
+      <c r="F27" s="255"/>
+      <c r="G27" s="257"/>
+      <c r="H27" s="257"/>
+      <c r="I27" s="257"/>
+      <c r="J27" s="258"/>
       <c r="K27" s="13"/>
       <c r="L27" s="129" t="s">
         <v>184</v>
@@ -14543,24 +13759,24 @@
       <c r="S27" s="13"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="232"/>
-      <c r="B28" s="233" t="s">
+      <c r="A28" s="231"/>
+      <c r="B28" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="234"/>
-      <c r="D28" s="235"/>
-      <c r="E28" s="235"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="260"/>
-      <c r="H28" s="260"/>
-      <c r="I28" s="260"/>
-      <c r="J28" s="261"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="234"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="259"/>
+      <c r="J28" s="260"/>
       <c r="K28" s="13"/>
       <c r="L28" s="129" t="s">
         <v>185</v>
       </c>
       <c r="M28" s="130"/>
-      <c r="N28" s="269">
+      <c r="N28" s="268">
         <f>AVERAGE(O14:Q14)</f>
         <v>4.475432382232384E-2</v>
       </c>
@@ -14571,16 +13787,16 @@
       <c r="S28" s="13"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="245"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="246"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="246"/>
-      <c r="F29" s="246"/>
-      <c r="G29" s="247"/>
-      <c r="H29" s="247"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="248"/>
+      <c r="A29" s="244"/>
+      <c r="B29" s="245"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="246"/>
+      <c r="H29" s="246"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="247"/>
       <c r="K29" s="13"/>
       <c r="L29" s="129" t="s">
         <v>151</v>
@@ -14597,39 +13813,39 @@
       <c r="S29" s="13"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="254" t="s">
+      <c r="A30" s="253" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="255"/>
-      <c r="C30" s="250">
+      <c r="B30" s="254"/>
+      <c r="C30" s="249">
         <f>'Consolidated Financials'!C15</f>
         <v>19593</v>
       </c>
-      <c r="D30" s="250">
+      <c r="D30" s="249">
         <f>'Consolidated Financials'!D15</f>
         <v>21232</v>
       </c>
-      <c r="E30" s="250">
+      <c r="E30" s="249">
         <f>'Consolidated Financials'!E15</f>
         <v>22501</v>
       </c>
-      <c r="F30" s="250">
+      <c r="F30" s="249">
         <f>'Consolidated Financials'!F15</f>
         <v>21806</v>
       </c>
-      <c r="G30" s="240">
+      <c r="G30" s="239">
         <f>+CHOOSE($G$5,(IFERROR(F30*(1+G31), 0))*1.15,(IFERROR(F30*(1+G31), 0))*1.05,(IFERROR(F30*(1+G31), 0)),(IFERROR(F30*(1+G31), 0))*0.95, (IFERROR(F30*(1+G31), 0))*0.85)</f>
         <v>22623.965469316961</v>
       </c>
-      <c r="H30" s="240">
+      <c r="H30" s="239">
         <f t="shared" ref="H30:J30" si="22">+CHOOSE($G$5,(IFERROR(G30*(1+H31), 0))*1.15,(IFERROR(G30*(1+H31), 0))*1.05,(IFERROR(G30*(1+H31), 0)),(IFERROR(G30*(1+H31), 0))*0.95, (IFERROR(G30*(1+H31), 0))*0.85)</f>
         <v>23124.64729289808</v>
       </c>
-      <c r="I30" s="240">
+      <c r="I30" s="239">
         <f t="shared" si="22"/>
         <v>23346.290152559446</v>
       </c>
-      <c r="J30" s="272">
+      <c r="J30" s="271">
         <f t="shared" si="22"/>
         <v>23885.0161109398</v>
       </c>
@@ -14649,36 +13865,36 @@
       <c r="S30" s="13"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="232"/>
-      <c r="B31" s="233" t="s">
+      <c r="A31" s="231"/>
+      <c r="B31" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="235">
+      <c r="C31" s="233"/>
+      <c r="D31" s="234">
         <f t="shared" ref="D31:F31" si="23">IFERROR((D30-C30)/C30,0)</f>
         <v>8.3652324809881079E-2</v>
       </c>
-      <c r="E31" s="235">
+      <c r="E31" s="234">
         <f t="shared" si="23"/>
         <v>5.9768274302938962E-2</v>
       </c>
-      <c r="F31" s="262">
+      <c r="F31" s="261">
         <f t="shared" si="23"/>
         <v>-3.0887516110395093E-2</v>
       </c>
-      <c r="G31" s="236">
+      <c r="G31" s="235">
         <f>IFERROR(SUM(D31:F31)/3, 0)</f>
         <v>3.7511027667474987E-2</v>
       </c>
-      <c r="H31" s="236">
+      <c r="H31" s="235">
         <f t="shared" ref="H31:J31" si="24">IFERROR(SUM(E31:G31)/3, 0)</f>
         <v>2.2130595286672952E-2</v>
       </c>
-      <c r="I31" s="236">
+      <c r="I31" s="235">
         <f t="shared" si="24"/>
         <v>9.5847022812509484E-3</v>
       </c>
-      <c r="J31" s="236">
+      <c r="J31" s="235">
         <f t="shared" si="24"/>
         <v>2.3075441745132961E-2</v>
       </c>
@@ -14687,7 +13903,7 @@
         <v>187</v>
       </c>
       <c r="M31" s="130"/>
-      <c r="N31" s="269">
+      <c r="N31" s="268">
         <f>Dashboard!C14</f>
         <v>0.12</v>
       </c>
@@ -14698,27 +13914,27 @@
       <c r="S31" s="13"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="254" t="s">
+      <c r="A32" s="253" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="255"/>
-      <c r="C32" s="250"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="250"/>
-      <c r="F32" s="321"/>
-      <c r="G32" s="317">
+      <c r="B32" s="254"/>
+      <c r="C32" s="249"/>
+      <c r="D32" s="249"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="288"/>
+      <c r="G32" s="284">
         <f>+CHOOSE($G$5,(IFERROR(F32*(1+G33), 0))*1.15,(IFERROR(F32*(1+G33), 0))*1.05,(IFERROR(F32*(1+G33), 0)),(IFERROR(F32*(1+G33), 0))*0.95, (IFERROR(F32*(1+G33), 0))*0.85)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="240">
+      <c r="H32" s="239">
         <f t="shared" ref="H32:J32" si="25">+CHOOSE($G$5,(IFERROR(G32*(1+H33), 0))*1.15,(IFERROR(G32*(1+H33), 0))*1.05,(IFERROR(G32*(1+H33), 0)),(IFERROR(G32*(1+H33), 0))*0.95, (IFERROR(G32*(1+H33), 0))*0.85)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="240">
+      <c r="I32" s="239">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J32" s="272">
+      <c r="J32" s="271">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
@@ -14733,36 +13949,36 @@
       <c r="S32" s="13"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="232"/>
-      <c r="B33" s="233" t="s">
+      <c r="A33" s="231"/>
+      <c r="B33" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="234"/>
-      <c r="D33" s="235">
+      <c r="C33" s="233"/>
+      <c r="D33" s="234">
         <f>IFERROR((D32-C32)/C32,0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="235">
+      <c r="E33" s="234">
         <f t="shared" ref="E33:F33" si="26">IFERROR((E32-D32)/D32,0)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="318">
+      <c r="F33" s="285">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="G33" s="236">
+      <c r="G33" s="235">
         <f>IFERROR(SUM(D33:F33)/3, 0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="236">
+      <c r="H33" s="235">
         <f t="shared" ref="H33:J33" si="27">IFERROR(SUM(E33:G33)/3, 0)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="236">
+      <c r="I33" s="235">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J33" s="236">
+      <c r="J33" s="235">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -14782,39 +13998,39 @@
       <c r="S33" s="13"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="254" t="s">
+      <c r="A34" s="253" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="255"/>
-      <c r="C34" s="250">
+      <c r="B34" s="254"/>
+      <c r="C34" s="249">
         <f>'Consolidated Financials'!C16</f>
         <v>10747</v>
       </c>
-      <c r="D34" s="250">
+      <c r="D34" s="249">
         <f>'Consolidated Financials'!D16</f>
         <v>11805</v>
       </c>
-      <c r="E34" s="250">
+      <c r="E34" s="249">
         <f>'Consolidated Financials'!E16</f>
         <v>15429</v>
       </c>
-      <c r="F34" s="321">
+      <c r="F34" s="288">
         <f>'Consolidated Financials'!F16</f>
         <v>23062</v>
       </c>
-      <c r="G34" s="317">
+      <c r="G34" s="284">
         <f>+CHOOSE($G$5,(IFERROR(F34*(1+G35), 0))*1.15,(IFERROR(F34*(1+G35), 0))*1.05,(IFERROR(F34*(1+G35), 0)),(IFERROR(F34*(1+G35), 0))*0.95, (IFERROR(F34*(1+G35), 0))*0.85)</f>
         <v>29981.77140711551</v>
       </c>
-      <c r="H34" s="240">
+      <c r="H34" s="239">
         <f t="shared" ref="H34:J34" si="28">+CHOOSE($G$5,(IFERROR(G34*(1+H35), 0))*1.15,(IFERROR(G34*(1+H35), 0))*1.05,(IFERROR(G34*(1+H35), 0)),(IFERROR(G34*(1+H35), 0))*0.95, (IFERROR(G34*(1+H35), 0))*0.85)</f>
         <v>40992.647886368592</v>
       </c>
-      <c r="I34" s="240">
+      <c r="I34" s="239">
         <f t="shared" si="28"/>
         <v>56870.752401632613</v>
       </c>
-      <c r="J34" s="241">
+      <c r="J34" s="240">
         <f t="shared" si="28"/>
         <v>76863.541415593965</v>
       </c>
@@ -14834,36 +14050,36 @@
       <c r="S34" s="13"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="232"/>
-      <c r="B35" s="233" t="s">
+      <c r="A35" s="231"/>
+      <c r="B35" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="234"/>
-      <c r="D35" s="235">
+      <c r="C35" s="233"/>
+      <c r="D35" s="234">
         <f t="shared" ref="D35:F35" si="29">IFERROR((D34-C34)/C34,0)</f>
         <v>9.8446077975248902E-2</v>
       </c>
-      <c r="E35" s="235">
+      <c r="E35" s="234">
         <f t="shared" si="29"/>
         <v>0.30698856416772552</v>
       </c>
-      <c r="F35" s="318">
+      <c r="F35" s="285">
         <f t="shared" si="29"/>
         <v>0.49471773932205587</v>
       </c>
-      <c r="G35" s="236">
+      <c r="G35" s="235">
         <f>IFERROR(SUM(D35:F35)/3, 0)</f>
         <v>0.30005079382167676</v>
       </c>
-      <c r="H35" s="236">
+      <c r="H35" s="235">
         <f t="shared" ref="H35:J35" si="30">IFERROR(SUM(E35:G35)/3, 0)</f>
         <v>0.36725236577048603</v>
       </c>
-      <c r="I35" s="236">
+      <c r="I35" s="235">
         <f t="shared" si="30"/>
         <v>0.38734029963807287</v>
       </c>
-      <c r="J35" s="236">
+      <c r="J35" s="235">
         <f t="shared" si="30"/>
         <v>0.35154781974341187</v>
       </c>
@@ -14883,16 +14099,16 @@
       <c r="S35" s="13"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="245"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="246"/>
-      <c r="E36" s="246"/>
-      <c r="F36" s="319"/>
-      <c r="G36" s="247"/>
-      <c r="H36" s="247"/>
-      <c r="I36" s="247"/>
-      <c r="J36" s="248"/>
+      <c r="A36" s="244"/>
+      <c r="B36" s="245"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="245"/>
+      <c r="E36" s="245"/>
+      <c r="F36" s="286"/>
+      <c r="G36" s="246"/>
+      <c r="H36" s="246"/>
+      <c r="I36" s="246"/>
+      <c r="J36" s="247"/>
       <c r="K36" s="13"/>
       <c r="L36" s="129" t="s">
         <v>193</v>
@@ -14909,39 +14125,39 @@
       <c r="S36" s="13"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="226" t="s">
+      <c r="A37" s="225" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="227"/>
-      <c r="C37" s="250">
+      <c r="B37" s="226"/>
+      <c r="C37" s="249">
         <f>'Consolidated Financials'!C18</f>
         <v>105433</v>
       </c>
-      <c r="D37" s="250">
+      <c r="D37" s="249">
         <f>'Consolidated Financials'!D18</f>
         <v>113642</v>
       </c>
-      <c r="E37" s="250">
+      <c r="E37" s="249">
         <f>'Consolidated Financials'!E18</f>
         <v>105873</v>
       </c>
-      <c r="F37" s="321">
+      <c r="F37" s="288">
         <f>'Consolidated Financials'!F18</f>
         <v>100712</v>
       </c>
-      <c r="G37" s="317">
+      <c r="G37" s="284">
         <f>+CHOOSE($G$5,(IFERROR(F37*(1+G38), 0))*1.15,(IFERROR(F37*(1+G38), 0))*1.05,(IFERROR(F37*(1+G38), 0)),(IFERROR(F37*(1+G38), 0))*0.95, (IFERROR(F37*(1+G38), 0))*0.85)</f>
         <v>99394.317096944171</v>
       </c>
-      <c r="H37" s="240">
+      <c r="H37" s="239">
         <f t="shared" ref="H37:J37" si="31">+CHOOSE($G$5,(IFERROR(G37*(1+H38), 0))*1.15,(IFERROR(G37*(1+H38), 0))*1.05,(IFERROR(G37*(1+H38), 0)),(IFERROR(G37*(1+H38), 0))*0.95, (IFERROR(G37*(1+H38), 0))*0.85)</f>
         <v>95080.783764481603</v>
       </c>
-      <c r="I37" s="240">
+      <c r="I37" s="239">
         <f t="shared" si="31"/>
         <v>91745.700217958176</v>
       </c>
-      <c r="J37" s="241">
+      <c r="J37" s="240">
         <f t="shared" si="31"/>
         <v>88945.677189816313</v>
       </c>
@@ -14961,36 +14177,36 @@
       <c r="S37" s="13"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="263"/>
-      <c r="B38" s="253" t="s">
+      <c r="A38" s="262"/>
+      <c r="B38" s="252" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="234"/>
-      <c r="D38" s="235">
+      <c r="C38" s="233"/>
+      <c r="D38" s="234">
         <f t="shared" ref="D38:F38" si="32">IFERROR((D37-C37)/C37,0)</f>
         <v>7.7859873094761597E-2</v>
       </c>
-      <c r="E38" s="235">
+      <c r="E38" s="234">
         <f t="shared" si="32"/>
         <v>-6.8363809155065902E-2</v>
       </c>
-      <c r="F38" s="318">
+      <c r="F38" s="285">
         <f t="shared" si="32"/>
         <v>-4.8747083770177474E-2</v>
       </c>
-      <c r="G38" s="236">
+      <c r="G38" s="235">
         <f>IFERROR(SUM(D38:F38)/3, 0)</f>
         <v>-1.308367327682726E-2</v>
       </c>
-      <c r="H38" s="236">
+      <c r="H38" s="235">
         <f t="shared" ref="H38:J38" si="33">IFERROR(SUM(E38:G38)/3, 0)</f>
         <v>-4.3398188734023548E-2</v>
       </c>
-      <c r="I38" s="236">
+      <c r="I38" s="235">
         <f t="shared" si="33"/>
         <v>-3.5076315260342765E-2</v>
       </c>
-      <c r="J38" s="236">
+      <c r="J38" s="235">
         <f t="shared" si="33"/>
         <v>-3.0519392423731192E-2</v>
       </c>
@@ -15005,39 +14221,39 @@
       <c r="S38" s="13"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="226" t="s">
+      <c r="A39" s="225" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="227"/>
-      <c r="C39" s="250">
+      <c r="B39" s="226"/>
+      <c r="C39" s="249">
         <f>'Consolidated Financials'!C19</f>
         <v>84375</v>
       </c>
-      <c r="D39" s="250">
+      <c r="D39" s="249">
         <f>'Consolidated Financials'!D19</f>
         <v>65777</v>
       </c>
-      <c r="E39" s="250">
+      <c r="E39" s="249">
         <f>'Consolidated Financials'!E19</f>
         <v>66316</v>
       </c>
-      <c r="F39" s="321">
+      <c r="F39" s="288">
         <f>'Consolidated Financials'!F19</f>
         <v>83312</v>
       </c>
-      <c r="G39" s="317">
+      <c r="G39" s="284">
         <f>+CHOOSE($G$5,(IFERROR(F39*(1+G40), 0))*1.15,(IFERROR(F39*(1+G40), 0))*1.05,(IFERROR(F39*(1+G40), 0)),(IFERROR(F39*(1+G40), 0))*0.95, (IFERROR(F39*(1+G40), 0))*0.85)</f>
         <v>84535.622455346878</v>
       </c>
-      <c r="H39" s="240">
+      <c r="H39" s="239">
         <f t="shared" ref="H39:J39" si="34">+CHOOSE($G$5,(IFERROR(G39*(1+H40), 0))*1.15,(IFERROR(G39*(1+H40), 0))*1.05,(IFERROR(G39*(1+H40), 0)),(IFERROR(G39*(1+H40), 0))*0.95, (IFERROR(G39*(1+H40), 0))*0.85)</f>
         <v>92402.216067597648</v>
       </c>
-      <c r="I39" s="240">
+      <c r="I39" s="239">
         <f t="shared" si="34"/>
         <v>103614.6661832824</v>
       </c>
-      <c r="J39" s="241">
+      <c r="J39" s="240">
         <f t="shared" si="34"/>
         <v>111526.94923408818</v>
       </c>
@@ -15057,36 +14273,36 @@
       <c r="S39" s="13"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="232"/>
-      <c r="B40" s="233" t="s">
+      <c r="A40" s="231"/>
+      <c r="B40" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="234"/>
-      <c r="D40" s="235">
+      <c r="C40" s="233"/>
+      <c r="D40" s="234">
         <f t="shared" ref="D40:F40" si="35">IFERROR((D39-C39)/C39,0)</f>
         <v>-0.22042074074074075</v>
       </c>
-      <c r="E40" s="235">
+      <c r="E40" s="234">
         <f t="shared" si="35"/>
         <v>8.1943536494519364E-3</v>
       </c>
-      <c r="F40" s="318">
+      <c r="F40" s="285">
         <f t="shared" si="35"/>
         <v>0.25628807527595149</v>
       </c>
-      <c r="G40" s="236">
+      <c r="G40" s="235">
         <f>IFERROR(SUM(D40:F40)/3, 0)</f>
         <v>1.4687229394887555E-2</v>
       </c>
-      <c r="H40" s="236">
+      <c r="H40" s="235">
         <f t="shared" ref="H40:J40" si="36">IFERROR(SUM(E40:G40)/3, 0)</f>
         <v>9.3056552773430321E-2</v>
       </c>
-      <c r="I40" s="236">
+      <c r="I40" s="235">
         <f t="shared" si="36"/>
         <v>0.12134395248142311</v>
       </c>
-      <c r="J40" s="236">
+      <c r="J40" s="235">
         <f t="shared" si="36"/>
         <v>7.6362578216580324E-2</v>
       </c>
@@ -15101,39 +14317,39 @@
       <c r="S40" s="13"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="226" t="s">
+      <c r="A41" s="225" t="s">
         <v>197</v>
       </c>
-      <c r="B41" s="227"/>
-      <c r="C41" s="239">
+      <c r="B41" s="226"/>
+      <c r="C41" s="238">
         <f>'Consolidated Financials'!C10</f>
         <v>84751</v>
       </c>
-      <c r="D41" s="239">
+      <c r="D41" s="238">
         <f>'Consolidated Financials'!D10</f>
         <v>88568</v>
       </c>
-      <c r="E41" s="239">
+      <c r="E41" s="238">
         <f>'Consolidated Financials'!E10</f>
         <v>89286</v>
       </c>
-      <c r="F41" s="322">
+      <c r="F41" s="289">
         <f>'Consolidated Financials'!F10</f>
         <v>91915</v>
       </c>
-      <c r="G41" s="317">
+      <c r="G41" s="284">
         <f>+CHOOSE($G$5,(IFERROR(F41*(1+G42), 0))*1.15,(IFERROR(F41*(1+G42), 0))*1.05,(IFERROR(F41*(1+G42), 0)),(IFERROR(F41*(1+G42), 0))*0.95, (IFERROR(F41*(1+G42), 0))*0.85)</f>
         <v>94445.398131310736</v>
       </c>
-      <c r="H41" s="240">
+      <c r="H41" s="239">
         <f t="shared" ref="H41:J41" si="37">+CHOOSE($G$5,(IFERROR(G41*(1+H42), 0))*1.15,(IFERROR(G41*(1+H42), 0))*1.05,(IFERROR(G41*(1+H42), 0)),(IFERROR(G41*(1+H42), 0))*0.95, (IFERROR(G41*(1+H42), 0))*0.85)</f>
         <v>96494.272477682112</v>
       </c>
-      <c r="I41" s="240">
+      <c r="I41" s="239">
         <f t="shared" si="37"/>
         <v>99024.616471361151</v>
       </c>
-      <c r="J41" s="241">
+      <c r="J41" s="240">
         <f t="shared" si="37"/>
         <v>101514.96162638448</v>
       </c>
@@ -15148,36 +14364,36 @@
       <c r="S41" s="13"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="264"/>
-      <c r="B42" s="265" t="s">
+      <c r="A42" s="263"/>
+      <c r="B42" s="264" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="266"/>
-      <c r="D42" s="267">
+      <c r="C42" s="265"/>
+      <c r="D42" s="266">
         <f t="shared" ref="D42:F42" si="38">IFERROR((D41-C41)/C41,0)</f>
         <v>4.5037816662930233E-2</v>
       </c>
-      <c r="E42" s="267">
+      <c r="E42" s="266">
         <f t="shared" si="38"/>
         <v>8.1067654231776719E-3</v>
       </c>
-      <c r="F42" s="320">
+      <c r="F42" s="287">
         <f t="shared" si="38"/>
         <v>2.9444705776941513E-2</v>
       </c>
-      <c r="G42" s="236">
+      <c r="G42" s="235">
         <f>IFERROR(SUM(D42:F42)/3, 0)</f>
         <v>2.7529762621016474E-2</v>
       </c>
-      <c r="H42" s="236">
+      <c r="H42" s="235">
         <f t="shared" ref="H42:J42" si="39">IFERROR(SUM(E42:G42)/3, 0)</f>
         <v>2.1693744607045221E-2</v>
       </c>
-      <c r="I42" s="236">
+      <c r="I42" s="235">
         <f t="shared" si="39"/>
         <v>2.6222737668334401E-2</v>
       </c>
-      <c r="J42" s="236">
+      <c r="J42" s="235">
         <f t="shared" si="39"/>
         <v>2.5148748298798696E-2</v>
       </c>
@@ -15233,10 +14449,10 @@
       <c r="S43" s="13"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="302" t="s">
+      <c r="A44" s="306" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="302"/>
+      <c r="B44" s="306"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -15271,10 +14487,10 @@
       <c r="S44" s="13"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="298" t="s">
+      <c r="A45" s="305" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="298"/>
+      <c r="B45" s="305"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -15314,10 +14530,10 @@
       <c r="S45" s="13"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="298" t="s">
+      <c r="A46" s="305" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="298"/>
+      <c r="B46" s="305"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -15357,10 +14573,10 @@
       <c r="S46" s="13"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="298" t="s">
+      <c r="A47" s="305" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="298"/>
+      <c r="B47" s="305"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -15395,10 +14611,10 @@
       <c r="S47" s="13"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="298" t="s">
+      <c r="A48" s="305" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="298"/>
+      <c r="B48" s="305"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -15433,10 +14649,10 @@
       <c r="S48" s="13"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="298" t="s">
+      <c r="A49" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="298"/>
+      <c r="B49" s="305"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -15471,10 +14687,10 @@
       <c r="S49" s="13"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="298" t="s">
+      <c r="A50" s="305" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="298"/>
+      <c r="B50" s="305"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -15509,10 +14725,10 @@
       <c r="S50" s="13"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="298" t="s">
+      <c r="A51" s="305" t="s">
         <v>207</v>
       </c>
-      <c r="B51" s="298"/>
+      <c r="B51" s="305"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -15547,10 +14763,10 @@
       <c r="S51" s="13"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="298" t="s">
+      <c r="A52" s="305" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="298"/>
+      <c r="B52" s="305"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -15585,10 +14801,10 @@
       <c r="S52" s="13"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="298" t="s">
+      <c r="A53" s="305" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="298"/>
+      <c r="B53" s="305"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -15623,10 +14839,10 @@
       <c r="S53" s="13"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="298" t="s">
+      <c r="A54" s="305" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="298"/>
+      <c r="B54" s="305"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -15661,10 +14877,10 @@
       <c r="S54" s="13"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="298" t="s">
+      <c r="A55" s="305" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="298"/>
+      <c r="B55" s="305"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -15699,10 +14915,10 @@
       <c r="S55" s="13"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="298" t="s">
+      <c r="A56" s="305" t="s">
         <v>188</v>
       </c>
-      <c r="B56" s="298"/>
+      <c r="B56" s="305"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -15737,10 +14953,10 @@
       <c r="S56" s="13"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="298" t="s">
+      <c r="A57" s="305" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="298"/>
+      <c r="B57" s="305"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -15775,10 +14991,10 @@
       <c r="S57" s="13"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="298" t="s">
+      <c r="A58" s="305" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="298"/>
+      <c r="B58" s="305"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -15813,10 +15029,10 @@
       <c r="S58" s="13"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="299" t="s">
+      <c r="A59" s="307" t="s">
         <v>211</v>
       </c>
-      <c r="B59" s="299"/>
+      <c r="B59" s="307"/>
       <c r="C59" s="123"/>
       <c r="D59" s="123"/>
       <c r="E59" s="123"/>
@@ -15851,10 +15067,10 @@
       <c r="S59" s="13"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="298" t="s">
+      <c r="A60" s="305" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="298"/>
+      <c r="B60" s="305"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -15889,10 +15105,10 @@
       <c r="S60" s="13"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="298" t="s">
+      <c r="A61" s="305" t="s">
         <v>213</v>
       </c>
-      <c r="B61" s="298"/>
+      <c r="B61" s="305"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -15927,11 +15143,11 @@
       <c r="S61" s="13"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="296" t="s">
+      <c r="A62" s="309" t="s">
         <v>214</v>
       </c>
-      <c r="B62" s="296"/>
-      <c r="C62" s="273">
+      <c r="B62" s="309"/>
+      <c r="C62" s="272">
         <f>SUM(F61:J61)</f>
         <v>188587.38331786369</v>
       </c>
@@ -15941,7 +15157,7 @@
       <c r="G62" s="134"/>
       <c r="H62" s="134"/>
       <c r="I62" s="134"/>
-      <c r="J62" s="274"/>
+      <c r="J62" s="273"/>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
@@ -15952,8 +15168,8 @@
       <c r="S62" s="13"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="297"/>
-      <c r="B63" s="297"/>
+      <c r="A63" s="310"/>
+      <c r="B63" s="310"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -15973,155 +15189,164 @@
       <c r="S63" s="13"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="294"/>
-      <c r="B64" s="294"/>
+      <c r="A64" s="311"/>
+      <c r="B64" s="311"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="294"/>
-      <c r="B65" s="294"/>
+      <c r="A65" s="311"/>
+      <c r="B65" s="311"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="287"/>
-      <c r="B66" s="287"/>
+      <c r="A66" s="308"/>
+      <c r="B66" s="308"/>
       <c r="C66" s="114"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="287"/>
-      <c r="B67" s="287"/>
+      <c r="A67" s="308"/>
+      <c r="B67" s="308"/>
       <c r="C67" s="115"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="287"/>
-      <c r="B68" s="287"/>
+      <c r="A68" s="308"/>
+      <c r="B68" s="308"/>
       <c r="C68" s="116"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="287"/>
-      <c r="B69" s="287"/>
+      <c r="A69" s="308"/>
+      <c r="B69" s="308"/>
       <c r="C69" s="116"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="287"/>
-      <c r="B70" s="287"/>
+      <c r="A70" s="308"/>
+      <c r="B70" s="308"/>
       <c r="C70" s="116"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="294"/>
-      <c r="B72" s="294"/>
+      <c r="A72" s="311"/>
+      <c r="B72" s="311"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="287"/>
-      <c r="B73" s="287"/>
+      <c r="A73" s="308"/>
+      <c r="B73" s="308"/>
       <c r="C73" s="116"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="287"/>
-      <c r="B74" s="287"/>
+      <c r="A74" s="308"/>
+      <c r="B74" s="308"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="287"/>
-      <c r="B75" s="287"/>
+      <c r="A75" s="308"/>
+      <c r="B75" s="308"/>
       <c r="C75" s="115"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="287"/>
-      <c r="B76" s="287"/>
+      <c r="A76" s="308"/>
+      <c r="B76" s="308"/>
       <c r="C76" s="117"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="287"/>
-      <c r="B77" s="287"/>
+      <c r="A77" s="308"/>
+      <c r="B77" s="308"/>
       <c r="C77" s="115"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="287"/>
-      <c r="B78" s="287"/>
+      <c r="A78" s="308"/>
+      <c r="B78" s="308"/>
       <c r="C78" s="115"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="287"/>
-      <c r="B80" s="287"/>
+      <c r="A80" s="308"/>
+      <c r="B80" s="308"/>
       <c r="C80" s="118"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="287"/>
-      <c r="B81" s="287"/>
+      <c r="A81" s="308"/>
+      <c r="B81" s="308"/>
       <c r="C81" s="118"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="295"/>
-      <c r="B82" s="295"/>
+      <c r="A82" s="312"/>
+      <c r="B82" s="312"/>
       <c r="C82" s="118"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="287"/>
-      <c r="B83" s="287"/>
+      <c r="A83" s="308"/>
+      <c r="B83" s="308"/>
       <c r="C83" s="114"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="287"/>
-      <c r="B84" s="287"/>
+      <c r="A84" s="308"/>
+      <c r="B84" s="308"/>
       <c r="C84" s="114"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="287"/>
-      <c r="B85" s="287"/>
+      <c r="A85" s="308"/>
+      <c r="B85" s="308"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="287"/>
-      <c r="B86" s="287"/>
+      <c r="A86" s="308"/>
+      <c r="B86" s="308"/>
       <c r="C86" s="115"/>
       <c r="D86" s="115"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="287"/>
-      <c r="B87" s="287"/>
+      <c r="A87" s="308"/>
+      <c r="B87" s="308"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="294"/>
-      <c r="B88" s="294"/>
+      <c r="A88" s="311"/>
+      <c r="B88" s="311"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="287"/>
-      <c r="B89" s="287"/>
+      <c r="A89" s="308"/>
+      <c r="B89" s="308"/>
       <c r="C89" s="118"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="287"/>
-      <c r="B90" s="287"/>
+      <c r="A90" s="308"/>
+      <c r="B90" s="308"/>
       <c r="C90" s="118"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="295"/>
-      <c r="B91" s="295"/>
+      <c r="A91" s="312"/>
+      <c r="B91" s="312"/>
       <c r="C91" s="119"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="287"/>
-      <c r="B92" s="287"/>
+      <c r="A92" s="308"/>
+      <c r="B92" s="308"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
@@ -16134,35 +15359,26 @@
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -16224,24 +15440,24 @@
       <c r="B2" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="293"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="292"/>
+      <c r="C2" s="317"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="316"/>
       <c r="G2" s="15"/>
       <c r="H2" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="290"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="314"/>
       <c r="L2" s="15"/>
       <c r="M2" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="289"/>
-      <c r="O2" s="289"/>
-      <c r="P2" s="290"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="314"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
@@ -16361,45 +15577,45 @@
     </row>
     <row r="4" spans="1:65" ht="15.75">
       <c r="A4" s="15"/>
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="184" t="s">
+      <c r="D4" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="184" t="s">
+      <c r="E4" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="185" t="s">
+      <c r="F4" s="184" t="s">
         <v>219</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="183" t="s">
+      <c r="H4" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="184" t="s">
+      <c r="I4" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="184" t="s">
+      <c r="J4" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="K4" s="184" t="s">
+      <c r="K4" s="183" t="s">
         <v>219</v>
       </c>
       <c r="L4" s="15"/>
-      <c r="M4" s="183" t="s">
+      <c r="M4" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="184" t="s">
+      <c r="N4" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="184" t="s">
+      <c r="O4" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="185" t="s">
+      <c r="P4" s="184" t="s">
         <v>219</v>
       </c>
       <c r="Q4" s="15"/>
@@ -16454,7 +15670,7 @@
     </row>
     <row r="5" spans="1:65" ht="15.75">
       <c r="A5" s="15"/>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="171" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="55">
@@ -16469,17 +15685,17 @@
         <f>'Balance Sheets'!D3</f>
         <v>2745</v>
       </c>
-      <c r="F5" s="161">
+      <c r="F5" s="160">
         <f>'Balance Sheets'!E3</f>
         <v>2594</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="186"/>
+      <c r="H5" s="185"/>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="196" t="s">
+      <c r="M5" s="195" t="s">
         <v>111</v>
       </c>
       <c r="N5" s="73">
@@ -16490,7 +15706,7 @@
         <f>'Statements of Cash Flows'!C20</f>
         <v>34339</v>
       </c>
-      <c r="P5" s="200">
+      <c r="P5" s="199">
         <f>'Statements of Cash Flows'!D20</f>
         <v>35746</v>
       </c>
@@ -16546,7 +15762,7 @@
     </row>
     <row r="6" spans="1:65" ht="15.75">
       <c r="A6" s="15"/>
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="172" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="58">
@@ -16561,12 +15777,12 @@
         <f>'Balance Sheets'!D5</f>
         <v>1336</v>
       </c>
-      <c r="F6" s="162">
+      <c r="F6" s="161">
         <f>'Balance Sheets'!E5</f>
         <v>1422</v>
       </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="172" t="s">
+      <c r="H6" s="171" t="s">
         <v>107</v>
       </c>
       <c r="I6" s="33">
@@ -16582,7 +15798,7 @@
         <v>131868</v>
       </c>
       <c r="L6" s="15"/>
-      <c r="M6" s="189" t="s">
+      <c r="M6" s="188" t="s">
         <v>112</v>
       </c>
       <c r="N6" s="74">
@@ -16593,7 +15809,7 @@
         <f>'Statements of Cash Flows'!C27</f>
         <v>-17934</v>
       </c>
-      <c r="P6" s="201">
+      <c r="P6" s="200">
         <f>'Statements of Cash Flows'!D27</f>
         <v>-17581</v>
       </c>
@@ -16649,7 +15865,7 @@
     </row>
     <row r="7" spans="1:65" ht="15.75">
       <c r="A7" s="15"/>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="172" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="58">
@@ -16664,12 +15880,12 @@
         <f>'Balance Sheets'!D4</f>
         <v>25102</v>
       </c>
-      <c r="F7" s="162">
+      <c r="F7" s="161">
         <f>'Balance Sheets'!E4</f>
         <v>25429</v>
       </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="187" t="s">
+      <c r="H7" s="186" t="s">
         <v>136</v>
       </c>
       <c r="I7" s="67">
@@ -16685,7 +15901,7 @@
         <v>54726</v>
       </c>
       <c r="L7" s="15"/>
-      <c r="M7" s="199" t="s">
+      <c r="M7" s="198" t="s">
         <v>113</v>
       </c>
       <c r="N7" s="74">
@@ -16696,7 +15912,7 @@
         <f>'Statements of Cash Flows'!C35</f>
         <v>-15377</v>
       </c>
-      <c r="P7" s="201">
+      <c r="P7" s="200">
         <f>'Statements of Cash Flows'!D35</f>
         <v>-18164</v>
       </c>
@@ -16752,7 +15968,7 @@
     </row>
     <row r="8" spans="1:65" ht="15.75">
       <c r="A8" s="15"/>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="173" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="59">
@@ -16767,12 +15983,12 @@
         <f>'Balance Sheets'!D6</f>
         <v>5453</v>
       </c>
-      <c r="F8" s="163">
+      <c r="F8" s="162">
         <f>'Balance Sheets'!E6</f>
         <v>8028</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="172" t="s">
+      <c r="H8" s="171" t="s">
         <v>108</v>
       </c>
       <c r="I8" s="69">
@@ -16788,7 +16004,7 @@
         <v>77142</v>
       </c>
       <c r="L8" s="15"/>
-      <c r="M8" s="199" t="s">
+      <c r="M8" s="198" t="s">
         <v>143</v>
       </c>
       <c r="N8" s="74">
@@ -16799,7 +16015,7 @@
         <f>'Statements of Cash Flows'!C37</f>
         <v>2888</v>
       </c>
-      <c r="P8" s="201">
+      <c r="P8" s="200">
         <f>'Statements of Cash Flows'!D37</f>
         <v>3916</v>
       </c>
@@ -16855,7 +16071,7 @@
     </row>
     <row r="9" spans="1:65" ht="15.75">
       <c r="A9" s="15"/>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="171" t="s">
         <v>125</v>
       </c>
       <c r="C9" s="60">
@@ -16870,12 +16086,12 @@
         <f>IF(SUM(E5:E8)='Balance Sheets'!D7, 'Balance Sheets'!D7, 0)</f>
         <v>34636</v>
       </c>
-      <c r="F9" s="164">
+      <c r="F9" s="163">
         <f>IF(SUM(F5:F8)='Balance Sheets'!E7, 'Balance Sheets'!E7, 0)</f>
         <v>37473</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="188" t="s">
+      <c r="H9" s="187" t="s">
         <v>168</v>
       </c>
       <c r="I9" s="68">
@@ -16891,7 +16107,7 @@
         <v>16868</v>
       </c>
       <c r="L9" s="15"/>
-      <c r="M9" s="189" t="s">
+      <c r="M9" s="188" t="s">
         <v>114</v>
       </c>
       <c r="N9" s="74">
@@ -16902,7 +16118,7 @@
         <f>IF(SUM(O5:O7)='Statements of Cash Flows'!C36,'Statements of Cash Flows'!C36,0)</f>
         <v>1028</v>
       </c>
-      <c r="P9" s="201">
+      <c r="P9" s="200">
         <f>IF(SUM(P5:P7)='Statements of Cash Flows'!D36,'Statements of Cash Flows'!D36,0)</f>
         <v>1</v>
       </c>
@@ -16958,7 +16174,7 @@
     </row>
     <row r="10" spans="1:65" ht="15.75">
       <c r="A10" s="15"/>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="174" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="61">
@@ -16973,12 +16189,12 @@
         <f>'Balance Sheets'!D10</f>
         <v>89286</v>
       </c>
-      <c r="F10" s="165">
+      <c r="F10" s="164">
         <f>'Balance Sheets'!E10</f>
         <v>91915</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="189" t="s">
+      <c r="H10" s="188" t="s">
         <v>140</v>
       </c>
       <c r="I10" s="68">
@@ -16994,7 +16210,7 @@
         <v>29896</v>
       </c>
       <c r="L10" s="15"/>
-      <c r="M10" s="199" t="s">
+      <c r="M10" s="198" t="s">
         <v>144</v>
       </c>
       <c r="N10" s="74">
@@ -17005,7 +16221,7 @@
         <f>IF(SUM(O8:O9)='Statements of Cash Flows'!C38,'Statements of Cash Flows'!C38,0)</f>
         <v>3916</v>
       </c>
-      <c r="P10" s="201">
+      <c r="P10" s="200">
         <f>IF(SUM(P8:P9)='Statements of Cash Flows'!D38,'Statements of Cash Flows'!D38,0)</f>
         <v>3917</v>
       </c>
@@ -17061,7 +16277,7 @@
     </row>
     <row r="11" spans="1:65" ht="16.5" thickBot="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="175" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="58">
@@ -17076,12 +16292,12 @@
         <f>'Balance Sheets'!D11+'Balance Sheets'!D12+'Balance Sheets'!D15</f>
         <v>94801</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="161">
         <f>'Balance Sheets'!E11+'Balance Sheets'!E12+'Balance Sheets'!E15</f>
         <v>118311</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="172" t="s">
+      <c r="H11" s="171" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="34">
@@ -17153,7 +16369,7 @@
     </row>
     <row r="12" spans="1:65" ht="16.5" thickBot="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="176" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="62">
@@ -17168,12 +16384,12 @@
         <f>'Balance Sheets'!D13+'Balance Sheets'!D14</f>
         <v>34389</v>
       </c>
-      <c r="F12" s="166">
+      <c r="F12" s="165">
         <f>'Balance Sheets'!E13+'Balance Sheets'!E14</f>
         <v>33887</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="190" t="s">
+      <c r="H12" s="189" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="68">
@@ -17192,9 +16408,9 @@
       <c r="M12" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="N12" s="289"/>
-      <c r="O12" s="289"/>
-      <c r="P12" s="290"/>
+      <c r="N12" s="313"/>
+      <c r="O12" s="313"/>
+      <c r="P12" s="314"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
@@ -17247,7 +16463,7 @@
     </row>
     <row r="13" spans="1:65" ht="16.5" thickBot="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="176" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="58">
@@ -17262,12 +16478,12 @@
         <f>'Balance Sheets'!D16</f>
         <v>11717</v>
       </c>
-      <c r="F13" s="162">
+      <c r="F13" s="161">
         <f>'Balance Sheets'!E16</f>
         <v>10141</v>
       </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="191" t="s">
+      <c r="H13" s="190" t="s">
         <v>137</v>
       </c>
       <c r="I13" s="70">
@@ -17339,7 +16555,7 @@
     </row>
     <row r="14" spans="1:65" ht="16.5" thickBot="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="177" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="64">
@@ -17354,12 +16570,12 @@
         <f>IF(SUM(E9:E13)='Balance Sheets'!D17,'Balance Sheets'!D17, 0)</f>
         <v>264829</v>
       </c>
-      <c r="F14" s="167">
+      <c r="F14" s="166">
         <f>IF(SUM(F9:F13)='Balance Sheets'!E17,'Balance Sheets'!E17, 0)</f>
         <v>291727</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="192" t="s">
+      <c r="H14" s="191" t="s">
         <v>141</v>
       </c>
       <c r="I14" s="68">
@@ -17442,7 +16658,7 @@
     </row>
     <row r="15" spans="1:65" ht="17.25" thickTop="1" thickBot="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="179" t="s">
+      <c r="B15" s="178" t="s">
         <v>126</v>
       </c>
       <c r="C15" s="61">
@@ -17457,12 +16673,12 @@
         <f>'Balance Sheets'!D20</f>
         <v>22501</v>
       </c>
-      <c r="F15" s="165">
+      <c r="F15" s="164">
         <f>'Balance Sheets'!E20</f>
         <v>21806</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="193" t="s">
+      <c r="H15" s="192" t="s">
         <v>138</v>
       </c>
       <c r="I15" s="71">
@@ -17534,7 +16750,7 @@
     </row>
     <row r="16" spans="1:65" ht="16.5" thickTop="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="178" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="62">
@@ -17549,12 +16765,12 @@
         <f>'Balance Sheets'!D19+'Balance Sheets'!D21+'Balance Sheets'!D22</f>
         <v>15429</v>
       </c>
-      <c r="F16" s="166">
+      <c r="F16" s="165">
         <f>'Balance Sheets'!E19+'Balance Sheets'!E21+'Balance Sheets'!E22</f>
         <v>23062</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="194" t="s">
+      <c r="H16" s="193" t="s">
         <v>142</v>
       </c>
       <c r="I16" s="68">
@@ -17628,7 +16844,7 @@
     </row>
     <row r="17" spans="1:65" ht="16.5" thickBot="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="171" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="60">
@@ -17643,12 +16859,12 @@
         <f>IF(SUM(E15:E16)='Balance Sheets'!D23,'Balance Sheets'!D23, 0)</f>
         <v>37930</v>
       </c>
-      <c r="F17" s="164">
+      <c r="F17" s="163">
         <f>IF(SUM(F15:F16)='Balance Sheets'!E23,'Balance Sheets'!E23, 0)</f>
         <v>44868</v>
       </c>
       <c r="G17" s="15"/>
-      <c r="H17" s="178" t="s">
+      <c r="H17" s="177" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="71">
@@ -17731,7 +16947,7 @@
     </row>
     <row r="18" spans="1:65" ht="16.5" thickTop="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="172" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="58">
@@ -17746,12 +16962,12 @@
         <f>'Balance Sheets'!D24</f>
         <v>105873</v>
       </c>
-      <c r="F18" s="162">
+      <c r="F18" s="161">
         <f>'Balance Sheets'!E24</f>
         <v>100712</v>
       </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="195" t="s">
+      <c r="H18" s="194" t="s">
         <v>109</v>
       </c>
       <c r="I18" s="72">
@@ -17834,7 +17050,7 @@
     </row>
     <row r="19" spans="1:65" ht="15.75">
       <c r="A19" s="15"/>
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="173" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="58">
@@ -17849,23 +17065,23 @@
         <f>'Balance Sheets'!D25+'Balance Sheets'!D26+'Balance Sheets'!D27+'Balance Sheets'!D28</f>
         <v>66316</v>
       </c>
-      <c r="F19" s="162">
+      <c r="F19" s="161">
         <f>'Balance Sheets'!E25+'Balance Sheets'!E26+'Balance Sheets'!E27+'Balance Sheets'!E28</f>
         <v>83312</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="197" t="s">
+      <c r="H19" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="198">
+      <c r="I19" s="197">
         <f>'Statements of Income'!B24</f>
         <v>7.36</v>
       </c>
-      <c r="J19" s="198">
+      <c r="J19" s="197">
         <f>'Statements of Income'!C24</f>
         <v>3.76</v>
       </c>
-      <c r="K19" s="198">
+      <c r="K19" s="197">
         <f>'Statements of Income'!D24</f>
         <v>4.6500000000000004</v>
       </c>
@@ -17937,7 +17153,7 @@
     </row>
     <row r="20" spans="1:65" ht="16.5" thickBot="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="177" t="s">
         <v>132</v>
       </c>
       <c r="C20" s="64">
@@ -17952,7 +17168,7 @@
         <f>IF(SUM(E18:E19)='Balance Sheets'!D29,'Balance Sheets'!D29,0)</f>
         <v>172189</v>
       </c>
-      <c r="F20" s="167">
+      <c r="F20" s="166">
         <f>IF(SUM(F18:F19)='Balance Sheets'!E29,'Balance Sheets'!E29,0)</f>
         <v>184024</v>
       </c>
@@ -18020,7 +17236,7 @@
     </row>
     <row r="21" spans="1:65" ht="17.25" thickTop="1" thickBot="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="179" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="65">
@@ -18035,7 +17251,7 @@
         <f t="shared" si="2"/>
         <v>210119</v>
       </c>
-      <c r="F21" s="168">
+      <c r="F21" s="167">
         <f t="shared" si="2"/>
         <v>228892</v>
       </c>
@@ -18101,7 +17317,7 @@
     </row>
     <row r="22" spans="1:65" ht="16.5" thickTop="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="181" t="s">
+      <c r="B22" s="180" t="s">
         <v>104</v>
       </c>
       <c r="C22" s="31">
@@ -18116,7 +17332,7 @@
         <f>'Balance Sheets'!D31</f>
         <v>0</v>
       </c>
-      <c r="F22" s="169">
+      <c r="F22" s="168">
         <f>'Balance Sheets'!E31</f>
         <v>0</v>
       </c>
@@ -18182,7 +17398,7 @@
     </row>
     <row r="23" spans="1:65" ht="15.75">
       <c r="A23" s="15"/>
-      <c r="B23" s="173" t="s">
+      <c r="B23" s="172" t="s">
         <v>105</v>
       </c>
       <c r="C23" s="30">
@@ -18197,7 +17413,7 @@
         <f>'Balance Sheets'!D32</f>
         <v>429</v>
       </c>
-      <c r="F23" s="170">
+      <c r="F23" s="169">
         <f>'Balance Sheets'!E32</f>
         <v>429</v>
       </c>
@@ -18263,7 +17479,7 @@
     </row>
     <row r="24" spans="1:65" ht="15.75">
       <c r="A24" s="15"/>
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="172" t="s">
         <v>134</v>
       </c>
       <c r="C24" s="58">
@@ -18278,7 +17494,7 @@
         <f>'Balance Sheets'!D33+'Balance Sheets'!D34</f>
         <v>56979</v>
       </c>
-      <c r="F24" s="162">
+      <c r="F24" s="161">
         <f>'Balance Sheets'!E33+'Balance Sheets'!E34</f>
         <v>66566</v>
       </c>
@@ -18344,7 +17560,7 @@
     </row>
     <row r="25" spans="1:65" ht="15.75">
       <c r="A25" s="15"/>
-      <c r="B25" s="173" t="s">
+      <c r="B25" s="172" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="58">
@@ -18359,7 +17575,7 @@
         <f>'Balance Sheets'!D36</f>
         <v>-6986</v>
       </c>
-      <c r="F25" s="162">
+      <c r="F25" s="161">
         <f>'Balance Sheets'!E36</f>
         <v>-6820</v>
       </c>
@@ -18425,7 +17641,7 @@
     </row>
     <row r="26" spans="1:65" ht="15.75">
       <c r="A26" s="15"/>
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="173" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="58">
@@ -18440,7 +17656,7 @@
         <f>'Balance Sheets'!D35+'Balance Sheets'!D37</f>
         <v>2723</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F26" s="161">
         <f>'Balance Sheets'!E35+'Balance Sheets'!E37</f>
         <v>1220</v>
       </c>
@@ -18506,7 +17722,7 @@
     </row>
     <row r="27" spans="1:65" ht="15.75">
       <c r="A27" s="15"/>
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="172" t="s">
         <v>129</v>
       </c>
       <c r="C27" s="58">
@@ -18521,7 +17737,7 @@
         <f>'Balance Sheets'!D38</f>
         <v>1565</v>
       </c>
-      <c r="F27" s="162">
+      <c r="F27" s="161">
         <f>'Balance Sheets'!E38</f>
         <v>1440</v>
       </c>
@@ -18587,7 +17803,7 @@
     </row>
     <row r="28" spans="1:65" ht="15.75">
       <c r="A28" s="15"/>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="181" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="63">
@@ -18602,7 +17818,7 @@
         <f>IF(SUM(E23:E27)='Balance Sheets'!D39,'Balance Sheets'!D39,0)</f>
         <v>54710</v>
       </c>
-      <c r="F28" s="171">
+      <c r="F28" s="170">
         <f>IF(SUM(F23:F27)='Balance Sheets'!E39,'Balance Sheets'!E39,0)</f>
         <v>62835</v>
       </c>
@@ -18668,7 +17884,7 @@
     </row>
     <row r="29" spans="1:65" ht="15.75">
       <c r="A29" s="15"/>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="181" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="63">
@@ -18683,7 +17899,7 @@
         <f t="shared" si="3"/>
         <v>264829</v>
       </c>
-      <c r="F29" s="171">
+      <c r="F29" s="170">
         <f t="shared" si="3"/>
         <v>291727</v>
       </c>
@@ -18888,24 +18104,24 @@
       <c r="B32" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
-      <c r="E32" s="291"/>
-      <c r="F32" s="292"/>
+      <c r="C32" s="315"/>
+      <c r="D32" s="315"/>
+      <c r="E32" s="315"/>
+      <c r="F32" s="316"/>
       <c r="G32" s="15"/>
       <c r="H32" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="289"/>
-      <c r="J32" s="289"/>
-      <c r="K32" s="290"/>
+      <c r="I32" s="313"/>
+      <c r="J32" s="313"/>
+      <c r="K32" s="314"/>
       <c r="L32" s="15"/>
       <c r="M32" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="N32" s="289"/>
-      <c r="O32" s="289"/>
-      <c r="P32" s="290"/>
+      <c r="N32" s="313"/>
+      <c r="O32" s="313"/>
+      <c r="P32" s="314"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
@@ -19025,32 +18241,32 @@
     </row>
     <row r="34" spans="1:65" ht="15.75">
       <c r="A34" s="15"/>
-      <c r="B34" s="183" t="s">
+      <c r="B34" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="184" t="s">
+      <c r="C34" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="184" t="s">
+      <c r="D34" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="E34" s="184" t="s">
+      <c r="E34" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="185" t="s">
+      <c r="F34" s="184" t="s">
         <v>219</v>
       </c>
       <c r="G34" s="15"/>
-      <c r="H34" s="183" t="s">
+      <c r="H34" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="I34" s="184" t="s">
+      <c r="I34" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="J34" s="184" t="s">
+      <c r="J34" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="K34" s="185" t="s">
+      <c r="K34" s="184" t="s">
         <v>219</v>
       </c>
       <c r="L34" s="15"/>
@@ -19121,7 +18337,7 @@
     </row>
     <row r="35" spans="1:65" ht="15.75">
       <c r="A35" s="15"/>
-      <c r="B35" s="172" t="s">
+      <c r="B35" s="171" t="s">
         <v>122</v>
       </c>
       <c r="C35" s="80">
@@ -19136,15 +18352,15 @@
         <f>IFERROR(IF(ABS(CashY3/TotalAssetsY3) &gt;  0, CashY3/TotalAssetsY3, NA()), NA())</f>
         <v>1.0365179040059812E-2</v>
       </c>
-      <c r="F35" s="202">
+      <c r="F35" s="201">
         <f>IFERROR(IF(ABS(CashY4/TotalAssetsY4) &gt;  0, CashY4/TotalAssetsY4, NA()), NA())</f>
         <v>8.8918749378699945E-3</v>
       </c>
       <c r="G35" s="15"/>
-      <c r="H35" s="186"/>
+      <c r="H35" s="185"/>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
-      <c r="K35" s="221"/>
+      <c r="K35" s="220"/>
       <c r="L35" s="15"/>
       <c r="M35" s="17" t="s">
         <v>111</v>
@@ -19204,7 +18420,7 @@
     </row>
     <row r="36" spans="1:65" ht="15.75">
       <c r="A36" s="15"/>
-      <c r="B36" s="173" t="s">
+      <c r="B36" s="172" t="s">
         <v>121</v>
       </c>
       <c r="C36" s="81">
@@ -19219,12 +18435,12 @@
         <f t="shared" ref="E36:E44" si="6">IFERROR(IF(ABS(E6/TotalAssetsY3) &gt;  0, E6/TotalAssetsY3, NA()), NA())</f>
         <v>5.0447647349799304E-3</v>
       </c>
-      <c r="F36" s="203">
+      <c r="F36" s="202">
         <f t="shared" ref="F36:F44" si="7">IFERROR(IF(ABS(F6/TotalAssetsY4) &gt;  0, F6/TotalAssetsY4, NA()), NA())</f>
         <v>4.874420262779928E-3</v>
       </c>
       <c r="G36" s="15"/>
-      <c r="H36" s="172" t="s">
+      <c r="H36" s="171" t="s">
         <v>107</v>
       </c>
       <c r="I36" s="87">
@@ -19298,7 +18514,7 @@
     </row>
     <row r="37" spans="1:65" ht="15.75">
       <c r="A37" s="15"/>
-      <c r="B37" s="173" t="s">
+      <c r="B37" s="172" t="s">
         <v>123</v>
       </c>
       <c r="C37" s="81">
@@ -19313,12 +18529,12 @@
         <f t="shared" si="6"/>
         <v>9.4785691899301056E-2</v>
       </c>
-      <c r="F37" s="203">
+      <c r="F37" s="202">
         <f t="shared" si="7"/>
         <v>8.7167111717461873E-2</v>
       </c>
       <c r="G37" s="15"/>
-      <c r="H37" s="187" t="s">
+      <c r="H37" s="186" t="s">
         <v>136</v>
       </c>
       <c r="I37" s="88">
@@ -19392,7 +18608,7 @@
     </row>
     <row r="38" spans="1:65" ht="15.75">
       <c r="A38" s="15"/>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="173" t="s">
         <v>124</v>
       </c>
       <c r="C38" s="81">
@@ -19407,12 +18623,12 @@
         <f t="shared" si="6"/>
         <v>2.0590645284315541E-2</v>
       </c>
-      <c r="F38" s="203">
+      <c r="F38" s="202">
         <f t="shared" si="7"/>
         <v>2.7518878951896808E-2</v>
       </c>
       <c r="G38" s="15"/>
-      <c r="H38" s="172" t="s">
+      <c r="H38" s="171" t="s">
         <v>108</v>
       </c>
       <c r="I38" s="87">
@@ -19486,7 +18702,7 @@
     </row>
     <row r="39" spans="1:65" ht="15.75">
       <c r="A39" s="15"/>
-      <c r="B39" s="172" t="s">
+      <c r="B39" s="171" t="s">
         <v>125</v>
       </c>
       <c r="C39" s="80">
@@ -19501,12 +18717,12 @@
         <f t="shared" si="6"/>
         <v>0.13078628095865635</v>
       </c>
-      <c r="F39" s="202">
+      <c r="F39" s="201">
         <f t="shared" si="7"/>
         <v>0.12845228587000859</v>
       </c>
       <c r="G39" s="15"/>
-      <c r="H39" s="188" t="s">
+      <c r="H39" s="187" t="s">
         <v>168</v>
       </c>
       <c r="I39" s="88">
@@ -19580,7 +18796,7 @@
     </row>
     <row r="40" spans="1:65" ht="15.75">
       <c r="A40" s="15"/>
-      <c r="B40" s="175" t="s">
+      <c r="B40" s="174" t="s">
         <v>98</v>
       </c>
       <c r="C40" s="82">
@@ -19595,12 +18811,12 @@
         <f t="shared" si="6"/>
         <v>0.33714585638279798</v>
       </c>
-      <c r="F40" s="204">
+      <c r="F40" s="203">
         <f t="shared" si="7"/>
         <v>0.31507196797005421</v>
       </c>
       <c r="G40" s="15"/>
-      <c r="H40" s="189" t="s">
+      <c r="H40" s="188" t="s">
         <v>140</v>
       </c>
       <c r="I40" s="88">
@@ -19674,7 +18890,7 @@
     </row>
     <row r="41" spans="1:65" ht="16.5" thickBot="1">
       <c r="A41" s="15"/>
-      <c r="B41" s="176" t="s">
+      <c r="B41" s="175" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="82">
@@ -19689,12 +18905,12 @@
         <f t="shared" si="6"/>
         <v>0.35797061500062305</v>
       </c>
-      <c r="F41" s="204">
+      <c r="F41" s="203">
         <f t="shared" si="7"/>
         <v>0.40555382258070044</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="172" t="s">
+      <c r="H41" s="171" t="s">
         <v>11</v>
       </c>
       <c r="I41" s="87">
@@ -19766,7 +18982,7 @@
     </row>
     <row r="42" spans="1:65" ht="16.5" thickBot="1">
       <c r="A42" s="15"/>
-      <c r="B42" s="177" t="s">
+      <c r="B42" s="176" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="82">
@@ -19781,12 +18997,12 @@
         <f t="shared" si="6"/>
         <v>0.12985360364612636</v>
       </c>
-      <c r="F42" s="204">
+      <c r="F42" s="203">
         <f t="shared" si="7"/>
         <v>0.11615997148018524</v>
       </c>
       <c r="G42" s="15"/>
-      <c r="H42" s="190" t="s">
+      <c r="H42" s="189" t="s">
         <v>14</v>
       </c>
       <c r="I42" s="88">
@@ -19805,9 +19021,9 @@
       <c r="M42" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="N42" s="289"/>
-      <c r="O42" s="289"/>
-      <c r="P42" s="290"/>
+      <c r="N42" s="313"/>
+      <c r="O42" s="313"/>
+      <c r="P42" s="314"/>
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
@@ -19860,7 +19076,7 @@
     </row>
     <row r="43" spans="1:65" ht="16.5" thickBot="1">
       <c r="A43" s="15"/>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="176" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="82">
@@ -19875,12 +19091,12 @@
         <f t="shared" si="6"/>
         <v>4.4243644011796292E-2</v>
       </c>
-      <c r="F43" s="204">
+      <c r="F43" s="203">
         <f t="shared" si="7"/>
         <v>3.4761952099051509E-2</v>
       </c>
       <c r="G43" s="15"/>
-      <c r="H43" s="191" t="s">
+      <c r="H43" s="190" t="s">
         <v>137</v>
       </c>
       <c r="I43" s="88">
@@ -19952,7 +19168,7 @@
     </row>
     <row r="44" spans="1:65" ht="16.5" thickBot="1">
       <c r="A44" s="15"/>
-      <c r="B44" s="178" t="s">
+      <c r="B44" s="177" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="83">
@@ -19967,12 +19183,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F44" s="205">
+      <c r="F44" s="204">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G44" s="15"/>
-      <c r="H44" s="192" t="s">
+      <c r="H44" s="191" t="s">
         <v>141</v>
       </c>
       <c r="I44" s="88">
@@ -20055,7 +19271,7 @@
     </row>
     <row r="45" spans="1:65" ht="17.25" thickTop="1" thickBot="1">
       <c r="A45" s="15"/>
-      <c r="B45" s="179" t="s">
+      <c r="B45" s="178" t="s">
         <v>126</v>
       </c>
       <c r="C45" s="82">
@@ -20070,12 +19286,12 @@
         <f t="shared" ref="E45:E51" si="12">IFERROR(IF(ABS(E15/TotalLiabilitiesY3) &gt;  0, E15/TotalLiabilitiesY3, NA()), NA())</f>
         <v>0.10708693645029721</v>
       </c>
-      <c r="F45" s="204">
+      <c r="F45" s="203">
         <f t="shared" ref="F45:F51" si="13">IFERROR(IF(ABS(F15/TotalLiabilitiesY4) &gt;  0, F15/TotalLiabilitiesY4, NA()), NA())</f>
         <v>9.5267637138912675E-2</v>
       </c>
       <c r="G45" s="15"/>
-      <c r="H45" s="219" t="s">
+      <c r="H45" s="218" t="s">
         <v>138</v>
       </c>
       <c r="I45" s="90">
@@ -20147,7 +19363,7 @@
     </row>
     <row r="46" spans="1:65" ht="16.5" thickTop="1">
       <c r="A46" s="15"/>
-      <c r="B46" s="179" t="s">
+      <c r="B46" s="178" t="s">
         <v>127</v>
       </c>
       <c r="C46" s="82">
@@ -20162,12 +19378,12 @@
         <f t="shared" si="12"/>
         <v>7.3429818341035319E-2</v>
       </c>
-      <c r="F46" s="204">
+      <c r="F46" s="203">
         <f t="shared" si="13"/>
         <v>0.10075494119497405</v>
       </c>
       <c r="G46" s="15"/>
-      <c r="H46" s="220"/>
+      <c r="H46" s="219"/>
       <c r="I46" s="89">
         <f t="shared" si="8"/>
         <v>3.5625307456718029E-3</v>
@@ -20239,7 +19455,7 @@
     </row>
     <row r="47" spans="1:65" ht="16.5" thickBot="1">
       <c r="A47" s="15"/>
-      <c r="B47" s="172" t="s">
+      <c r="B47" s="171" t="s">
         <v>101</v>
       </c>
       <c r="C47" s="84">
@@ -20254,12 +19470,12 @@
         <f t="shared" si="12"/>
         <v>0.18051675479133253</v>
       </c>
-      <c r="F47" s="206">
+      <c r="F47" s="205">
         <f t="shared" si="13"/>
         <v>0.19602257833388673</v>
       </c>
       <c r="G47" s="15"/>
-      <c r="H47" s="178" t="s">
+      <c r="H47" s="177" t="s">
         <v>17</v>
       </c>
       <c r="I47" s="87">
@@ -20333,7 +19549,7 @@
     </row>
     <row r="48" spans="1:65" ht="16.5" thickTop="1">
       <c r="A48" s="15"/>
-      <c r="B48" s="173" t="s">
+      <c r="B48" s="172" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="82">
@@ -20348,7 +19564,7 @@
         <f t="shared" si="12"/>
         <v>0.50387161560829818</v>
       </c>
-      <c r="F48" s="204">
+      <c r="F48" s="203">
         <f t="shared" si="13"/>
         <v>0.43999790294112506</v>
       </c>
@@ -20418,7 +19634,7 @@
     </row>
     <row r="49" spans="1:65" ht="15.75">
       <c r="A49" s="15"/>
-      <c r="B49" s="174" t="s">
+      <c r="B49" s="173" t="s">
         <v>103</v>
       </c>
       <c r="C49" s="82">
@@ -20433,7 +19649,7 @@
         <f t="shared" si="12"/>
         <v>0.31561162960036931</v>
       </c>
-      <c r="F49" s="204">
+      <c r="F49" s="203">
         <f t="shared" si="13"/>
         <v>0.36397951872498818</v>
       </c>
@@ -20503,7 +19719,7 @@
     </row>
     <row r="50" spans="1:65" ht="16.5" thickBot="1">
       <c r="A50" s="15"/>
-      <c r="B50" s="178" t="s">
+      <c r="B50" s="177" t="s">
         <v>132</v>
       </c>
       <c r="C50" s="83">
@@ -20518,7 +19734,7 @@
         <f t="shared" si="12"/>
         <v>0.81948324520866744</v>
       </c>
-      <c r="F50" s="205">
+      <c r="F50" s="204">
         <f t="shared" si="13"/>
         <v>0.8039774216661133</v>
       </c>
@@ -20586,7 +19802,7 @@
     </row>
     <row r="51" spans="1:65" ht="17.25" thickTop="1" thickBot="1">
       <c r="A51" s="15"/>
-      <c r="B51" s="180" t="s">
+      <c r="B51" s="179" t="s">
         <v>133</v>
       </c>
       <c r="C51" s="85">
@@ -20601,7 +19817,7 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="F51" s="207">
+      <c r="F51" s="206">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
@@ -20667,7 +19883,7 @@
     </row>
     <row r="52" spans="1:65" ht="16.5" thickTop="1">
       <c r="A52" s="15"/>
-      <c r="B52" s="181" t="s">
+      <c r="B52" s="180" t="s">
         <v>104</v>
       </c>
       <c r="C52" s="81" t="e">
@@ -20682,7 +19898,7 @@
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="F52" s="203" t="e">
+      <c r="F52" s="202" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
@@ -20748,7 +19964,7 @@
     </row>
     <row r="53" spans="1:65" ht="15.75">
       <c r="A53" s="15"/>
-      <c r="B53" s="173" t="s">
+      <c r="B53" s="172" t="s">
         <v>105</v>
       </c>
       <c r="C53" s="81">
@@ -20763,7 +19979,7 @@
         <f t="shared" si="16"/>
         <v>7.8413452750868209E-3</v>
       </c>
-      <c r="F53" s="203">
+      <c r="F53" s="202">
         <f t="shared" si="16"/>
         <v>6.8274051086178083E-3</v>
       </c>
@@ -20829,7 +20045,7 @@
     </row>
     <row r="54" spans="1:65" ht="15.75">
       <c r="A54" s="15"/>
-      <c r="B54" s="173" t="s">
+      <c r="B54" s="172" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="81">
@@ -20844,7 +20060,7 @@
         <f t="shared" si="16"/>
         <v>1.0414732224456225</v>
       </c>
-      <c r="F54" s="203">
+      <c r="F54" s="202">
         <f t="shared" si="16"/>
         <v>1.0593777353385851</v>
       </c>
@@ -20910,7 +20126,7 @@
     </row>
     <row r="55" spans="1:65" ht="15.75">
       <c r="A55" s="15"/>
-      <c r="B55" s="173" t="s">
+      <c r="B55" s="172" t="s">
         <v>106</v>
       </c>
       <c r="C55" s="81">
@@ -20925,7 +20141,7 @@
         <f t="shared" si="16"/>
         <v>-0.12769146408334855</v>
       </c>
-      <c r="F55" s="203">
+      <c r="F55" s="202">
         <f t="shared" si="16"/>
         <v>-0.10853823506007798</v>
       </c>
@@ -20991,7 +20207,7 @@
     </row>
     <row r="56" spans="1:65" ht="15.75">
       <c r="A56" s="15"/>
-      <c r="B56" s="174" t="s">
+      <c r="B56" s="173" t="s">
         <v>128</v>
       </c>
       <c r="C56" s="81">
@@ -21006,7 +20222,7 @@
         <f t="shared" si="16"/>
         <v>4.9771522573569732E-2</v>
       </c>
-      <c r="F56" s="203">
+      <c r="F56" s="202">
         <f t="shared" si="16"/>
         <v>1.941593061192011E-2</v>
       </c>
@@ -21072,7 +20288,7 @@
     </row>
     <row r="57" spans="1:65" ht="15.75">
       <c r="A57" s="15"/>
-      <c r="B57" s="173" t="s">
+      <c r="B57" s="172" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="81">
@@ -21087,7 +20303,7 @@
         <f t="shared" si="16"/>
         <v>2.8605373789069639E-2</v>
       </c>
-      <c r="F57" s="203">
+      <c r="F57" s="202">
         <f t="shared" si="16"/>
         <v>2.2917164000954882E-2</v>
       </c>
@@ -21153,7 +20369,7 @@
     </row>
     <row r="58" spans="1:65" ht="15.75">
       <c r="A58" s="15"/>
-      <c r="B58" s="182" t="s">
+      <c r="B58" s="181" t="s">
         <v>66</v>
       </c>
       <c r="C58" s="86">
@@ -21234,13 +20450,13 @@
     </row>
     <row r="59" spans="1:65" ht="16.5" thickBot="1">
       <c r="A59" s="15"/>
-      <c r="B59" s="208" t="s">
+      <c r="B59" s="207" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="209"/>
-      <c r="D59" s="209"/>
-      <c r="E59" s="209"/>
-      <c r="F59" s="209"/>
+      <c r="C59" s="208"/>
+      <c r="D59" s="208"/>
+      <c r="E59" s="208"/>
+      <c r="F59" s="208"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
@@ -21442,24 +20658,24 @@
       <c r="B62" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="291"/>
-      <c r="D62" s="291"/>
-      <c r="E62" s="291"/>
-      <c r="F62" s="292"/>
+      <c r="C62" s="315"/>
+      <c r="D62" s="315"/>
+      <c r="E62" s="315"/>
+      <c r="F62" s="316"/>
       <c r="G62" s="15"/>
       <c r="H62" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I62" s="289"/>
-      <c r="J62" s="289"/>
-      <c r="K62" s="290"/>
+      <c r="I62" s="313"/>
+      <c r="J62" s="313"/>
+      <c r="K62" s="314"/>
       <c r="L62" s="15"/>
       <c r="M62" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="N62" s="289"/>
-      <c r="O62" s="289"/>
-      <c r="P62" s="290"/>
+      <c r="N62" s="313"/>
+      <c r="O62" s="313"/>
+      <c r="P62" s="314"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
@@ -21579,45 +20795,45 @@
     </row>
     <row r="64" spans="1:65" ht="15.75">
       <c r="A64" s="15"/>
-      <c r="B64" s="183" t="s">
+      <c r="B64" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="184" t="s">
+      <c r="C64" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="D64" s="184" t="s">
+      <c r="D64" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="E64" s="184" t="s">
+      <c r="E64" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="F64" s="185" t="s">
+      <c r="F64" s="184" t="s">
         <v>219</v>
       </c>
       <c r="G64" s="15"/>
-      <c r="H64" s="183" t="s">
+      <c r="H64" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="184" t="s">
+      <c r="I64" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="J64" s="184" t="s">
+      <c r="J64" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="K64" s="184" t="s">
+      <c r="K64" s="183" t="s">
         <v>219</v>
       </c>
       <c r="L64" s="15"/>
-      <c r="M64" s="183" t="s">
+      <c r="M64" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="N64" s="184" t="s">
+      <c r="N64" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="O64" s="184" t="s">
+      <c r="O64" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="P64" s="185" t="s">
+      <c r="P64" s="184" t="s">
         <v>219</v>
       </c>
       <c r="Q64" s="15"/>
@@ -21672,7 +20888,7 @@
     </row>
     <row r="65" spans="1:65" ht="15.75">
       <c r="A65" s="15"/>
-      <c r="B65" s="172" t="s">
+      <c r="B65" s="171" t="s">
         <v>122</v>
       </c>
       <c r="C65" s="93">
@@ -21692,12 +20908,12 @@
         <v>90.069444444444443</v>
       </c>
       <c r="G65" s="15"/>
-      <c r="H65" s="186"/>
+      <c r="H65" s="185"/>
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
       <c r="L65" s="15"/>
-      <c r="M65" s="196" t="s">
+      <c r="M65" s="195" t="s">
         <v>111</v>
       </c>
       <c r="N65" s="40">
@@ -21708,7 +20924,7 @@
         <f t="shared" ref="O65:P65" si="18">IFERROR(IF(ABS((O5/$N5)*100) &gt;  0,ABS((O5/$N5)*100), NA()), NA())</f>
         <v>141.20815856567154</v>
       </c>
-      <c r="P65" s="217">
+      <c r="P65" s="216">
         <f t="shared" si="18"/>
         <v>146.99399621679413</v>
       </c>
@@ -21764,7 +20980,7 @@
     </row>
     <row r="66" spans="1:65" ht="15.75">
       <c r="A66" s="15"/>
-      <c r="B66" s="173" t="s">
+      <c r="B66" s="172" t="s">
         <v>121</v>
       </c>
       <c r="C66" s="92">
@@ -21779,12 +20995,12 @@
         <f t="shared" si="19"/>
         <v>111.14808652246255</v>
       </c>
-      <c r="F66" s="210">
+      <c r="F66" s="209">
         <f t="shared" si="19"/>
         <v>118.30282861896839</v>
       </c>
       <c r="G66" s="15"/>
-      <c r="H66" s="172" t="s">
+      <c r="H66" s="171" t="s">
         <v>107</v>
       </c>
       <c r="I66" s="97">
@@ -21800,7 +21016,7 @@
         <v>104.62890965929827</v>
       </c>
       <c r="L66" s="15"/>
-      <c r="M66" s="189" t="s">
+      <c r="M66" s="188" t="s">
         <v>112</v>
       </c>
       <c r="N66" s="41">
@@ -21811,7 +21027,7 @@
         <f t="shared" si="21"/>
         <v>97.171651495448629</v>
       </c>
-      <c r="P66" s="218">
+      <c r="P66" s="217">
         <f t="shared" si="21"/>
         <v>95.258994364976161</v>
       </c>
@@ -21867,7 +21083,7 @@
     </row>
     <row r="67" spans="1:65" ht="15.75">
       <c r="A67" s="15"/>
-      <c r="B67" s="173" t="s">
+      <c r="B67" s="172" t="s">
         <v>123</v>
       </c>
       <c r="C67" s="92">
@@ -21882,12 +21098,12 @@
         <f t="shared" si="22"/>
         <v>143.33352366813224</v>
       </c>
-      <c r="F67" s="210">
+      <c r="F67" s="209">
         <f t="shared" si="22"/>
         <v>145.20070804545196</v>
       </c>
       <c r="G67" s="15"/>
-      <c r="H67" s="187" t="s">
+      <c r="H67" s="186" t="s">
         <v>136</v>
       </c>
       <c r="I67" s="98">
@@ -21903,7 +21119,7 @@
         <v>103.13401051580198</v>
       </c>
       <c r="L67" s="15"/>
-      <c r="M67" s="199" t="s">
+      <c r="M67" s="198" t="s">
         <v>113</v>
       </c>
       <c r="N67" s="41">
@@ -21914,7 +21130,7 @@
         <f t="shared" si="23"/>
         <v>249.99187124044872</v>
       </c>
-      <c r="P67" s="218">
+      <c r="P67" s="217">
         <f t="shared" si="23"/>
         <v>295.30157697935294</v>
       </c>
@@ -21970,7 +21186,7 @@
     </row>
     <row r="68" spans="1:65" ht="15.75">
       <c r="A68" s="15"/>
-      <c r="B68" s="174" t="s">
+      <c r="B68" s="173" t="s">
         <v>124</v>
       </c>
       <c r="C68" s="92">
@@ -21985,12 +21201,12 @@
         <f t="shared" si="22"/>
         <v>113.60416666666666</v>
       </c>
-      <c r="F68" s="210">
+      <c r="F68" s="209">
         <f t="shared" si="22"/>
         <v>167.25</v>
       </c>
       <c r="G68" s="15"/>
-      <c r="H68" s="172" t="s">
+      <c r="H68" s="171" t="s">
         <v>108</v>
       </c>
       <c r="I68" s="99">
@@ -22006,7 +21222,7 @@
         <v>105.71596935769003</v>
       </c>
       <c r="L68" s="15"/>
-      <c r="M68" s="199" t="s">
+      <c r="M68" s="198" t="s">
         <v>143</v>
       </c>
       <c r="N68" s="41">
@@ -22017,7 +21233,7 @@
         <f t="shared" si="24"/>
         <v>90.903367957192316</v>
       </c>
-      <c r="P68" s="218">
+      <c r="P68" s="217">
         <f t="shared" si="24"/>
         <v>123.26093799181619</v>
       </c>
@@ -22073,7 +21289,7 @@
     </row>
     <row r="69" spans="1:65" ht="15.75">
       <c r="A69" s="15"/>
-      <c r="B69" s="172" t="s">
+      <c r="B69" s="171" t="s">
         <v>125</v>
       </c>
       <c r="C69" s="94">
@@ -22088,12 +21304,12 @@
         <f t="shared" si="22"/>
         <v>131.22182231483234</v>
       </c>
-      <c r="F69" s="211">
+      <c r="F69" s="210">
         <f t="shared" si="22"/>
         <v>141.97007008903202</v>
       </c>
       <c r="G69" s="15"/>
-      <c r="H69" s="188" t="s">
+      <c r="H69" s="187" t="s">
         <v>168</v>
       </c>
       <c r="I69" s="100">
@@ -22109,7 +21325,7 @@
         <v>99.492745074908569</v>
       </c>
       <c r="L69" s="15"/>
-      <c r="M69" s="189" t="s">
+      <c r="M69" s="188" t="s">
         <v>114</v>
       </c>
       <c r="N69" s="41">
@@ -22120,7 +21336,7 @@
         <f t="shared" si="25"/>
         <v>355.70934256055364</v>
       </c>
-      <c r="P69" s="218">
+      <c r="P69" s="217">
         <f t="shared" si="25"/>
         <v>0.34602076124567477</v>
       </c>
@@ -22176,7 +21392,7 @@
     </row>
     <row r="70" spans="1:65" ht="15.75">
       <c r="A70" s="15"/>
-      <c r="B70" s="175" t="s">
+      <c r="B70" s="174" t="s">
         <v>98</v>
       </c>
       <c r="C70" s="92">
@@ -22191,12 +21407,12 @@
         <f t="shared" si="22"/>
         <v>105.35096931009664</v>
       </c>
-      <c r="F70" s="210">
+      <c r="F70" s="209">
         <f t="shared" si="22"/>
         <v>108.45299760474802</v>
       </c>
       <c r="G70" s="15"/>
-      <c r="H70" s="189" t="s">
+      <c r="H70" s="188" t="s">
         <v>140</v>
       </c>
       <c r="I70" s="100">
@@ -22212,7 +21428,7 @@
         <v>104.56071628427533</v>
       </c>
       <c r="L70" s="15"/>
-      <c r="M70" s="199" t="s">
+      <c r="M70" s="198" t="s">
         <v>144</v>
       </c>
       <c r="N70" s="41">
@@ -22223,7 +21439,7 @@
         <f t="shared" si="26"/>
         <v>135.59556786703601</v>
       </c>
-      <c r="P70" s="218">
+      <c r="P70" s="217">
         <f t="shared" si="26"/>
         <v>135.63019390581715</v>
       </c>
@@ -22279,7 +21495,7 @@
     </row>
     <row r="71" spans="1:65" ht="16.5" thickBot="1">
       <c r="A71" s="15"/>
-      <c r="B71" s="176" t="s">
+      <c r="B71" s="175" t="s">
         <v>99</v>
       </c>
       <c r="C71" s="92">
@@ -22294,12 +21510,12 @@
         <f t="shared" si="22"/>
         <v>107.24580297751029</v>
       </c>
-      <c r="F71" s="210">
+      <c r="F71" s="209">
         <f t="shared" si="22"/>
         <v>133.84202905108828</v>
       </c>
       <c r="G71" s="15"/>
-      <c r="H71" s="172" t="s">
+      <c r="H71" s="171" t="s">
         <v>11</v>
       </c>
       <c r="I71" s="101">
@@ -22371,7 +21587,7 @@
     </row>
     <row r="72" spans="1:65" ht="16.5" thickBot="1">
       <c r="A72" s="15"/>
-      <c r="B72" s="177" t="s">
+      <c r="B72" s="176" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="92">
@@ -22386,12 +21602,12 @@
         <f t="shared" si="22"/>
         <v>95.255110520192787</v>
       </c>
-      <c r="F72" s="210">
+      <c r="F72" s="209">
         <f t="shared" si="22"/>
         <v>93.864605839011688</v>
       </c>
       <c r="G72" s="15"/>
-      <c r="H72" s="190" t="s">
+      <c r="H72" s="189" t="s">
         <v>14</v>
       </c>
       <c r="I72" s="102">
@@ -22410,9 +21626,9 @@
       <c r="M72" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="N72" s="289"/>
-      <c r="O72" s="289"/>
-      <c r="P72" s="290"/>
+      <c r="N72" s="313"/>
+      <c r="O72" s="313"/>
+      <c r="P72" s="314"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
@@ -22465,7 +21681,7 @@
     </row>
     <row r="73" spans="1:65" ht="16.5" thickBot="1">
       <c r="A73" s="15"/>
-      <c r="B73" s="177" t="s">
+      <c r="B73" s="176" t="s">
         <v>43</v>
       </c>
       <c r="C73" s="92">
@@ -22480,12 +21696,12 @@
         <f t="shared" si="22"/>
         <v>137.26569821930647</v>
       </c>
-      <c r="F73" s="210">
+      <c r="F73" s="209">
         <f t="shared" si="22"/>
         <v>118.80271790065603</v>
       </c>
       <c r="G73" s="15"/>
-      <c r="H73" s="191" t="s">
+      <c r="H73" s="190" t="s">
         <v>137</v>
       </c>
       <c r="I73" s="103">
@@ -22557,7 +21773,7 @@
     </row>
     <row r="74" spans="1:65" ht="16.5" thickBot="1">
       <c r="A74" s="15"/>
-      <c r="B74" s="178" t="s">
+      <c r="B74" s="177" t="s">
         <v>44</v>
       </c>
       <c r="C74" s="96">
@@ -22572,12 +21788,12 @@
         <f t="shared" si="22"/>
         <v>108.45646654107625</v>
       </c>
-      <c r="F74" s="212">
+      <c r="F74" s="211">
         <f t="shared" si="22"/>
         <v>119.47211073798019</v>
       </c>
       <c r="G74" s="15"/>
-      <c r="H74" s="192" t="s">
+      <c r="H74" s="191" t="s">
         <v>141</v>
       </c>
       <c r="I74" s="103">
@@ -22660,7 +21876,7 @@
     </row>
     <row r="75" spans="1:65" ht="17.25" thickTop="1" thickBot="1">
       <c r="A75" s="15"/>
-      <c r="B75" s="179" t="s">
+      <c r="B75" s="178" t="s">
         <v>126</v>
       </c>
       <c r="C75" s="95">
@@ -22675,12 +21891,12 @@
         <f t="shared" si="22"/>
         <v>114.84203542081354</v>
       </c>
-      <c r="F75" s="213">
+      <c r="F75" s="212">
         <f t="shared" si="22"/>
         <v>111.29485020160261</v>
       </c>
       <c r="G75" s="15"/>
-      <c r="H75" s="193" t="s">
+      <c r="H75" s="192" t="s">
         <v>138</v>
       </c>
       <c r="I75" s="105">
@@ -22752,7 +21968,7 @@
     </row>
     <row r="76" spans="1:65" ht="16.5" thickTop="1">
       <c r="A76" s="15"/>
-      <c r="B76" s="179" t="s">
+      <c r="B76" s="178" t="s">
         <v>127</v>
       </c>
       <c r="C76" s="92">
@@ -22767,12 +21983,12 @@
         <f t="shared" si="22"/>
         <v>143.56564622685403</v>
       </c>
-      <c r="F76" s="210">
+      <c r="F76" s="209">
         <f t="shared" si="22"/>
         <v>214.59011817251326</v>
       </c>
       <c r="G76" s="15"/>
-      <c r="H76" s="194"/>
+      <c r="H76" s="193"/>
       <c r="I76" s="102">
         <f t="shared" si="28"/>
         <v>100</v>
@@ -22853,7 +22069,7 @@
     </row>
     <row r="77" spans="1:65" ht="16.5" thickBot="1">
       <c r="A77" s="15"/>
-      <c r="B77" s="172" t="s">
+      <c r="B77" s="171" t="s">
         <v>101</v>
       </c>
       <c r="C77" s="94">
@@ -22868,12 +22084,12 @@
         <f t="shared" si="22"/>
         <v>125.01647989452866</v>
       </c>
-      <c r="F77" s="211">
+      <c r="F77" s="210">
         <f t="shared" si="22"/>
         <v>147.88398154251811</v>
       </c>
       <c r="G77" s="15"/>
-      <c r="H77" s="178" t="s">
+      <c r="H77" s="177" t="s">
         <v>17</v>
       </c>
       <c r="I77" s="105">
@@ -22956,7 +22172,7 @@
     </row>
     <row r="78" spans="1:65" ht="16.5" thickTop="1">
       <c r="A78" s="15"/>
-      <c r="B78" s="173" t="s">
+      <c r="B78" s="172" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="92">
@@ -22971,12 +22187,12 @@
         <f t="shared" si="22"/>
         <v>100.41732664346077</v>
       </c>
-      <c r="F78" s="210">
+      <c r="F78" s="209">
         <f t="shared" si="22"/>
         <v>95.52227480959472</v>
       </c>
       <c r="G78" s="15"/>
-      <c r="H78" s="195" t="s">
+      <c r="H78" s="194" t="s">
         <v>109</v>
       </c>
       <c r="I78" s="107">
@@ -23059,7 +22275,7 @@
     </row>
     <row r="79" spans="1:65" ht="15.75">
       <c r="A79" s="15"/>
-      <c r="B79" s="174" t="s">
+      <c r="B79" s="173" t="s">
         <v>103</v>
       </c>
       <c r="C79" s="92">
@@ -23074,23 +22290,23 @@
         <f t="shared" si="22"/>
         <v>78.596740740740742</v>
       </c>
-      <c r="F79" s="210">
+      <c r="F79" s="209">
         <f t="shared" si="22"/>
         <v>98.740148148148137</v>
       </c>
       <c r="G79" s="15"/>
-      <c r="H79" s="197" t="s">
+      <c r="H79" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="I79" s="216">
+      <c r="I79" s="215">
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="J79" s="216">
+      <c r="J79" s="215">
         <f t="shared" si="28"/>
         <v>51.086956521739125</v>
       </c>
-      <c r="K79" s="216">
+      <c r="K79" s="215">
         <f t="shared" si="28"/>
         <v>63.179347826086961</v>
       </c>
@@ -23162,7 +22378,7 @@
     </row>
     <row r="80" spans="1:65" ht="16.5" thickBot="1">
       <c r="A80" s="15"/>
-      <c r="B80" s="178" t="s">
+      <c r="B80" s="177" t="s">
         <v>132</v>
       </c>
       <c r="C80" s="96">
@@ -23177,7 +22393,7 @@
         <f t="shared" si="22"/>
         <v>90.71746185619152</v>
       </c>
-      <c r="F80" s="212">
+      <c r="F80" s="211">
         <f t="shared" si="22"/>
         <v>96.952710107055552</v>
       </c>
@@ -23254,7 +22470,7 @@
     </row>
     <row r="81" spans="1:65" ht="17.25" thickTop="1" thickBot="1">
       <c r="A81" s="15"/>
-      <c r="B81" s="180" t="s">
+      <c r="B81" s="179" t="s">
         <v>133</v>
       </c>
       <c r="C81" s="96">
@@ -23269,7 +22485,7 @@
         <f t="shared" si="22"/>
         <v>95.444428293693335</v>
       </c>
-      <c r="F81" s="212">
+      <c r="F81" s="211">
         <f t="shared" si="22"/>
         <v>103.97187346694041</v>
       </c>
@@ -23335,7 +22551,7 @@
     </row>
     <row r="82" spans="1:65" ht="16.5" thickTop="1">
       <c r="A82" s="15"/>
-      <c r="B82" s="181" t="s">
+      <c r="B82" s="180" t="s">
         <v>104</v>
       </c>
       <c r="C82" s="95" t="e">
@@ -23350,7 +22566,7 @@
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="F82" s="213" t="e">
+      <c r="F82" s="212" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -23416,7 +22632,7 @@
     </row>
     <row r="83" spans="1:65" ht="15.75">
       <c r="A83" s="15"/>
-      <c r="B83" s="173" t="s">
+      <c r="B83" s="172" t="s">
         <v>105</v>
       </c>
       <c r="C83" s="92">
@@ -23431,7 +22647,7 @@
         <f t="shared" si="22"/>
         <v>101.17924528301887</v>
       </c>
-      <c r="F83" s="210">
+      <c r="F83" s="209">
         <f t="shared" si="22"/>
         <v>101.17924528301887</v>
       </c>
@@ -23497,7 +22713,7 @@
     </row>
     <row r="84" spans="1:65" ht="15.75">
       <c r="A84" s="15"/>
-      <c r="B84" s="173" t="s">
+      <c r="B84" s="172" t="s">
         <v>134</v>
       </c>
       <c r="C84" s="92">
@@ -23512,7 +22728,7 @@
         <f t="shared" si="22"/>
         <v>217.13730421858921</v>
       </c>
-      <c r="F84" s="210">
+      <c r="F84" s="209">
         <f t="shared" si="22"/>
         <v>253.67173507107199</v>
       </c>
@@ -23578,7 +22794,7 @@
     </row>
     <row r="85" spans="1:65" ht="15.75">
       <c r="A85" s="15"/>
-      <c r="B85" s="173" t="s">
+      <c r="B85" s="172" t="s">
         <v>106</v>
       </c>
       <c r="C85" s="92">
@@ -23593,7 +22809,7 @@
         <f t="shared" si="22"/>
         <v>96.186148974253058</v>
       </c>
-      <c r="F85" s="210">
+      <c r="F85" s="209">
         <f t="shared" si="22"/>
         <v>93.900592041855973</v>
       </c>
@@ -23659,7 +22875,7 @@
     </row>
     <row r="86" spans="1:65" ht="15.75">
       <c r="A86" s="15"/>
-      <c r="B86" s="174" t="s">
+      <c r="B86" s="173" t="s">
         <v>128</v>
       </c>
       <c r="C86" s="92">
@@ -23674,7 +22890,7 @@
         <f t="shared" si="22"/>
         <v>87.219730941704029</v>
       </c>
-      <c r="F86" s="210">
+      <c r="F86" s="209">
         <f t="shared" si="22"/>
         <v>39.077514413837285</v>
       </c>
@@ -23740,7 +22956,7 @@
     </row>
     <row r="87" spans="1:65" ht="15.75">
       <c r="A87" s="15"/>
-      <c r="B87" s="173" t="s">
+      <c r="B87" s="172" t="s">
         <v>129</v>
       </c>
       <c r="C87" s="92">
@@ -23755,7 +22971,7 @@
         <f t="shared" si="22"/>
         <v>103.77984084880636</v>
       </c>
-      <c r="F87" s="210">
+      <c r="F87" s="209">
         <f t="shared" si="22"/>
         <v>95.490716180371351</v>
       </c>
@@ -23821,7 +23037,7 @@
     </row>
     <row r="88" spans="1:65" ht="15.75">
       <c r="A88" s="15"/>
-      <c r="B88" s="182" t="s">
+      <c r="B88" s="181" t="s">
         <v>66</v>
       </c>
       <c r="C88" s="94">
@@ -23836,7 +23052,7 @@
         <f t="shared" si="22"/>
         <v>227.654793608522</v>
       </c>
-      <c r="F88" s="211">
+      <c r="F88" s="210">
         <f t="shared" si="22"/>
         <v>261.46388149134486</v>
       </c>
@@ -23902,22 +23118,22 @@
     </row>
     <row r="89" spans="1:65" ht="15.75">
       <c r="A89" s="15"/>
-      <c r="B89" s="182" t="s">
+      <c r="B89" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="214">
+      <c r="C89" s="213">
         <f t="shared" si="22"/>
         <v>100</v>
       </c>
-      <c r="D89" s="214">
+      <c r="D89" s="213">
         <f t="shared" si="22"/>
         <v>105.30878859857482</v>
       </c>
-      <c r="E89" s="214">
+      <c r="E89" s="213">
         <f t="shared" si="22"/>
         <v>108.45646654107625</v>
       </c>
-      <c r="F89" s="215">
+      <c r="F89" s="214">
         <f t="shared" si="22"/>
         <v>119.47211073798019</v>
       </c>
@@ -48738,6 +47954,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7B6E0C-C571-4BD0-9D2D-1D49B44FDFB7}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="282" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="18.85546875" style="282" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="18.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:7" ht="15.75">
+      <c r="B2" s="322"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75">
+      <c r="B3" s="321"/>
+      <c r="C3" s="275" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="275" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="275" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="275" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="275" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" outlineLevel="1">
+      <c r="B4" s="323" t="str">
+        <f>Dashboard!A8</f>
+        <v>Scenario:</v>
+      </c>
+      <c r="C4" s="276">
+        <v>5</v>
+      </c>
+      <c r="D4" s="276">
+        <v>4</v>
+      </c>
+      <c r="E4" s="276">
+        <v>3</v>
+      </c>
+      <c r="F4" s="276">
+        <v>2</v>
+      </c>
+      <c r="G4" s="276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B5" s="324" t="str">
+        <f>Dashboard!A7</f>
+        <v>Expected Performance:</v>
+      </c>
+      <c r="C5" s="320">
+        <v>0.153576932607428</v>
+      </c>
+      <c r="D5" s="320">
+        <v>0.18014193044558499</v>
+      </c>
+      <c r="E5" s="320">
+        <v>0.20118917885187901</v>
+      </c>
+      <c r="F5" s="320">
+        <v>0.22526238828898501</v>
+      </c>
+      <c r="G5" s="320">
+        <v>0.267789292610634</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" outlineLevel="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B441F2E-BB48-4B90-8E18-6A118ADDB14D}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -48753,18 +48065,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="318" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="288" t="s">
+      <c r="B1" s="319" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
       <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="287"/>
+      <c r="A2" s="308"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -49185,12 +48497,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C3D520-F363-4678-999E-DED8E675E3EB}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49877,7 +49189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6837E0FA-3690-4E67-A04D-0D08C82022EA}">
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -49894,18 +49206,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="318" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="288" t="s">
+      <c r="B1" s="319" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
       <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="287"/>
+      <c r="A2" s="308"/>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
@@ -50413,121 +49725,6 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE637F-3150-4F1A-B520-27C198A347CF}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:F8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="88" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="18.5703125" style="153" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="18.85546875" style="153" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="18.5703125" style="153" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:6">
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-    </row>
-    <row r="3" spans="2:6" collapsed="1">
-      <c r="B3" s="277" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="277" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="277" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="277" t="s">
-        <v>234</v>
-      </c>
-      <c r="F3" s="277" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="56.25" hidden="1" outlineLevel="1">
-      <c r="B4" s="279" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="279" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="279" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="279" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="279" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="275"/>
-      <c r="C5" s="275"/>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-    </row>
-    <row r="6" spans="2:6" outlineLevel="1">
-      <c r="B6" s="278">
-        <v>5</v>
-      </c>
-      <c r="C6" s="278">
-        <v>4</v>
-      </c>
-      <c r="D6" s="278">
-        <v>3</v>
-      </c>
-      <c r="E6" s="278">
-        <v>2</v>
-      </c>
-      <c r="F6" s="278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="275"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="B8" s="284">
-        <v>0.445962470027571</v>
-      </c>
-      <c r="C8" s="284">
-        <v>0.32040518499000198</v>
-      </c>
-      <c r="D8" s="284">
-        <v>0.20118917885187901</v>
-      </c>
-      <c r="E8" s="284">
-        <v>4.41917670016286E-2</v>
-      </c>
-      <c r="F8" s="284">
-        <v>-0.28534045356649101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -50541,9 +49738,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -50572,167 +49769,167 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
-      <c r="B3" s="280" t="s">
+      <c r="B3" s="277" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="277" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="280" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="282" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="282" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="282" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="282" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="278" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="280">
+        <v>0.43999790294112506</v>
+      </c>
+      <c r="C5" s="280">
+        <v>0.31507196797005421</v>
+      </c>
+      <c r="D5" s="280">
+        <v>0.12845228587000859</v>
+      </c>
+      <c r="E5" s="280">
+        <v>0.19602257833388673</v>
+      </c>
+      <c r="F5" s="280">
+        <v>3.4906660865858664E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="278" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="280">
+        <v>0.50387161560829818</v>
+      </c>
+      <c r="C6" s="280">
+        <v>0.33714585638279798</v>
+      </c>
+      <c r="D6" s="280">
+        <v>0.13078628095865635</v>
+      </c>
+      <c r="E6" s="280">
+        <v>0.18051675479133253</v>
+      </c>
+      <c r="F6" s="280">
+        <v>0.28808012693527124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="278" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="280">
+        <v>0.53489663742139548</v>
+      </c>
+      <c r="C7" s="280">
+        <v>0.34443091976060014</v>
+      </c>
+      <c r="D7" s="280">
+        <v>0.11632826870651738</v>
+      </c>
+      <c r="E7" s="280">
+        <v>0.15550043303083932</v>
+      </c>
+      <c r="F7" s="280">
+        <v>1.1511562589193522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="278" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="280">
+        <v>0.47891872740156621</v>
+      </c>
+      <c r="C8" s="280">
+        <v>0.34708411827340485</v>
+      </c>
+      <c r="D8" s="280">
+        <v>0.10809648619870588</v>
+      </c>
+      <c r="E8" s="280">
+        <v>0.13781637807293276</v>
+      </c>
+      <c r="F8" s="280">
+        <v>0.47891872740156621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="277" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="277" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="281" t="s">
+      <c r="B13" s="282" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="282" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="278" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="279">
+        <v>100</v>
+      </c>
+      <c r="C14" s="279">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="278" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="279">
+        <v>72.1875</v>
+      </c>
+      <c r="C15" s="279">
+        <v>72.1875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="278" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="279">
+        <v>95.3125</v>
+      </c>
+      <c r="C16" s="279">
+        <v>95.3125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="278" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="283">
-        <v>0.43999790294112506</v>
-      </c>
-      <c r="C5" s="283">
-        <v>0.31507196797005421</v>
-      </c>
-      <c r="D5" s="283">
-        <v>0.12845228587000859</v>
-      </c>
-      <c r="E5" s="283">
-        <v>0.19602257833388673</v>
-      </c>
-      <c r="F5" s="283">
-        <v>3.4906660865858664E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="281" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="283">
-        <v>0.50387161560829818</v>
-      </c>
-      <c r="C6" s="283">
-        <v>0.33714585638279798</v>
-      </c>
-      <c r="D6" s="283">
-        <v>0.13078628095865635</v>
-      </c>
-      <c r="E6" s="283">
-        <v>0.18051675479133253</v>
-      </c>
-      <c r="F6" s="283">
-        <v>0.28808012693527124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="281" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="283">
-        <v>0.53489663742139548</v>
-      </c>
-      <c r="C7" s="283">
-        <v>0.34443091976060014</v>
-      </c>
-      <c r="D7" s="283">
-        <v>0.11632826870651738</v>
-      </c>
-      <c r="E7" s="283">
-        <v>0.15550043303083932</v>
-      </c>
-      <c r="F7" s="283">
-        <v>1.1511562589193522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="281" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="283">
-        <v>0.47891872740156621</v>
-      </c>
-      <c r="C8" s="283">
-        <v>0.34708411827340485</v>
-      </c>
-      <c r="D8" s="283">
-        <v>0.10809648619870588</v>
-      </c>
-      <c r="E8" s="283">
-        <v>0.13781637807293276</v>
-      </c>
-      <c r="F8" s="283">
-        <v>0.47891872740156621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="280" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="280" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" s="153" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="153" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="281" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="282">
-        <v>100</v>
-      </c>
-      <c r="C14" s="282">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="281" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="282">
-        <v>72.1875</v>
-      </c>
-      <c r="C15" s="282">
-        <v>72.1875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="281" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="282">
-        <v>95.3125</v>
-      </c>
-      <c r="C16" s="282">
-        <v>95.3125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="281" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="282">
+      <c r="B17" s="279">
         <v>90.069444444444443</v>
       </c>
-      <c r="C17" s="282">
+      <c r="C17" s="279">
         <v>90.069444444444443</v>
       </c>
     </row>

--- a/Projects/VZ Consolidated IS,BS, & CF .xlsx
+++ b/Projects/VZ Consolidated IS,BS, & CF .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\FineLit\FineLit Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\de59.github.io\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D38125-8767-415B-9B2F-E5C11C94B415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3359F079-DA50-4CBF-95C0-E70E3B57322F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A25086B5-4036-4D1C-9EF2-0F45196E0FB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A25086B5-4036-4D1C-9EF2-0F45196E0FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
     <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="8" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2343,10 +2343,30 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2362,14 +2382,20 @@
     <xf numFmtId="9" fontId="26" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2382,18 +2408,21 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="4" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2403,40 +2432,11 @@
     <xf numFmtId="44" fontId="4" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2447,65 +2447,7 @@
   </cellStyles>
   <dxfs count="63">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5B960"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -2723,13 +2665,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -2742,7 +2677,72 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5B960"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -13169,7 +13169,130 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42BBD0F0-4AF2-43DD-9BCF-BED90A89C91C}" name="PivotTable1" cacheId="8" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98A09A1D-A604-4DDC-A3C5-5C0FA55D5081}" name="PivotTable9" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Trend Analysis Balance Sheet" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A12:C17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="26">
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="21"/>
+        <item x="0"/>
+        <item h="1" x="18"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item h="1" x="13"/>
+        <item h="1" x="22"/>
+        <item h="1" x="8"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="17"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="19"/>
+        <item h="1" x="9"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="23"/>
+        <item h="1" x="16"/>
+        <item h="1" x="24"/>
+        <item h="1" x="15"/>
+        <item h="1" x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="2016A" fld="1" baseField="2" baseItem="0"/>
+    <dataField name="2017A" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="2018A" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="2019A" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42BBD0F0-4AF2-43DD-9BCF-BED90A89C91C}" name="PivotTable1" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="H10:M15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -13492,7 +13615,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA439A93-8D5E-4CBB-BBB1-A39CE4B742BB}" name="PivotTable6" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Commonsized Balance Sheet" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
@@ -13574,7 +13697,7 @@
     <dataField name="2016A" fld="1" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -13647,129 +13770,6 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="19"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98A09A1D-A604-4DDC-A3C5-5C0FA55D5081}" name="PivotTable9" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Trend Analysis Balance Sheet" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A12:C17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="26">
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="21"/>
-        <item x="0"/>
-        <item h="1" x="18"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item h="1" x="13"/>
-        <item h="1" x="22"/>
-        <item h="1" x="8"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="17"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="19"/>
-        <item h="1" x="9"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="23"/>
-        <item h="1" x="16"/>
-        <item h="1" x="24"/>
-        <item h="1" x="15"/>
-        <item h="1" x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="2016A" fld="1" baseField="2" baseItem="0"/>
-    <dataField name="2017A" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="2018A" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="2019A" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -13929,14 +13929,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D851BEB4-F57E-48BA-BB2A-07865D762AE7}" name="Ratios" displayName="Ratios" ref="B92:F116" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D851BEB4-F57E-48BA-BB2A-07865D762AE7}" name="Ratios" displayName="Ratios" ref="B92:F116" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B92:F116" xr:uid="{4AC246CB-1B8B-4074-B7A8-72CB43500BB3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A868839B-2AD6-4F91-A8AB-34953C47ED7E}" name="Ratios" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0EB71E22-E538-4C39-96E7-AB082023E69F}" name="2016" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{7724D99C-FE3C-4A19-8D46-AC3227CE314C}" name="2017" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9D38E68A-1C29-4B65-A586-2F042473F665}" name="2018" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9788D129-700F-46BE-B46C-55AF3A23585F}" name="2019" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A868839B-2AD6-4F91-A8AB-34953C47ED7E}" name="Ratios" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0EB71E22-E538-4C39-96E7-AB082023E69F}" name="2016" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7724D99C-FE3C-4A19-8D46-AC3227CE314C}" name="2017" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9D38E68A-1C29-4B65-A586-2F042473F665}" name="2018" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9788D129-700F-46BE-B46C-55AF3A23585F}" name="2019" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14241,7 +14241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A38D5E-E30A-49FE-AF3D-C4B640654F45}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -14253,112 +14253,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="304" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
       <c r="G1" s="263"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="305"/>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
+      <c r="A2" s="304"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
       <c r="G2" s="263"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="306" t="s">
+      <c r="A3" s="305" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="298" t="s">
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="307" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="298"/>
+      <c r="E3" s="307"/>
       <c r="F3" s="263"/>
       <c r="G3" s="263"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="306" t="s">
+      <c r="A4" s="305" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="298" t="s">
+      <c r="B4" s="305"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="307" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="298"/>
+      <c r="E4" s="307"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A5" s="299" t="s">
+      <c r="A5" s="306" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="301">
+      <c r="B5" s="306"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="309">
         <v>61.5</v>
       </c>
-      <c r="E5" s="301"/>
+      <c r="E5" s="309"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A6" s="299" t="s">
+      <c r="A6" s="306" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="302">
+      <c r="B6" s="306"/>
+      <c r="C6" s="306"/>
+      <c r="D6" s="310">
         <f>DCF!H1</f>
-        <v>-43.570493844620025</v>
-      </c>
-      <c r="E6" s="303"/>
+        <v>68.04644895076774</v>
+      </c>
+      <c r="E6" s="311"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A7" s="299" t="s">
+      <c r="A7" s="306" t="s">
         <v>225</v>
       </c>
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="304">
+      <c r="B7" s="306"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="312">
         <f>DCF!H2</f>
-        <v>-1.708463314546667</v>
-      </c>
-      <c r="E7" s="298"/>
+        <v>0.10644632440272749</v>
+      </c>
+      <c r="E7" s="307"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A8" s="299" t="s">
+      <c r="A8" s="306" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="298">
+      <c r="B8" s="306"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="307">
         <v>3</v>
       </c>
-      <c r="E8" s="298"/>
+      <c r="E8" s="307"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="300" t="str">
+      <c r="A9" s="308" t="str">
         <f>DCF!B5</f>
         <v>(1-Above Avg., 2-Slightly Above Avg., 3-Base, 4-Slightly Below Avg., 5-Below Average)</v>
       </c>
-      <c r="B9" s="300"/>
-      <c r="C9" s="300"/>
+      <c r="B9" s="308"/>
+      <c r="C9" s="308"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="300"/>
-      <c r="B10" s="300"/>
-      <c r="C10" s="300"/>
+      <c r="A10" s="308"/>
+      <c r="B10" s="308"/>
+      <c r="C10" s="308"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="300"/>
-      <c r="B11" s="300"/>
-      <c r="C11" s="300"/>
+      <c r="A11" s="308"/>
+      <c r="B11" s="308"/>
+      <c r="C11" s="308"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="138" t="s">
@@ -14404,11 +14404,6 @@
     </scenario>
   </scenarios>
   <mergeCells count="14">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -14418,6 +14413,11 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14428,8 +14428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6446CE3F-FD5D-41FF-80D9-682EF99159B7}">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14449,23 +14449,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="323" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="309"/>
+      <c r="B1" s="323"/>
       <c r="C1" s="152">
         <f>Dashboard!D5</f>
         <v>61.5</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="312" t="s">
+      <c r="F1" s="326" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="312"/>
+      <c r="G1" s="326"/>
       <c r="H1" s="116">
         <f>Target_Price</f>
-        <v>-43.570493844620025</v>
+        <v>68.04644895076774</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="124"/>
@@ -14480,23 +14480,23 @@
       <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="323" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="309"/>
+      <c r="B2" s="323"/>
       <c r="C2" s="154">
         <f>'Consolidated Financials'!P18</f>
         <v>4140</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="326" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="312"/>
+      <c r="G2" s="326"/>
       <c r="H2" s="117">
         <f>(H1-C1)/C1</f>
-        <v>-1.708463314546667</v>
+        <v>0.10644632440272749</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="124"/>
@@ -14511,10 +14511,10 @@
       <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="323" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="309"/>
+      <c r="B3" s="323"/>
       <c r="C3" s="120">
         <f>N29</f>
         <v>8.2784699519411836E-2</v>
@@ -14537,10 +14537,10 @@
       <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="309" t="s">
+      <c r="A4" s="323" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="309"/>
+      <c r="B4" s="323"/>
       <c r="C4" s="121">
         <f>N20</f>
         <v>9.8672464583656166E-2</v>
@@ -14622,10 +14622,10 @@
         <v>161</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="310" t="s">
+      <c r="L6" s="324" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="311"/>
+      <c r="M6" s="325"/>
       <c r="N6" s="15" t="s">
         <v>154</v>
       </c>
@@ -14647,54 +14647,54 @@
       </c>
       <c r="B7" s="222"/>
       <c r="C7" s="223"/>
-      <c r="D7" s="224" t="e">
-        <f>RevenueY1</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" s="224" t="e">
-        <f>RevenueY2</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" s="224" t="e">
-        <f>RevenueY3</f>
-        <v>#NAME?</v>
+      <c r="D7" s="224">
+        <f>'Consolidated Financials'!I6</f>
+        <v>126034</v>
+      </c>
+      <c r="E7" s="224">
+        <f>'Consolidated Financials'!J6</f>
+        <v>130863</v>
+      </c>
+      <c r="F7" s="224">
+        <f>'Consolidated Financials'!K6</f>
+        <v>131868</v>
       </c>
       <c r="G7" s="225">
         <f>IFERROR(F7*(1+G8), 0)</f>
-        <v>0</v>
+        <v>134900.62411682113</v>
       </c>
       <c r="H7" s="225">
         <f>IFERROR(G7*(1+H8), 0)</f>
-        <v>0</v>
+        <v>136969.81149147992</v>
       </c>
       <c r="I7" s="225">
         <f>IFERROR(H7*(1+I8), 0)</f>
-        <v>0</v>
+        <v>139595.25071834619</v>
       </c>
       <c r="J7" s="226">
         <f>IFERROR(I7*(1+J8), 0)</f>
-        <v>0</v>
+        <v>142003.73075798561</v>
       </c>
       <c r="K7" s="13"/>
-      <c r="L7" s="310" t="s">
+      <c r="L7" s="324" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="311"/>
+      <c r="M7" s="325"/>
       <c r="N7" s="122">
         <f>C7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="146" t="e">
+      <c r="O7" s="146">
         <f>D7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P7" s="146" t="e">
+        <v>126034</v>
+      </c>
+      <c r="P7" s="146">
         <f>E7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q7" s="146" t="e">
+        <v>130863</v>
+      </c>
+      <c r="Q7" s="146">
         <f>F7</f>
-        <v>#NAME?</v>
+        <v>131868</v>
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="13"/>
@@ -14708,33 +14708,33 @@
       <c r="D8" s="230"/>
       <c r="E8" s="230">
         <f>IFERROR((E7-D7)/D7,0)</f>
-        <v>0</v>
+        <v>3.8315057841534821E-2</v>
       </c>
       <c r="F8" s="230">
         <f>IFERROR((F7-E7)/E7,0)</f>
-        <v>0</v>
+        <v>7.6797872584305725E-3</v>
       </c>
       <c r="G8" s="231">
         <f>+CHOOSE($G$4,(IFERROR(SUM(E8:F8)/2, 0))*1.25,(IFERROR(SUM(E8:F8)/2, 0))*1.1,(IFERROR(SUM(E8:F8)/2, 0)),(IFERROR(SUM(E8:F8)/2, 0))*0.9, (IFERROR(SUM(E8:F8)/2, 0))*0.75)</f>
-        <v>0</v>
+        <v>2.2997422549982695E-2</v>
       </c>
       <c r="H8" s="231">
         <f>+CHOOSE($G$4,(IFERROR(SUM(F8:G8)/2, 0))*1.25,(IFERROR(SUM(F8:G8)/2, 0))*1.1,(IFERROR(SUM(F8:G8)/2, 0)),(IFERROR(SUM(F8:G8)/2, 0))*0.9, (IFERROR(SUM(F8:G8)/2, 0))*0.75)</f>
-        <v>0</v>
+        <v>1.5338604904206634E-2</v>
       </c>
       <c r="I8" s="231">
         <f>+CHOOSE($G$4,(IFERROR(SUM(G8:H8)/2, 0))*1.25,(IFERROR(SUM(G8:H8)/2, 0))*1.1,(IFERROR(SUM(G8:H8)/2, 0)),(IFERROR(SUM(G8:H8)/2, 0))*0.9, (IFERROR(SUM(G8:H8)/2, 0))*0.75)</f>
-        <v>0</v>
+        <v>1.9168013727094663E-2</v>
       </c>
       <c r="J8" s="232">
         <f>+CHOOSE($G$4,(IFERROR(SUM(H8:I8)/2, 0))*1.25,(IFERROR(SUM(H8:I8)/2, 0))*1.1,(IFERROR(SUM(H8:I8)/2, 0)),(IFERROR(SUM(H8:I8)/2, 0))*0.9, (IFERROR(SUM(H8:I8)/2, 0))*0.75)</f>
-        <v>0</v>
+        <v>1.7253309315650649E-2</v>
       </c>
       <c r="K8" s="13"/>
-      <c r="L8" s="307" t="s">
+      <c r="L8" s="320" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="308"/>
+      <c r="M8" s="321"/>
       <c r="N8" s="122"/>
       <c r="O8" s="122">
         <f>'Consolidated Financials'!I17</f>
@@ -14771,25 +14771,25 @@
       </c>
       <c r="G9" s="235">
         <f>IFERROR(G$7*G10, 0)</f>
-        <v>0</v>
+        <v>34597.504156022449</v>
       </c>
       <c r="H9" s="235">
         <f>IFERROR(H7*H10, 0)</f>
-        <v>0</v>
+        <v>34950.136726302742</v>
       </c>
       <c r="I9" s="235">
         <f>IFERROR(I7*I10, 0)</f>
-        <v>0</v>
+        <v>36046.355062481685</v>
       </c>
       <c r="J9" s="236">
         <f>IFERROR(J7*J10, 0)</f>
-        <v>0</v>
+        <v>36440.704364385259</v>
       </c>
       <c r="K9" s="13"/>
-      <c r="L9" s="307" t="s">
+      <c r="L9" s="320" t="s">
         <v>164</v>
       </c>
-      <c r="M9" s="308"/>
+      <c r="M9" s="321"/>
       <c r="N9" s="122"/>
       <c r="O9" s="122">
         <f>'Consolidated Financials'!I14*(-1)</f>
@@ -14812,39 +14812,39 @@
         <v>165</v>
       </c>
       <c r="C10" s="230"/>
-      <c r="D10" s="230" t="e">
+      <c r="D10" s="230">
         <f>D9/D7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" s="230" t="e">
+        <v>0.26036625037688244</v>
+      </c>
+      <c r="E10" s="230">
         <f>E9/E7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F10" s="230" t="e">
+        <v>0.24600536438871187</v>
+      </c>
+      <c r="F10" s="230">
         <f>F9/F7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G10" s="238" t="e">
+        <v>0.26302817969484638</v>
+      </c>
+      <c r="G10" s="238">
         <f>SUM(D10:F10)/3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H10" s="238" t="e">
+        <v>0.25646659815348022</v>
+      </c>
+      <c r="H10" s="238">
         <f>SUM(E10:G10)/3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I10" s="238" t="e">
+        <v>0.25516671407901281</v>
+      </c>
+      <c r="I10" s="238">
         <f>SUM(F10:H10)/3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J10" s="239" t="e">
+        <v>0.25822049730911312</v>
+      </c>
+      <c r="J10" s="239">
         <f>SUM(G10:I10)/3</f>
-        <v>#NAME?</v>
+        <v>0.25661793651386872</v>
       </c>
       <c r="K10" s="13"/>
-      <c r="L10" s="307" t="s">
+      <c r="L10" s="320" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="308"/>
+      <c r="M10" s="321"/>
       <c r="N10" s="122"/>
       <c r="O10" s="122">
         <f>'Consolidated Financials'!I12</f>
@@ -14881,25 +14881,25 @@
       </c>
       <c r="G11" s="235">
         <f>IFERROR(G$7*G12, 0)</f>
-        <v>0</v>
+        <v>16880.06288693257</v>
       </c>
       <c r="H11" s="235">
         <f>IFERROR(H$7*H12, 0)</f>
-        <v>0</v>
+        <v>17106.226336575575</v>
       </c>
       <c r="I11" s="235">
         <f>IFERROR(I$7*I12, 0)</f>
-        <v>0</v>
+        <v>17986.521662483545</v>
       </c>
       <c r="J11" s="236">
         <f>IFERROR(J$7*J12, 0)</f>
-        <v>0</v>
+        <v>17933.545172285703</v>
       </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="307" t="s">
+      <c r="L11" s="320" t="s">
         <v>168</v>
       </c>
-      <c r="M11" s="308"/>
+      <c r="M11" s="321"/>
       <c r="N11" s="122"/>
       <c r="O11" s="122">
         <f>'Consolidated Financials'!I9</f>
@@ -14922,33 +14922,33 @@
         <v>165</v>
       </c>
       <c r="C12" s="230"/>
-      <c r="D12" s="230" t="e">
+      <c r="D12" s="230">
         <f>D11/D7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" s="230" t="e">
+        <v>0.12584699366837521</v>
+      </c>
+      <c r="E12" s="230">
         <f>E11/E7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F12" s="230" t="e">
+        <v>0.11301895875839618</v>
+      </c>
+      <c r="F12" s="230">
         <f>F11/F7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G12" s="238" t="e">
+        <v>0.13652288652288652</v>
+      </c>
+      <c r="G12" s="238">
         <f>SUM(D12:F12)/3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="238" t="e">
+        <v>0.12512961298321931</v>
+      </c>
+      <c r="H12" s="238">
         <f>SUM(E12:G12)/3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I12" s="238" t="e">
+        <v>0.12489048608816733</v>
+      </c>
+      <c r="I12" s="238">
         <f>SUM(F12:H12)/3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="239" t="e">
+        <v>0.12884766186475771</v>
+      </c>
+      <c r="J12" s="239">
         <f>SUM(G12:I12)/3</f>
-        <v>#NAME?</v>
+        <v>0.12628925364538146</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="125"/>
@@ -14992,25 +14992,25 @@
       </c>
       <c r="G13" s="235">
         <f>IFERROR(G$7*G14, 0)</f>
-        <v>0</v>
+        <v>17717.441269089879</v>
       </c>
       <c r="H13" s="235">
         <f>IFERROR(H$7*H14, 0)</f>
-        <v>0</v>
+        <v>17843.910389727167</v>
       </c>
       <c r="I13" s="235">
         <f>IFERROR(I$7*I14, 0)</f>
-        <v>0</v>
+        <v>18059.833399998137</v>
       </c>
       <c r="J13" s="236">
         <f>IFERROR(J$7*J14, 0)</f>
-        <v>0</v>
+        <v>18507.15919209956</v>
       </c>
       <c r="K13" s="13"/>
-      <c r="L13" s="307" t="s">
+      <c r="L13" s="320" t="s">
         <v>170</v>
       </c>
-      <c r="M13" s="308"/>
+      <c r="M13" s="321"/>
       <c r="N13" s="123">
         <f>'Consolidated Financials'!C10</f>
         <v>84751</v>
@@ -15036,39 +15036,39 @@
         <v>171</v>
       </c>
       <c r="C14" s="230"/>
-      <c r="D14" s="230" t="e">
+      <c r="D14" s="230">
         <f>D13/D7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E14" s="230" t="e">
+        <v>0.13451925670850723</v>
+      </c>
+      <c r="E14" s="230">
         <f>E13/E7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F14" s="230" t="e">
+        <v>0.13298640563031566</v>
+      </c>
+      <c r="F14" s="230">
         <f>F13/F7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G14" s="238" t="e">
+        <v>0.12650529317195983</v>
+      </c>
+      <c r="G14" s="238">
         <f>SUM(D14:F14)/3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="238" t="e">
+        <v>0.13133698517026091</v>
+      </c>
+      <c r="H14" s="238">
         <f>SUM(E14:G14)/3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I14" s="238" t="e">
+        <v>0.13027622799084548</v>
+      </c>
+      <c r="I14" s="238">
         <f>SUM(F14:H14)/3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="239" t="e">
+        <v>0.12937283544435541</v>
+      </c>
+      <c r="J14" s="239">
         <f>SUM(G14:I14)/3</f>
-        <v>#NAME?</v>
+        <v>0.13032868286848728</v>
       </c>
       <c r="K14" s="13"/>
-      <c r="L14" s="307" t="s">
+      <c r="L14" s="320" t="s">
         <v>185</v>
       </c>
-      <c r="M14" s="308"/>
+      <c r="M14" s="321"/>
       <c r="N14" s="123"/>
       <c r="O14" s="148">
         <f>ABS(O10/D37)</f>
@@ -15385,7 +15385,7 @@
       <c r="M21" s="126"/>
       <c r="N21" s="131">
         <f>J59*(1-N19)</f>
-        <v>-11445.487338294157</v>
+        <v>22898.862456405994</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
@@ -15434,7 +15434,7 @@
       <c r="M22" s="126"/>
       <c r="N22" s="131">
         <f>N21/(N20-N19)</f>
-        <v>-141002.09223656703</v>
+        <v>282101.35757066333</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
@@ -15486,7 +15486,7 @@
       <c r="M23" s="126"/>
       <c r="N23" s="131">
         <f>N22/((1+N20)^J44)</f>
-        <v>-88081.429852433968</v>
+        <v>176223.5619628118</v>
       </c>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
@@ -16265,7 +16265,7 @@
       <c r="M42" s="126"/>
       <c r="N42" s="131">
         <f>N23+F17+C62+F19+F27</f>
-        <v>-79669.844516726909</v>
+        <v>382424.29865617846</v>
       </c>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
@@ -16310,10 +16310,10 @@
       <c r="S43" s="13"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="314" t="s">
+      <c r="A44" s="322" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="314"/>
+      <c r="B44" s="322"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -16339,7 +16339,7 @@
       <c r="M44" s="126"/>
       <c r="N44" s="131">
         <f>N42-N43</f>
-        <v>-180381.84451672691</v>
+        <v>281712.29865617846</v>
       </c>
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
@@ -16348,32 +16348,32 @@
       <c r="S44" s="13"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="313" t="s">
+      <c r="A45" s="318" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="313"/>
+      <c r="B45" s="318"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="139" t="e">
+      <c r="F45" s="139">
         <f>F7</f>
-        <v>#NAME?</v>
+        <v>131868</v>
       </c>
       <c r="G45" s="139">
         <f>G7</f>
-        <v>0</v>
+        <v>134900.62411682113</v>
       </c>
       <c r="H45" s="139">
         <f>H7</f>
-        <v>0</v>
+        <v>136969.81149147992</v>
       </c>
       <c r="I45" s="139">
         <f>I7</f>
-        <v>0</v>
+        <v>139595.25071834619</v>
       </c>
       <c r="J45" s="140">
         <f>J7</f>
-        <v>0</v>
+        <v>142003.73075798561</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="125" t="s">
@@ -16391,10 +16391,10 @@
       <c r="S45" s="13"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="313" t="s">
+      <c r="A46" s="318" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="313"/>
+      <c r="B46" s="318"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -16404,19 +16404,19 @@
       </c>
       <c r="G46" s="139">
         <f>G9</f>
-        <v>0</v>
+        <v>34597.504156022449</v>
       </c>
       <c r="H46" s="139">
         <f>H9</f>
-        <v>0</v>
+        <v>34950.136726302742</v>
       </c>
       <c r="I46" s="139">
         <f>I9</f>
-        <v>0</v>
+        <v>36046.355062481685</v>
       </c>
       <c r="J46" s="140">
         <f>J9</f>
-        <v>0</v>
+        <v>36440.704364385259</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="127" t="s">
@@ -16425,7 +16425,7 @@
       <c r="M46" s="128"/>
       <c r="N46" s="133">
         <f>IFERROR(N44/N45,0)</f>
-        <v>-43.570493844620025</v>
+        <v>68.04644895076774</v>
       </c>
       <c r="O46" s="15"/>
       <c r="P46" s="15"/>
@@ -16434,10 +16434,10 @@
       <c r="S46" s="13"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="313" t="s">
+      <c r="A47" s="318" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="313"/>
+      <c r="B47" s="318"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -16447,19 +16447,19 @@
       </c>
       <c r="G47" s="139">
         <f>G11</f>
-        <v>0</v>
+        <v>16880.06288693257</v>
       </c>
       <c r="H47" s="139">
         <f>H11</f>
-        <v>0</v>
+        <v>17106.226336575575</v>
       </c>
       <c r="I47" s="139">
         <f>I11</f>
-        <v>0</v>
+        <v>17986.521662483545</v>
       </c>
       <c r="J47" s="140">
         <f>J11</f>
-        <v>0</v>
+        <v>17933.545172285703</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="125"/>
@@ -16472,10 +16472,10 @@
       <c r="S47" s="13"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="313" t="s">
+      <c r="A48" s="318" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="313"/>
+      <c r="B48" s="318"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -16510,10 +16510,10 @@
       <c r="S48" s="13"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="313" t="s">
+      <c r="A49" s="318" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="313"/>
+      <c r="B49" s="318"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -16523,19 +16523,19 @@
       </c>
       <c r="G49" s="109">
         <f t="shared" ref="G49:J49" si="41">G47*(1-G48)</f>
-        <v>0</v>
+        <v>15482.651952969083</v>
       </c>
       <c r="H49" s="109">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>15690.092529391117</v>
       </c>
       <c r="I49" s="109">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>16497.512871255454</v>
       </c>
       <c r="J49" s="142">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>16448.922023880234</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
@@ -16548,10 +16548,10 @@
       <c r="S49" s="13"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="313" t="s">
+      <c r="A50" s="318" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="313"/>
+      <c r="B50" s="318"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -16561,19 +16561,19 @@
       </c>
       <c r="G50" s="139">
         <f>G13</f>
-        <v>0</v>
+        <v>17717.441269089879</v>
       </c>
       <c r="H50" s="139">
         <f>H13</f>
-        <v>0</v>
+        <v>17843.910389727167</v>
       </c>
       <c r="I50" s="139">
         <f>I13</f>
-        <v>0</v>
+        <v>18059.833399998137</v>
       </c>
       <c r="J50" s="140">
         <f>J13</f>
-        <v>0</v>
+        <v>18507.15919209956</v>
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
@@ -16586,10 +16586,10 @@
       <c r="S50" s="13"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="313" t="s">
+      <c r="A51" s="318" t="s">
         <v>207</v>
       </c>
-      <c r="B51" s="313"/>
+      <c r="B51" s="318"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -16624,10 +16624,10 @@
       <c r="S51" s="13"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="313" t="s">
+      <c r="A52" s="318" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="313"/>
+      <c r="B52" s="318"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -16662,10 +16662,10 @@
       <c r="S52" s="13"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="313" t="s">
+      <c r="A53" s="318" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="313"/>
+      <c r="B53" s="318"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -16700,10 +16700,10 @@
       <c r="S53" s="13"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="313" t="s">
+      <c r="A54" s="318" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="313"/>
+      <c r="B54" s="318"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -16738,10 +16738,10 @@
       <c r="S54" s="13"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="313" t="s">
+      <c r="A55" s="318" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="313"/>
+      <c r="B55" s="318"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -16776,10 +16776,10 @@
       <c r="S55" s="13"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="313" t="s">
+      <c r="A56" s="318" t="s">
         <v>188</v>
       </c>
-      <c r="B56" s="313"/>
+      <c r="B56" s="318"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -16814,10 +16814,10 @@
       <c r="S56" s="13"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="313" t="s">
+      <c r="A57" s="318" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="313"/>
+      <c r="B57" s="318"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -16852,10 +16852,10 @@
       <c r="S57" s="13"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="313" t="s">
+      <c r="A58" s="318" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="313"/>
+      <c r="B58" s="318"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -16890,10 +16890,10 @@
       <c r="S58" s="13"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="315" t="s">
+      <c r="A59" s="319" t="s">
         <v>211</v>
       </c>
-      <c r="B59" s="315"/>
+      <c r="B59" s="319"/>
       <c r="C59" s="119"/>
       <c r="D59" s="119"/>
       <c r="E59" s="119"/>
@@ -16903,19 +16903,19 @@
       </c>
       <c r="G59" s="143">
         <f>SUM(G49:G58)</f>
-        <v>-4412.3134320398576</v>
+        <v>28787.779790019104</v>
       </c>
       <c r="H59" s="143">
         <f t="shared" ref="H59:I59" si="50">SUM(H49:H58)</f>
-        <v>-6462.5348106316433</v>
+        <v>27071.46810848665</v>
       </c>
       <c r="I59" s="143">
         <f t="shared" si="50"/>
-        <v>-10097.868726494637</v>
+        <v>24459.477544758956</v>
       </c>
       <c r="J59" s="144">
         <f>SUM(J49:J58)</f>
-        <v>-11649.350980452067</v>
+        <v>23306.730235527728</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
@@ -16928,10 +16928,10 @@
       <c r="S59" s="13"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="313" t="s">
+      <c r="A60" s="318" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="313"/>
+      <c r="B60" s="318"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -16966,10 +16966,10 @@
       <c r="S60" s="13"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="313" t="s">
+      <c r="A61" s="318" t="s">
         <v>213</v>
       </c>
-      <c r="B61" s="313"/>
+      <c r="B61" s="318"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -16979,19 +16979,19 @@
       </c>
       <c r="G61" s="139">
         <f t="shared" ref="G61:J61" si="52">G59/(1-G60)^G44</f>
-        <v>-5431.2660540375555</v>
+        <v>35435.853221414291</v>
       </c>
       <c r="H61" s="139">
         <f t="shared" si="52"/>
-        <v>-8825.8182291277462</v>
+        <v>36971.229358496763</v>
       </c>
       <c r="I61" s="139">
         <f t="shared" si="52"/>
-        <v>-15300.272471496692</v>
+        <v>37060.956235581711</v>
       </c>
       <c r="J61" s="140">
         <f t="shared" si="52"/>
-        <v>-19583.419888190332</v>
+        <v>39180.335899314494</v>
       </c>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
@@ -17004,13 +17004,13 @@
       <c r="S61" s="13"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="317" t="s">
+      <c r="A62" s="316" t="s">
         <v>214</v>
       </c>
-      <c r="B62" s="317"/>
+      <c r="B62" s="316"/>
       <c r="C62" s="268">
         <f>SUM(F61:J61)</f>
-        <v>-19611.414664292937</v>
+        <v>178177.73669336666</v>
       </c>
       <c r="D62" s="130"/>
       <c r="E62" s="130"/>
@@ -17029,8 +17029,8 @@
       <c r="S62" s="13"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="318"/>
-      <c r="B63" s="318"/>
+      <c r="A63" s="317"/>
+      <c r="B63" s="317"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -17050,140 +17050,179 @@
       <c r="S63" s="13"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="319"/>
-      <c r="B64" s="319"/>
+      <c r="A64" s="313"/>
+      <c r="B64" s="313"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="319"/>
-      <c r="B65" s="319"/>
+      <c r="A65" s="313"/>
+      <c r="B65" s="313"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="316"/>
-      <c r="B66" s="316"/>
+      <c r="A66" s="314"/>
+      <c r="B66" s="314"/>
       <c r="C66" s="110"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="316"/>
-      <c r="B67" s="316"/>
+      <c r="A67" s="314"/>
+      <c r="B67" s="314"/>
       <c r="C67" s="111"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="316"/>
-      <c r="B68" s="316"/>
+      <c r="A68" s="314"/>
+      <c r="B68" s="314"/>
       <c r="C68" s="112"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="316"/>
-      <c r="B69" s="316"/>
+      <c r="A69" s="314"/>
+      <c r="B69" s="314"/>
       <c r="C69" s="112"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="316"/>
-      <c r="B70" s="316"/>
+      <c r="A70" s="314"/>
+      <c r="B70" s="314"/>
       <c r="C70" s="112"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="319"/>
-      <c r="B72" s="319"/>
+      <c r="A72" s="313"/>
+      <c r="B72" s="313"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="316"/>
-      <c r="B73" s="316"/>
+      <c r="A73" s="314"/>
+      <c r="B73" s="314"/>
       <c r="C73" s="112"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="316"/>
-      <c r="B74" s="316"/>
+      <c r="A74" s="314"/>
+      <c r="B74" s="314"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="316"/>
-      <c r="B75" s="316"/>
+      <c r="A75" s="314"/>
+      <c r="B75" s="314"/>
       <c r="C75" s="111"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="316"/>
-      <c r="B76" s="316"/>
+      <c r="A76" s="314"/>
+      <c r="B76" s="314"/>
       <c r="C76" s="113"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="316"/>
-      <c r="B77" s="316"/>
+      <c r="A77" s="314"/>
+      <c r="B77" s="314"/>
       <c r="C77" s="111"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="316"/>
-      <c r="B78" s="316"/>
+      <c r="A78" s="314"/>
+      <c r="B78" s="314"/>
       <c r="C78" s="111"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="316"/>
-      <c r="B80" s="316"/>
+      <c r="A80" s="314"/>
+      <c r="B80" s="314"/>
       <c r="C80" s="114"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="316"/>
-      <c r="B81" s="316"/>
+      <c r="A81" s="314"/>
+      <c r="B81" s="314"/>
       <c r="C81" s="114"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="320"/>
-      <c r="B82" s="320"/>
+      <c r="A82" s="315"/>
+      <c r="B82" s="315"/>
       <c r="C82" s="114"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="316"/>
-      <c r="B83" s="316"/>
+      <c r="A83" s="314"/>
+      <c r="B83" s="314"/>
       <c r="C83" s="110"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="316"/>
-      <c r="B84" s="316"/>
+      <c r="A84" s="314"/>
+      <c r="B84" s="314"/>
       <c r="C84" s="110"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="316"/>
-      <c r="B85" s="316"/>
+      <c r="A85" s="314"/>
+      <c r="B85" s="314"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="316"/>
-      <c r="B86" s="316"/>
+      <c r="A86" s="314"/>
+      <c r="B86" s="314"/>
       <c r="C86" s="111"/>
       <c r="D86" s="111"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="316"/>
-      <c r="B87" s="316"/>
+      <c r="A87" s="314"/>
+      <c r="B87" s="314"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="319"/>
-      <c r="B88" s="319"/>
+      <c r="A88" s="313"/>
+      <c r="B88" s="313"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="316"/>
-      <c r="B89" s="316"/>
+      <c r="A89" s="314"/>
+      <c r="B89" s="314"/>
       <c r="C89" s="114"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="316"/>
-      <c r="B90" s="316"/>
+      <c r="A90" s="314"/>
+      <c r="B90" s="314"/>
       <c r="C90" s="114"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="320"/>
-      <c r="B91" s="320"/>
+      <c r="A91" s="315"/>
+      <c r="B91" s="315"/>
       <c r="C91" s="115"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="316"/>
-      <c r="B92" s="316"/>
+      <c r="A92" s="314"/>
+      <c r="B92" s="314"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
@@ -17196,50 +17235,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -17250,8 +17250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CAAAA1-AE59-4B49-86BC-C8B3BF8E138F}">
   <dimension ref="A1:BM454"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17301,24 +17301,24 @@
       <c r="B2" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="328"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="329"/>
       <c r="G2" s="15"/>
       <c r="H2" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="325"/>
+      <c r="I2" s="330"/>
+      <c r="J2" s="330"/>
+      <c r="K2" s="331"/>
       <c r="L2" s="15"/>
       <c r="M2" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="324"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="325"/>
+      <c r="N2" s="330"/>
+      <c r="O2" s="330"/>
+      <c r="P2" s="331"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
@@ -18269,9 +18269,9 @@
       <c r="M12" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="N12" s="324"/>
-      <c r="O12" s="324"/>
-      <c r="P12" s="325"/>
+      <c r="N12" s="330"/>
+      <c r="O12" s="330"/>
+      <c r="P12" s="331"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
@@ -19965,24 +19965,24 @@
       <c r="B32" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="326"/>
-      <c r="D32" s="326"/>
-      <c r="E32" s="326"/>
-      <c r="F32" s="327"/>
+      <c r="C32" s="328"/>
+      <c r="D32" s="328"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="329"/>
       <c r="G32" s="15"/>
       <c r="H32" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="324"/>
-      <c r="J32" s="324"/>
-      <c r="K32" s="325"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
+      <c r="K32" s="331"/>
       <c r="L32" s="15"/>
       <c r="M32" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="N32" s="324"/>
-      <c r="O32" s="324"/>
-      <c r="P32" s="325"/>
+      <c r="N32" s="330"/>
+      <c r="O32" s="330"/>
+      <c r="P32" s="331"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
@@ -20882,9 +20882,9 @@
       <c r="M42" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="N42" s="324"/>
-      <c r="O42" s="324"/>
-      <c r="P42" s="325"/>
+      <c r="N42" s="330"/>
+      <c r="O42" s="330"/>
+      <c r="P42" s="331"/>
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
@@ -22519,24 +22519,24 @@
       <c r="B62" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="326"/>
-      <c r="D62" s="326"/>
-      <c r="E62" s="326"/>
-      <c r="F62" s="327"/>
+      <c r="C62" s="328"/>
+      <c r="D62" s="328"/>
+      <c r="E62" s="328"/>
+      <c r="F62" s="329"/>
       <c r="G62" s="15"/>
       <c r="H62" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I62" s="324"/>
-      <c r="J62" s="324"/>
-      <c r="K62" s="325"/>
+      <c r="I62" s="330"/>
+      <c r="J62" s="330"/>
+      <c r="K62" s="331"/>
       <c r="L62" s="15"/>
       <c r="M62" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="N62" s="324"/>
-      <c r="O62" s="324"/>
-      <c r="P62" s="325"/>
+      <c r="N62" s="330"/>
+      <c r="O62" s="330"/>
+      <c r="P62" s="331"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
@@ -23487,9 +23487,9 @@
       <c r="M72" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="N72" s="324"/>
-      <c r="O72" s="324"/>
-      <c r="P72" s="325"/>
+      <c r="N72" s="330"/>
+      <c r="O72" s="330"/>
+      <c r="P72" s="331"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
@@ -25128,10 +25128,10 @@
     <row r="91" spans="1:65" ht="18.75" thickBot="1">
       <c r="A91" s="15"/>
       <c r="B91" s="23"/>
-      <c r="C91" s="321"/>
-      <c r="D91" s="322"/>
-      <c r="E91" s="322"/>
-      <c r="F91" s="323"/>
+      <c r="C91" s="332"/>
+      <c r="D91" s="333"/>
+      <c r="E91" s="333"/>
+      <c r="F91" s="334"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
@@ -25194,7 +25194,7 @@
     </row>
     <row r="92" spans="1:65" ht="18">
       <c r="A92" s="15"/>
-      <c r="B92" s="334" t="s">
+      <c r="B92" s="301" t="s">
         <v>240</v>
       </c>
       <c r="C92" s="179" t="s">
@@ -25286,7 +25286,7 @@
         <f t="shared" si="43"/>
         <v>-3294</v>
       </c>
-      <c r="F93" s="331">
+      <c r="F93" s="298">
         <f t="shared" si="43"/>
         <v>-7395</v>
       </c>
@@ -25367,7 +25367,7 @@
         <f t="shared" si="44"/>
         <v>0.91315581334036378</v>
       </c>
-      <c r="F94" s="332">
+      <c r="F94" s="299">
         <f t="shared" si="44"/>
         <v>0.83518320406525814</v>
       </c>
@@ -25448,7 +25448,7 @@
         <f>(CashY3+E7)/E17</f>
         <v>0.73416820458739784</v>
       </c>
-      <c r="F95" s="332">
+      <c r="F95" s="299">
         <f>(CashY4+F7)/F17</f>
         <v>0.62456539181599358</v>
       </c>
@@ -25526,7 +25526,7 @@
         <f t="shared" ref="E96:F96" si="45">J$6/E7</f>
         <v>5.2132499402438048</v>
       </c>
-      <c r="F96" s="332">
+      <c r="F96" s="299">
         <f t="shared" si="45"/>
         <v>5.1857328247276735</v>
       </c>
@@ -25604,7 +25604,7 @@
         <f t="shared" ref="E97:F97" si="46">365/E96</f>
         <v>70.013907674438158</v>
       </c>
-      <c r="F97" s="332">
+      <c r="F97" s="299">
         <f t="shared" si="46"/>
         <v>70.385423302089961</v>
       </c>
@@ -25682,7 +25682,7 @@
         <f t="shared" ref="E98:F98" si="47">J$6/E6</f>
         <v>97.95134730538922</v>
       </c>
-      <c r="F98" s="332">
+      <c r="F98" s="299">
         <f t="shared" si="47"/>
         <v>92.734177215189874</v>
       </c>
@@ -25760,7 +25760,7 @@
         <f t="shared" ref="E99:F99" si="48">E98*365</f>
         <v>35752.241766467065</v>
       </c>
-      <c r="F99" s="333">
+      <c r="F99" s="300">
         <f t="shared" si="48"/>
         <v>33847.974683544307</v>
       </c>
@@ -25832,7 +25832,7 @@
       <c r="C100" s="293"/>
       <c r="D100" s="293"/>
       <c r="E100" s="293"/>
-      <c r="F100" s="332"/>
+      <c r="F100" s="299"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
@@ -25901,7 +25901,7 @@
       <c r="C101" s="293"/>
       <c r="D101" s="293"/>
       <c r="E101" s="293"/>
-      <c r="F101" s="332"/>
+      <c r="F101" s="299"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
@@ -25970,7 +25970,7 @@
       <c r="C102" s="293"/>
       <c r="D102" s="293"/>
       <c r="E102" s="293"/>
-      <c r="F102" s="332"/>
+      <c r="F102" s="299"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
@@ -26045,7 +26045,7 @@
         <f t="shared" ref="E103:F103" si="49">J$6/E10</f>
         <v>1.4656609098850883</v>
       </c>
-      <c r="F103" s="332">
+      <c r="F103" s="299">
         <f t="shared" si="49"/>
         <v>1.4346733394984497</v>
       </c>
@@ -26126,7 +26126,7 @@
         <f>TotalLiabilitiesY3/TotalAssetsY3</f>
         <v>0.79341386328536523</v>
       </c>
-      <c r="F104" s="332">
+      <c r="F104" s="299">
         <f>TotalLiabilitiesY4/TotalAssetsY4</f>
         <v>0.78461026919003041</v>
       </c>
@@ -26204,7 +26204,7 @@
         <f>J17/AVERAGE(D28:E28)</f>
         <v>0.32272603800919547</v>
       </c>
-      <c r="F105" s="332">
+      <c r="F105" s="299">
         <f t="shared" ref="F105" si="50">K17/AVERAGE(E28:F28)</f>
         <v>0.33668807690671659</v>
       </c>
@@ -26281,7 +26281,7 @@
         <f>J17/AVERAGE(TotalAssetsY2, TotalAssetsY3)</f>
         <v>6.1455403738131548E-2</v>
       </c>
-      <c r="F106" s="332">
+      <c r="F106" s="299">
         <f>K17/AVERAGE(TotalAssetsY3, TotalAssetsY4)</f>
         <v>7.1108747367740172E-2</v>
       </c>
@@ -26358,7 +26358,7 @@
         <f t="shared" ref="E107:F107" si="51">J8/J$6</f>
         <v>0.57583121279506044</v>
       </c>
-      <c r="F107" s="332">
+      <c r="F107" s="299">
         <f t="shared" si="51"/>
         <v>0.58499408499408501</v>
       </c>
@@ -26436,7 +26436,7 @@
         <f t="shared" ref="E108:F108" si="52">J10/J6</f>
         <v>0.27260570214651964</v>
       </c>
-      <c r="F108" s="332">
+      <c r="F108" s="299">
         <f t="shared" si="52"/>
         <v>0.22812206145539479</v>
       </c>
@@ -26514,7 +26514,7 @@
         <f t="shared" ref="E109:F109" si="53">J11/J6</f>
         <v>0.17023910501822517</v>
       </c>
-      <c r="F109" s="332">
+      <c r="F109" s="299">
         <f t="shared" si="53"/>
         <v>0.23036673036673036</v>
       </c>
@@ -26592,7 +26592,7 @@
         <f t="shared" ref="E110:F110" si="54">J17/J6</f>
         <v>0.12256329138106264</v>
       </c>
-      <c r="F110" s="332">
+      <c r="F110" s="299">
         <f t="shared" si="54"/>
         <v>0.15005915005915005</v>
       </c>
@@ -26670,7 +26670,7 @@
         <f t="shared" ref="E111:F111" si="55">J18</f>
         <v>3.76</v>
       </c>
-      <c r="F111" s="331">
+      <c r="F111" s="298">
         <f t="shared" si="55"/>
         <v>4.66</v>
       </c>
@@ -26748,7 +26748,7 @@
         <f t="shared" ref="E112:F112" si="56">O19</f>
         <v>2.3649564375605032</v>
       </c>
-      <c r="F112" s="331">
+      <c r="F112" s="298">
         <f t="shared" si="56"/>
         <v>2.4193236714975845</v>
       </c>
@@ -26826,7 +26826,7 @@
         <f>J6/(AVERAGE(TotalAssetsY2+TotalAssetsY3))</f>
         <v>0.25070885028315693</v>
       </c>
-      <c r="F113" s="332">
+      <c r="F113" s="299">
         <f>K6/(AVERAGE(TotalAssetsY3+TotalAssetsY4))</f>
         <v>0.23693572614435923</v>
       </c>
@@ -26904,7 +26904,7 @@
         <f>E113*E110</f>
         <v>3.0727701869065774E-2</v>
       </c>
-      <c r="F114" s="332">
+      <c r="F114" s="299">
         <f>F113*F110</f>
         <v>3.5554373683870086E-2</v>
       </c>
@@ -26982,7 +26982,7 @@
         <f>(AVERAGE(TotalAssetsY2+TotalAssetsY3))/(AVERAGE(D28:E28))</f>
         <v>10.502771713431995</v>
       </c>
-      <c r="F115" s="332">
+      <c r="F115" s="299">
         <f>(AVERAGE(TotalAssetsY3+TotalAssetsY4))/(AVERAGE(E28:F28))</f>
         <v>9.4696669360670374</v>
       </c>
@@ -27060,7 +27060,7 @@
         <f t="shared" ref="E116:F116" si="57">E115*E114</f>
         <v>0.32272603800919547</v>
       </c>
-      <c r="F116" s="332">
+      <c r="F116" s="299">
         <f t="shared" si="57"/>
         <v>0.33668807690671654</v>
       </c>
@@ -27126,13 +27126,13 @@
     </row>
     <row r="117" spans="1:65" ht="15.75">
       <c r="A117" s="15"/>
-      <c r="B117" s="335" t="s">
+      <c r="B117" s="302" t="s">
         <v>262</v>
       </c>
-      <c r="C117" s="336"/>
-      <c r="D117" s="336"/>
-      <c r="E117" s="336"/>
-      <c r="F117" s="336"/>
+      <c r="C117" s="303"/>
+      <c r="D117" s="303"/>
+      <c r="E117" s="303"/>
+      <c r="F117" s="303"/>
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
@@ -49434,6 +49434,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="C62:F62"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="N2:P2"/>
@@ -49442,11 +49447,6 @@
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="C62:F62"/>
   </mergeCells>
   <conditionalFormatting sqref="C40:F40">
     <cfRule type="colorScale" priority="28">
@@ -50201,18 +50201,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="335" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="330" t="s">
+      <c r="B1" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
       <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="316"/>
+      <c r="A2" s="314"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -51342,18 +51342,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="335" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="330" t="s">
+      <c r="B1" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
       <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="316"/>
+      <c r="A2" s="314"/>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
